--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -427,7 +427,7 @@
         <v>1.013573793036465</v>
       </c>
       <c r="E2">
-        <v>1.001566256789699</v>
+        <v>1.001566256789698</v>
       </c>
       <c r="F2">
         <v>1.011717827086672</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9996998273212514</v>
+        <v>0.9996998273212498</v>
       </c>
       <c r="D3">
-        <v>1.01926300808584</v>
+        <v>1.019263008085839</v>
       </c>
       <c r="E3">
-        <v>1.007717960890998</v>
+        <v>1.007717960890997</v>
       </c>
       <c r="F3">
-        <v>1.018691173025502</v>
+        <v>1.018691173025501</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046515327431153</v>
+        <v>1.046515327431152</v>
       </c>
       <c r="J3">
-        <v>1.020198678692817</v>
+        <v>1.020198678692816</v>
       </c>
       <c r="K3">
-        <v>1.029655207979878</v>
+        <v>1.029655207979877</v>
       </c>
       <c r="L3">
-        <v>1.018253032308572</v>
+        <v>1.018253032308571</v>
       </c>
       <c r="M3">
-        <v>1.029090354675732</v>
+        <v>1.029090354675731</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -515,16 +515,16 @@
         <v>1.048119170449292</v>
       </c>
       <c r="J4">
-        <v>1.023566130702548</v>
+        <v>1.023566130702547</v>
       </c>
       <c r="K4">
-        <v>1.032665594351333</v>
+        <v>1.032665594351332</v>
       </c>
       <c r="L4">
         <v>1.021545152036769</v>
       </c>
       <c r="M4">
-        <v>1.032902075505261</v>
+        <v>1.03290207550526</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006160715311062</v>
+        <v>1.006160715311061</v>
       </c>
       <c r="D5">
-        <v>1.024312137327872</v>
+        <v>1.024312137327871</v>
       </c>
       <c r="E5">
-        <v>1.013184259443793</v>
+        <v>1.013184259443792</v>
       </c>
       <c r="F5">
         <v>1.024887879627936</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048778466076287</v>
+        <v>1.048778466076286</v>
       </c>
       <c r="J5">
-        <v>1.024957054428591</v>
+        <v>1.02495705442859</v>
       </c>
       <c r="K5">
-        <v>1.033908257782004</v>
+        <v>1.033908257782003</v>
       </c>
       <c r="L5">
-        <v>1.022905447418366</v>
+        <v>1.022905447418365</v>
       </c>
       <c r="M5">
         <v>1.034477620118122</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006476169025476</v>
+        <v>1.006476169025478</v>
       </c>
       <c r="D6">
-        <v>1.024558710366783</v>
+        <v>1.024558710366784</v>
       </c>
       <c r="E6">
-        <v>1.013451382237485</v>
+        <v>1.013451382237486</v>
       </c>
       <c r="F6">
         <v>1.025190706928107</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048888306623818</v>
+        <v>1.048888306623819</v>
       </c>
       <c r="J6">
-        <v>1.025189182399788</v>
+        <v>1.025189182399789</v>
       </c>
       <c r="K6">
-        <v>1.034115596662467</v>
+        <v>1.034115596662468</v>
       </c>
       <c r="L6">
-        <v>1.023132492344303</v>
+        <v>1.023132492344304</v>
       </c>
       <c r="M6">
-        <v>1.034740624483434</v>
+        <v>1.034740624483435</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.011606035260229</v>
       </c>
       <c r="F7">
-        <v>1.023098729307823</v>
+        <v>1.023098729307824</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9949081896797207</v>
+        <v>0.9949081896797195</v>
       </c>
       <c r="D8">
-        <v>1.015519937561965</v>
+        <v>1.015519937561963</v>
       </c>
       <c r="E8">
-        <v>1.00366977166722</v>
+        <v>1.003669771667218</v>
       </c>
       <c r="F8">
-        <v>1.014102269566669</v>
+        <v>1.014102269566668</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044821426826374</v>
+        <v>1.044821426826373</v>
       </c>
       <c r="J8">
-        <v>1.016665132668407</v>
+        <v>1.016665132668406</v>
       </c>
       <c r="K8">
-        <v>1.026493706402427</v>
+        <v>1.026493706402425</v>
       </c>
       <c r="L8">
         <v>1.014800261970803</v>
       </c>
       <c r="M8">
-        <v>1.025094545753171</v>
+        <v>1.025094545753169</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9771841652035997</v>
+        <v>0.9771841652036001</v>
       </c>
       <c r="D9">
         <v>1.001691503096081</v>
       </c>
       <c r="E9">
-        <v>0.9887394042207009</v>
+        <v>0.9887394042207008</v>
       </c>
       <c r="F9">
-        <v>0.9971778021671307</v>
+        <v>0.997177802167131</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9644256215455884</v>
+        <v>0.9644256215455876</v>
       </c>
       <c r="D10">
-        <v>0.9917595106759044</v>
+        <v>0.9917595106759035</v>
       </c>
       <c r="E10">
-        <v>0.9780353832857677</v>
+        <v>0.9780353832857669</v>
       </c>
       <c r="F10">
-        <v>0.9850428923067449</v>
+        <v>0.9850428923067439</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.033803148388373</v>
       </c>
       <c r="J10">
-        <v>0.9941253968338137</v>
+        <v>0.9941253968338128</v>
       </c>
       <c r="K10">
-        <v>1.006279160919495</v>
+        <v>1.006279160919494</v>
       </c>
       <c r="L10">
-        <v>0.9928128727642611</v>
+        <v>0.9928128727642603</v>
       </c>
       <c r="M10">
-        <v>0.9996875573263727</v>
+        <v>0.9996875573263718</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586383030754075</v>
+        <v>0.9586383030754052</v>
       </c>
       <c r="D11">
-        <v>0.9872619695594876</v>
+        <v>0.9872619695594856</v>
       </c>
       <c r="E11">
-        <v>0.9731923516004614</v>
+        <v>0.9731923516004591</v>
       </c>
       <c r="F11">
-        <v>0.9795517647968301</v>
+        <v>0.9795517647968278</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031674335605668</v>
+        <v>1.031674335605667</v>
       </c>
       <c r="J11">
-        <v>0.9898390867103666</v>
+        <v>0.9898390867103646</v>
       </c>
       <c r="K11">
-        <v>1.002428172021515</v>
+        <v>1.002428172021512</v>
       </c>
       <c r="L11">
-        <v>0.9886381695106574</v>
+        <v>0.9886381695106553</v>
       </c>
       <c r="M11">
-        <v>0.9948698897529249</v>
+        <v>0.9948698897529228</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9564452699251863</v>
+        <v>0.9564452699251846</v>
       </c>
       <c r="D12">
-        <v>0.9855590557373628</v>
+        <v>0.9855590557373614</v>
       </c>
       <c r="E12">
-        <v>0.9713591943564485</v>
+        <v>0.9713591943564468</v>
       </c>
       <c r="F12">
-        <v>0.9774731532530594</v>
+        <v>0.9774731532530578</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030865253199779</v>
+        <v>1.030865253199778</v>
       </c>
       <c r="J12">
-        <v>0.9882145869107352</v>
+        <v>0.9882145869107335</v>
       </c>
       <c r="K12">
-        <v>1.000968251511723</v>
+        <v>1.000968251511722</v>
       </c>
       <c r="L12">
-        <v>0.9870564761956031</v>
+        <v>0.9870564761956013</v>
       </c>
       <c r="M12">
-        <v>0.9930450431112269</v>
+        <v>0.9930450431112255</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9569177135701837</v>
+        <v>0.9569177135701833</v>
       </c>
       <c r="D13">
-        <v>0.9859258474131561</v>
+        <v>0.9859258474131558</v>
       </c>
       <c r="E13">
-        <v>0.9717540143031886</v>
+        <v>0.9717540143031881</v>
       </c>
       <c r="F13">
-        <v>0.9779208453951577</v>
+        <v>0.9779208453951573</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031039659142858</v>
       </c>
       <c r="J13">
-        <v>0.988564561014357</v>
+        <v>0.9885645610143566</v>
       </c>
       <c r="K13">
-        <v>1.001282787047594</v>
+        <v>1.001282787047593</v>
       </c>
       <c r="L13">
-        <v>0.9873972049810262</v>
+        <v>0.9873972049810258</v>
       </c>
       <c r="M13">
-        <v>0.993438131707395</v>
+        <v>0.9934381317073947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9584579352747928</v>
+        <v>0.9584579352747934</v>
       </c>
       <c r="D14">
-        <v>0.9871218827836105</v>
+        <v>0.987121882783611</v>
       </c>
       <c r="E14">
-        <v>0.9730415393320908</v>
+        <v>0.9730415393320911</v>
       </c>
       <c r="F14">
-        <v>0.9793807622921383</v>
+        <v>0.9793807622921389</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.031607839724684</v>
       </c>
       <c r="J14">
-        <v>0.9897054827518504</v>
+        <v>0.9897054827518511</v>
       </c>
       <c r="K14">
-        <v>1.002308111543138</v>
+        <v>1.002308111543139</v>
       </c>
       <c r="L14">
-        <v>0.9885080756601675</v>
+        <v>0.9885080756601681</v>
       </c>
       <c r="M14">
-        <v>0.9947197874712395</v>
+        <v>0.9947197874712399</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9594010451344472</v>
+        <v>0.9594010451344478</v>
       </c>
       <c r="D15">
-        <v>0.9878544278386866</v>
+        <v>0.987854427838687</v>
       </c>
       <c r="E15">
-        <v>0.9738301932729794</v>
+        <v>0.9738301932729804</v>
       </c>
       <c r="F15">
-        <v>0.980274992608537</v>
+        <v>0.9802749926085379</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031955437891955</v>
+        <v>1.031955437891956</v>
       </c>
       <c r="J15">
-        <v>0.9904040635946865</v>
+        <v>0.9904040635946871</v>
       </c>
       <c r="K15">
         <v>1.002935860774298</v>
       </c>
       <c r="L15">
-        <v>0.9891883238145002</v>
+        <v>0.9891883238145009</v>
       </c>
       <c r="M15">
-        <v>0.9955046760732735</v>
+        <v>0.9955046760732742</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9648038504331624</v>
+        <v>0.9648038504331616</v>
       </c>
       <c r="D16">
-        <v>0.9920536228429824</v>
+        <v>0.9920536228429822</v>
       </c>
       <c r="E16">
-        <v>0.9783521696417165</v>
+        <v>0.978352169641716</v>
       </c>
       <c r="F16">
-        <v>0.9854020537846295</v>
+        <v>0.9854020537846292</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033941939714001</v>
+        <v>1.033941939714</v>
       </c>
       <c r="J16">
-        <v>0.9944054850119303</v>
+        <v>0.9944054850119297</v>
       </c>
       <c r="K16">
         <v>1.006530744724207</v>
       </c>
       <c r="L16">
-        <v>0.9930857366066811</v>
+        <v>0.9930857366066806</v>
       </c>
       <c r="M16">
-        <v>1.000002508002731</v>
+        <v>1.00000250800273</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.968119949644159</v>
+        <v>0.9681199496441604</v>
       </c>
       <c r="D17">
-        <v>0.994633119598447</v>
+        <v>0.9946331195984485</v>
       </c>
       <c r="E17">
-        <v>0.9811309876643114</v>
+        <v>0.9811309876643128</v>
       </c>
       <c r="F17">
-        <v>0.988552500098676</v>
+        <v>0.9885525000986772</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.03515690591669</v>
       </c>
       <c r="J17">
-        <v>0.9968608642130408</v>
+        <v>0.9968608642130422</v>
       </c>
       <c r="K17">
-        <v>1.008735908620825</v>
+        <v>1.008735908620826</v>
       </c>
       <c r="L17">
-        <v>0.9954781504159083</v>
+        <v>0.9954781504159096</v>
       </c>
       <c r="M17">
-        <v>1.002764267434116</v>
+        <v>1.002764267434117</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9700291077809979</v>
+        <v>0.970029107780998</v>
       </c>
       <c r="D18">
-        <v>0.9961188993309947</v>
+        <v>0.9961188993309946</v>
       </c>
       <c r="E18">
-        <v>0.9827319649041403</v>
+        <v>0.9827319649041402</v>
       </c>
       <c r="F18">
-        <v>0.9903675234791123</v>
+        <v>0.9903675234791116</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035854806742159</v>
       </c>
       <c r="J18">
-        <v>0.998274232969385</v>
+        <v>0.9982742329693849</v>
       </c>
       <c r="K18">
         <v>1.010004963612399</v>
       </c>
       <c r="L18">
-        <v>0.9968555764140445</v>
+        <v>0.9968555764140443</v>
       </c>
       <c r="M18">
-        <v>1.00435462362516</v>
+        <v>1.004354623625159</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9706759392906762</v>
+        <v>0.9706759392906746</v>
       </c>
       <c r="D19">
-        <v>0.9966224010198145</v>
+        <v>0.9966224010198134</v>
       </c>
       <c r="E19">
-        <v>0.9832745721256481</v>
+        <v>0.9832745721256466</v>
       </c>
       <c r="F19">
-        <v>0.9909826662217107</v>
+        <v>0.9909826662217094</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036090986401256</v>
+        <v>1.036090986401255</v>
       </c>
       <c r="J19">
-        <v>0.9987530423021898</v>
+        <v>0.9987530423021882</v>
       </c>
       <c r="K19">
-        <v>1.010434834026172</v>
+        <v>1.010434834026171</v>
       </c>
       <c r="L19">
-        <v>0.9973222598844746</v>
+        <v>0.9973222598844734</v>
       </c>
       <c r="M19">
-        <v>1.004893497181593</v>
+        <v>1.004893497181591</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677667827320516</v>
+        <v>0.9677667827320513</v>
       </c>
       <c r="D20">
-        <v>0.9943583269475266</v>
+        <v>0.9943583269475259</v>
       </c>
       <c r="E20">
-        <v>0.9808349212672581</v>
+        <v>0.9808349212672576</v>
       </c>
       <c r="F20">
-        <v>0.9882168456620526</v>
+        <v>0.9882168456620519</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035027675007898</v>
       </c>
       <c r="J20">
-        <v>0.9965993899097525</v>
+        <v>0.9965993899097521</v>
       </c>
       <c r="K20">
-        <v>1.008501109120078</v>
+        <v>1.008501109120077</v>
       </c>
       <c r="L20">
-        <v>0.9952233498329101</v>
+        <v>0.9952233498329096</v>
       </c>
       <c r="M20">
-        <v>1.002470101073994</v>
+        <v>1.002470101073993</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9580056093415038</v>
+        <v>0.958005609341506</v>
       </c>
       <c r="D21">
-        <v>0.9867705964065379</v>
+        <v>0.9867705964065401</v>
       </c>
       <c r="E21">
-        <v>0.9726633663479106</v>
+        <v>0.9726633663479126</v>
       </c>
       <c r="F21">
-        <v>0.9789519583940703</v>
+        <v>0.9789519583940726</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031441043476528</v>
+        <v>1.031441043476529</v>
       </c>
       <c r="J21">
-        <v>0.9893704274459284</v>
+        <v>0.9893704274459306</v>
       </c>
       <c r="K21">
-        <v>1.002007014539856</v>
+        <v>1.002007014539858</v>
       </c>
       <c r="L21">
-        <v>0.9881818313334526</v>
+        <v>0.9881818313334548</v>
       </c>
       <c r="M21">
-        <v>0.9943433740169249</v>
+        <v>0.9943433740169271</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9516151398385511</v>
+        <v>0.9516151398385525</v>
       </c>
       <c r="D22">
-        <v>0.9818112176078249</v>
+        <v>0.9818112176078262</v>
       </c>
       <c r="E22">
-        <v>0.9673257079301917</v>
+        <v>0.9673257079301932</v>
       </c>
       <c r="F22">
-        <v>0.9728992913769606</v>
+        <v>0.9728992913769617</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029078992203935</v>
+        <v>1.029078992203936</v>
       </c>
       <c r="J22">
-        <v>0.9846363358445329</v>
+        <v>0.9846363358445342</v>
       </c>
       <c r="K22">
-        <v>0.9977518191646714</v>
+        <v>0.9977518191646724</v>
       </c>
       <c r="L22">
-        <v>0.9835734789672232</v>
+        <v>0.9835734789672245</v>
       </c>
       <c r="M22">
-        <v>0.9890274386112319</v>
+        <v>0.9890274386112332</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9550282943473314</v>
       </c>
       <c r="D23">
-        <v>0.9844591768614247</v>
+        <v>0.9844591768614244</v>
       </c>
       <c r="E23">
-        <v>0.9701753483275218</v>
+        <v>0.9701753483275216</v>
       </c>
       <c r="F23">
-        <v>0.9761307491725215</v>
+        <v>0.9761307491725214</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.030341826110964</v>
       </c>
       <c r="J23">
-        <v>0.9871649015811849</v>
+        <v>0.9871649015811846</v>
       </c>
       <c r="K23">
         <v>1.000024802012105</v>
       </c>
       <c r="L23">
-        <v>0.986034596893567</v>
+        <v>0.9860345968935668</v>
       </c>
       <c r="M23">
-        <v>0.9918661976967849</v>
+        <v>0.9918661976967847</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9679264408328444</v>
+        <v>0.9679264408328441</v>
       </c>
       <c r="D24">
-        <v>0.9944825518039029</v>
+        <v>0.9944825518039031</v>
       </c>
       <c r="E24">
-        <v>0.9809687620823966</v>
+        <v>0.9809687620823965</v>
       </c>
       <c r="F24">
-        <v>0.988368582976227</v>
+        <v>0.9883685829762272</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.03508610206554</v>
       </c>
       <c r="J24">
-        <v>0.9967175968238045</v>
+        <v>0.9967175968238043</v>
       </c>
       <c r="K24">
         <v>1.008607257816386</v>
       </c>
       <c r="L24">
-        <v>0.9953385387662355</v>
+        <v>0.9953385387662353</v>
       </c>
       <c r="M24">
-        <v>1.002603085413541</v>
+        <v>1.002603085413542</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819204213029503</v>
+        <v>0.9819204213029493</v>
       </c>
       <c r="D25">
-        <v>1.005383669494645</v>
+        <v>1.005383669494644</v>
       </c>
       <c r="E25">
-        <v>0.992722331936833</v>
+        <v>0.9927223319368322</v>
       </c>
       <c r="F25">
-        <v>1.001692786674453</v>
+        <v>1.001692786674452</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>1.007071939773504</v>
       </c>
       <c r="K25">
-        <v>1.01789898187392</v>
+        <v>1.017898981873919</v>
       </c>
       <c r="L25">
         <v>1.005434684767134</v>

--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -427,7 +427,7 @@
         <v>1.013573793036465</v>
       </c>
       <c r="E2">
-        <v>1.001566256789698</v>
+        <v>1.001566256789699</v>
       </c>
       <c r="F2">
         <v>1.011717827086672</v>
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9996998273212498</v>
+        <v>0.9996998273212514</v>
       </c>
       <c r="D3">
-        <v>1.019263008085839</v>
+        <v>1.01926300808584</v>
       </c>
       <c r="E3">
-        <v>1.007717960890997</v>
+        <v>1.007717960890998</v>
       </c>
       <c r="F3">
-        <v>1.018691173025501</v>
+        <v>1.018691173025502</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046515327431152</v>
+        <v>1.046515327431153</v>
       </c>
       <c r="J3">
-        <v>1.020198678692816</v>
+        <v>1.020198678692817</v>
       </c>
       <c r="K3">
-        <v>1.029655207979877</v>
+        <v>1.029655207979878</v>
       </c>
       <c r="L3">
-        <v>1.018253032308571</v>
+        <v>1.018253032308572</v>
       </c>
       <c r="M3">
-        <v>1.029090354675731</v>
+        <v>1.029090354675732</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -515,16 +515,16 @@
         <v>1.048119170449292</v>
       </c>
       <c r="J4">
-        <v>1.023566130702547</v>
+        <v>1.023566130702548</v>
       </c>
       <c r="K4">
-        <v>1.032665594351332</v>
+        <v>1.032665594351333</v>
       </c>
       <c r="L4">
         <v>1.021545152036769</v>
       </c>
       <c r="M4">
-        <v>1.03290207550526</v>
+        <v>1.032902075505261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006160715311061</v>
+        <v>1.006160715311062</v>
       </c>
       <c r="D5">
-        <v>1.024312137327871</v>
+        <v>1.024312137327872</v>
       </c>
       <c r="E5">
-        <v>1.013184259443792</v>
+        <v>1.013184259443793</v>
       </c>
       <c r="F5">
         <v>1.024887879627936</v>
@@ -550,16 +550,16 @@
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048778466076286</v>
+        <v>1.048778466076287</v>
       </c>
       <c r="J5">
-        <v>1.02495705442859</v>
+        <v>1.024957054428591</v>
       </c>
       <c r="K5">
-        <v>1.033908257782003</v>
+        <v>1.033908257782004</v>
       </c>
       <c r="L5">
-        <v>1.022905447418365</v>
+        <v>1.022905447418366</v>
       </c>
       <c r="M5">
         <v>1.034477620118122</v>
@@ -573,13 +573,13 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006476169025478</v>
+        <v>1.006476169025476</v>
       </c>
       <c r="D6">
-        <v>1.024558710366784</v>
+        <v>1.024558710366783</v>
       </c>
       <c r="E6">
-        <v>1.013451382237486</v>
+        <v>1.013451382237485</v>
       </c>
       <c r="F6">
         <v>1.025190706928107</v>
@@ -588,19 +588,19 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048888306623819</v>
+        <v>1.048888306623818</v>
       </c>
       <c r="J6">
-        <v>1.025189182399789</v>
+        <v>1.025189182399788</v>
       </c>
       <c r="K6">
-        <v>1.034115596662468</v>
+        <v>1.034115596662467</v>
       </c>
       <c r="L6">
-        <v>1.023132492344304</v>
+        <v>1.023132492344303</v>
       </c>
       <c r="M6">
-        <v>1.034740624483435</v>
+        <v>1.034740624483434</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,7 +620,7 @@
         <v>1.011606035260229</v>
       </c>
       <c r="F7">
-        <v>1.023098729307824</v>
+        <v>1.023098729307823</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9949081896797195</v>
+        <v>0.9949081896797207</v>
       </c>
       <c r="D8">
-        <v>1.015519937561963</v>
+        <v>1.015519937561965</v>
       </c>
       <c r="E8">
-        <v>1.003669771667218</v>
+        <v>1.00366977166722</v>
       </c>
       <c r="F8">
-        <v>1.014102269566668</v>
+        <v>1.014102269566669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044821426826373</v>
+        <v>1.044821426826374</v>
       </c>
       <c r="J8">
-        <v>1.016665132668406</v>
+        <v>1.016665132668407</v>
       </c>
       <c r="K8">
-        <v>1.026493706402425</v>
+        <v>1.026493706402427</v>
       </c>
       <c r="L8">
         <v>1.014800261970803</v>
       </c>
       <c r="M8">
-        <v>1.025094545753169</v>
+        <v>1.025094545753171</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9771841652036001</v>
+        <v>0.9771841652035997</v>
       </c>
       <c r="D9">
         <v>1.001691503096081</v>
       </c>
       <c r="E9">
-        <v>0.9887394042207008</v>
+        <v>0.9887394042207009</v>
       </c>
       <c r="F9">
-        <v>0.997177802167131</v>
+        <v>0.9971778021671307</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9644256215455876</v>
+        <v>0.9644256215455884</v>
       </c>
       <c r="D10">
-        <v>0.9917595106759035</v>
+        <v>0.9917595106759044</v>
       </c>
       <c r="E10">
-        <v>0.9780353832857669</v>
+        <v>0.9780353832857677</v>
       </c>
       <c r="F10">
-        <v>0.9850428923067439</v>
+        <v>0.9850428923067449</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.033803148388373</v>
       </c>
       <c r="J10">
-        <v>0.9941253968338128</v>
+        <v>0.9941253968338137</v>
       </c>
       <c r="K10">
-        <v>1.006279160919494</v>
+        <v>1.006279160919495</v>
       </c>
       <c r="L10">
-        <v>0.9928128727642603</v>
+        <v>0.9928128727642611</v>
       </c>
       <c r="M10">
-        <v>0.9996875573263718</v>
+        <v>0.9996875573263727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586383030754052</v>
+        <v>0.9586383030754075</v>
       </c>
       <c r="D11">
-        <v>0.9872619695594856</v>
+        <v>0.9872619695594876</v>
       </c>
       <c r="E11">
-        <v>0.9731923516004591</v>
+        <v>0.9731923516004614</v>
       </c>
       <c r="F11">
-        <v>0.9795517647968278</v>
+        <v>0.9795517647968301</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031674335605667</v>
+        <v>1.031674335605668</v>
       </c>
       <c r="J11">
-        <v>0.9898390867103646</v>
+        <v>0.9898390867103666</v>
       </c>
       <c r="K11">
-        <v>1.002428172021512</v>
+        <v>1.002428172021515</v>
       </c>
       <c r="L11">
-        <v>0.9886381695106553</v>
+        <v>0.9886381695106574</v>
       </c>
       <c r="M11">
-        <v>0.9948698897529228</v>
+        <v>0.9948698897529249</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9564452699251846</v>
+        <v>0.9564452699251863</v>
       </c>
       <c r="D12">
-        <v>0.9855590557373614</v>
+        <v>0.9855590557373628</v>
       </c>
       <c r="E12">
-        <v>0.9713591943564468</v>
+        <v>0.9713591943564485</v>
       </c>
       <c r="F12">
-        <v>0.9774731532530578</v>
+        <v>0.9774731532530594</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030865253199778</v>
+        <v>1.030865253199779</v>
       </c>
       <c r="J12">
-        <v>0.9882145869107335</v>
+        <v>0.9882145869107352</v>
       </c>
       <c r="K12">
-        <v>1.000968251511722</v>
+        <v>1.000968251511723</v>
       </c>
       <c r="L12">
-        <v>0.9870564761956013</v>
+        <v>0.9870564761956031</v>
       </c>
       <c r="M12">
-        <v>0.9930450431112255</v>
+        <v>0.9930450431112269</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9569177135701833</v>
+        <v>0.9569177135701837</v>
       </c>
       <c r="D13">
-        <v>0.9859258474131558</v>
+        <v>0.9859258474131561</v>
       </c>
       <c r="E13">
-        <v>0.9717540143031881</v>
+        <v>0.9717540143031886</v>
       </c>
       <c r="F13">
-        <v>0.9779208453951573</v>
+        <v>0.9779208453951577</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.031039659142858</v>
       </c>
       <c r="J13">
-        <v>0.9885645610143566</v>
+        <v>0.988564561014357</v>
       </c>
       <c r="K13">
-        <v>1.001282787047593</v>
+        <v>1.001282787047594</v>
       </c>
       <c r="L13">
-        <v>0.9873972049810258</v>
+        <v>0.9873972049810262</v>
       </c>
       <c r="M13">
-        <v>0.9934381317073947</v>
+        <v>0.993438131707395</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9584579352747934</v>
+        <v>0.9584579352747928</v>
       </c>
       <c r="D14">
-        <v>0.987121882783611</v>
+        <v>0.9871218827836105</v>
       </c>
       <c r="E14">
-        <v>0.9730415393320911</v>
+        <v>0.9730415393320908</v>
       </c>
       <c r="F14">
-        <v>0.9793807622921389</v>
+        <v>0.9793807622921383</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.031607839724684</v>
       </c>
       <c r="J14">
-        <v>0.9897054827518511</v>
+        <v>0.9897054827518504</v>
       </c>
       <c r="K14">
-        <v>1.002308111543139</v>
+        <v>1.002308111543138</v>
       </c>
       <c r="L14">
-        <v>0.9885080756601681</v>
+        <v>0.9885080756601675</v>
       </c>
       <c r="M14">
-        <v>0.9947197874712399</v>
+        <v>0.9947197874712395</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9594010451344478</v>
+        <v>0.9594010451344472</v>
       </c>
       <c r="D15">
-        <v>0.987854427838687</v>
+        <v>0.9878544278386866</v>
       </c>
       <c r="E15">
-        <v>0.9738301932729804</v>
+        <v>0.9738301932729794</v>
       </c>
       <c r="F15">
-        <v>0.9802749926085379</v>
+        <v>0.980274992608537</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031955437891956</v>
+        <v>1.031955437891955</v>
       </c>
       <c r="J15">
-        <v>0.9904040635946871</v>
+        <v>0.9904040635946865</v>
       </c>
       <c r="K15">
         <v>1.002935860774298</v>
       </c>
       <c r="L15">
-        <v>0.9891883238145009</v>
+        <v>0.9891883238145002</v>
       </c>
       <c r="M15">
-        <v>0.9955046760732742</v>
+        <v>0.9955046760732735</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9648038504331616</v>
+        <v>0.9648038504331624</v>
       </c>
       <c r="D16">
-        <v>0.9920536228429822</v>
+        <v>0.9920536228429824</v>
       </c>
       <c r="E16">
-        <v>0.978352169641716</v>
+        <v>0.9783521696417165</v>
       </c>
       <c r="F16">
-        <v>0.9854020537846292</v>
+        <v>0.9854020537846295</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033941939714</v>
+        <v>1.033941939714001</v>
       </c>
       <c r="J16">
-        <v>0.9944054850119297</v>
+        <v>0.9944054850119303</v>
       </c>
       <c r="K16">
         <v>1.006530744724207</v>
       </c>
       <c r="L16">
-        <v>0.9930857366066806</v>
+        <v>0.9930857366066811</v>
       </c>
       <c r="M16">
-        <v>1.00000250800273</v>
+        <v>1.000002508002731</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9681199496441604</v>
+        <v>0.968119949644159</v>
       </c>
       <c r="D17">
-        <v>0.9946331195984485</v>
+        <v>0.994633119598447</v>
       </c>
       <c r="E17">
-        <v>0.9811309876643128</v>
+        <v>0.9811309876643114</v>
       </c>
       <c r="F17">
-        <v>0.9885525000986772</v>
+        <v>0.988552500098676</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.03515690591669</v>
       </c>
       <c r="J17">
-        <v>0.9968608642130422</v>
+        <v>0.9968608642130408</v>
       </c>
       <c r="K17">
-        <v>1.008735908620826</v>
+        <v>1.008735908620825</v>
       </c>
       <c r="L17">
-        <v>0.9954781504159096</v>
+        <v>0.9954781504159083</v>
       </c>
       <c r="M17">
-        <v>1.002764267434117</v>
+        <v>1.002764267434116</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.970029107780998</v>
+        <v>0.9700291077809979</v>
       </c>
       <c r="D18">
-        <v>0.9961188993309946</v>
+        <v>0.9961188993309947</v>
       </c>
       <c r="E18">
-        <v>0.9827319649041402</v>
+        <v>0.9827319649041403</v>
       </c>
       <c r="F18">
-        <v>0.9903675234791116</v>
+        <v>0.9903675234791123</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.035854806742159</v>
       </c>
       <c r="J18">
-        <v>0.9982742329693849</v>
+        <v>0.998274232969385</v>
       </c>
       <c r="K18">
         <v>1.010004963612399</v>
       </c>
       <c r="L18">
-        <v>0.9968555764140443</v>
+        <v>0.9968555764140445</v>
       </c>
       <c r="M18">
-        <v>1.004354623625159</v>
+        <v>1.00435462362516</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9706759392906746</v>
+        <v>0.9706759392906762</v>
       </c>
       <c r="D19">
-        <v>0.9966224010198134</v>
+        <v>0.9966224010198145</v>
       </c>
       <c r="E19">
-        <v>0.9832745721256466</v>
+        <v>0.9832745721256481</v>
       </c>
       <c r="F19">
-        <v>0.9909826662217094</v>
+        <v>0.9909826662217107</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036090986401255</v>
+        <v>1.036090986401256</v>
       </c>
       <c r="J19">
-        <v>0.9987530423021882</v>
+        <v>0.9987530423021898</v>
       </c>
       <c r="K19">
-        <v>1.010434834026171</v>
+        <v>1.010434834026172</v>
       </c>
       <c r="L19">
-        <v>0.9973222598844734</v>
+        <v>0.9973222598844746</v>
       </c>
       <c r="M19">
-        <v>1.004893497181591</v>
+        <v>1.004893497181593</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677667827320513</v>
+        <v>0.9677667827320516</v>
       </c>
       <c r="D20">
-        <v>0.9943583269475259</v>
+        <v>0.9943583269475266</v>
       </c>
       <c r="E20">
-        <v>0.9808349212672576</v>
+        <v>0.9808349212672581</v>
       </c>
       <c r="F20">
-        <v>0.9882168456620519</v>
+        <v>0.9882168456620526</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.035027675007898</v>
       </c>
       <c r="J20">
-        <v>0.9965993899097521</v>
+        <v>0.9965993899097525</v>
       </c>
       <c r="K20">
-        <v>1.008501109120077</v>
+        <v>1.008501109120078</v>
       </c>
       <c r="L20">
-        <v>0.9952233498329096</v>
+        <v>0.9952233498329101</v>
       </c>
       <c r="M20">
-        <v>1.002470101073993</v>
+        <v>1.002470101073994</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.958005609341506</v>
+        <v>0.9580056093415038</v>
       </c>
       <c r="D21">
-        <v>0.9867705964065401</v>
+        <v>0.9867705964065379</v>
       </c>
       <c r="E21">
-        <v>0.9726633663479126</v>
+        <v>0.9726633663479106</v>
       </c>
       <c r="F21">
-        <v>0.9789519583940726</v>
+        <v>0.9789519583940703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031441043476529</v>
+        <v>1.031441043476528</v>
       </c>
       <c r="J21">
-        <v>0.9893704274459306</v>
+        <v>0.9893704274459284</v>
       </c>
       <c r="K21">
-        <v>1.002007014539858</v>
+        <v>1.002007014539856</v>
       </c>
       <c r="L21">
-        <v>0.9881818313334548</v>
+        <v>0.9881818313334526</v>
       </c>
       <c r="M21">
-        <v>0.9943433740169271</v>
+        <v>0.9943433740169249</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9516151398385525</v>
+        <v>0.9516151398385511</v>
       </c>
       <c r="D22">
-        <v>0.9818112176078262</v>
+        <v>0.9818112176078249</v>
       </c>
       <c r="E22">
-        <v>0.9673257079301932</v>
+        <v>0.9673257079301917</v>
       </c>
       <c r="F22">
-        <v>0.9728992913769617</v>
+        <v>0.9728992913769606</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029078992203936</v>
+        <v>1.029078992203935</v>
       </c>
       <c r="J22">
-        <v>0.9846363358445342</v>
+        <v>0.9846363358445329</v>
       </c>
       <c r="K22">
-        <v>0.9977518191646724</v>
+        <v>0.9977518191646714</v>
       </c>
       <c r="L22">
-        <v>0.9835734789672245</v>
+        <v>0.9835734789672232</v>
       </c>
       <c r="M22">
-        <v>0.9890274386112332</v>
+        <v>0.9890274386112319</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1222,13 +1222,13 @@
         <v>0.9550282943473314</v>
       </c>
       <c r="D23">
-        <v>0.9844591768614244</v>
+        <v>0.9844591768614247</v>
       </c>
       <c r="E23">
-        <v>0.9701753483275216</v>
+        <v>0.9701753483275218</v>
       </c>
       <c r="F23">
-        <v>0.9761307491725214</v>
+        <v>0.9761307491725215</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.030341826110964</v>
       </c>
       <c r="J23">
-        <v>0.9871649015811846</v>
+        <v>0.9871649015811849</v>
       </c>
       <c r="K23">
         <v>1.000024802012105</v>
       </c>
       <c r="L23">
-        <v>0.9860345968935668</v>
+        <v>0.986034596893567</v>
       </c>
       <c r="M23">
-        <v>0.9918661976967847</v>
+        <v>0.9918661976967849</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9679264408328441</v>
+        <v>0.9679264408328444</v>
       </c>
       <c r="D24">
-        <v>0.9944825518039031</v>
+        <v>0.9944825518039029</v>
       </c>
       <c r="E24">
-        <v>0.9809687620823965</v>
+        <v>0.9809687620823966</v>
       </c>
       <c r="F24">
-        <v>0.9883685829762272</v>
+        <v>0.988368582976227</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.03508610206554</v>
       </c>
       <c r="J24">
-        <v>0.9967175968238043</v>
+        <v>0.9967175968238045</v>
       </c>
       <c r="K24">
         <v>1.008607257816386</v>
       </c>
       <c r="L24">
-        <v>0.9953385387662353</v>
+        <v>0.9953385387662355</v>
       </c>
       <c r="M24">
-        <v>1.002603085413542</v>
+        <v>1.002603085413541</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819204213029493</v>
+        <v>0.9819204213029503</v>
       </c>
       <c r="D25">
-        <v>1.005383669494644</v>
+        <v>1.005383669494645</v>
       </c>
       <c r="E25">
-        <v>0.9927223319368322</v>
+        <v>0.992722331936833</v>
       </c>
       <c r="F25">
-        <v>1.001692786674452</v>
+        <v>1.001692786674453</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1316,7 +1316,7 @@
         <v>1.007071939773504</v>
       </c>
       <c r="K25">
-        <v>1.017898981873919</v>
+        <v>1.01789898187392</v>
       </c>
       <c r="L25">
         <v>1.005434684767134</v>

--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -418,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9924160320685179</v>
+        <v>0.9924276832935368</v>
       </c>
       <c r="D2">
-        <v>1.013573793036465</v>
+        <v>1.013583177861974</v>
       </c>
       <c r="E2">
-        <v>1.001566256789699</v>
+        <v>1.001577814826284</v>
       </c>
       <c r="F2">
-        <v>1.011717827086672</v>
+        <v>1.011727197683045</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043935626051022</v>
+        <v>1.043940621126163</v>
       </c>
       <c r="J2">
-        <v>1.014825968913101</v>
+        <v>1.014837264274486</v>
       </c>
       <c r="K2">
-        <v>1.02484720767307</v>
+        <v>1.024856466120395</v>
       </c>
       <c r="L2">
-        <v>1.013003814210922</v>
+        <v>1.013015211862672</v>
       </c>
       <c r="M2">
-        <v>1.023016292534912</v>
+        <v>1.023025536361772</v>
+      </c>
+      <c r="N2">
+        <v>1.011313472359439</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9996998273212514</v>
+        <v>0.9997068468668243</v>
       </c>
       <c r="D3">
-        <v>1.01926300808584</v>
+        <v>1.019268681389333</v>
       </c>
       <c r="E3">
-        <v>1.007717960890998</v>
+        <v>1.007725368257961</v>
       </c>
       <c r="F3">
-        <v>1.018691173025502</v>
+        <v>1.018696950876243</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046515327431153</v>
+        <v>1.046518353404355</v>
       </c>
       <c r="J3">
-        <v>1.020198678692817</v>
+        <v>1.020205506723797</v>
       </c>
       <c r="K3">
-        <v>1.029655207979878</v>
+        <v>1.029660812064592</v>
       </c>
       <c r="L3">
-        <v>1.018253032308572</v>
+        <v>1.018260346699773</v>
       </c>
       <c r="M3">
-        <v>1.029090354675732</v>
+        <v>1.029096061933718</v>
+      </c>
+      <c r="N3">
+        <v>1.015077002916293</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004271051430184</v>
+        <v>1.004275216878896</v>
       </c>
       <c r="D4">
-        <v>1.022835174144918</v>
+        <v>1.022838555392632</v>
       </c>
       <c r="E4">
-        <v>1.011584560398039</v>
+        <v>1.011589407460138</v>
       </c>
       <c r="F4">
-        <v>1.023074384651885</v>
+        <v>1.02307795430829</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048119170449292</v>
+        <v>1.048120978644223</v>
       </c>
       <c r="J4">
-        <v>1.023566130702548</v>
+        <v>1.023570190819603</v>
       </c>
       <c r="K4">
-        <v>1.032665594351333</v>
+        <v>1.032668937008586</v>
       </c>
       <c r="L4">
-        <v>1.021545152036769</v>
+        <v>1.021549942246164</v>
       </c>
       <c r="M4">
-        <v>1.032902075505261</v>
+        <v>1.032905604444388</v>
+      </c>
+      <c r="N4">
+        <v>1.017433331623553</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006160715311062</v>
+        <v>1.006163712128928</v>
       </c>
       <c r="D5">
-        <v>1.024312137327872</v>
+        <v>1.024314579005813</v>
       </c>
       <c r="E5">
-        <v>1.013184259443793</v>
+        <v>1.013188057725641</v>
       </c>
       <c r="F5">
-        <v>1.024887879627936</v>
+        <v>1.024890546407292</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048778466076287</v>
+        <v>1.048779774662074</v>
       </c>
       <c r="J5">
-        <v>1.024957054428591</v>
+        <v>1.02495997790499</v>
       </c>
       <c r="K5">
-        <v>1.033908257782004</v>
+        <v>1.033910672384395</v>
       </c>
       <c r="L5">
-        <v>1.022905447418366</v>
+        <v>1.022909202432861</v>
       </c>
       <c r="M5">
-        <v>1.034477620118122</v>
+        <v>1.034480257366644</v>
+      </c>
+      <c r="N5">
+        <v>1.018405983774375</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006476169025476</v>
+        <v>1.00647897137616</v>
       </c>
       <c r="D6">
-        <v>1.024558710366783</v>
+        <v>1.024560995634961</v>
       </c>
       <c r="E6">
-        <v>1.013451382237485</v>
+        <v>1.013455005974803</v>
       </c>
       <c r="F6">
-        <v>1.025190706928107</v>
+        <v>1.025193223536543</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048888306623818</v>
+        <v>1.048889532015904</v>
       </c>
       <c r="J6">
-        <v>1.025189182399788</v>
+        <v>1.025191916547163</v>
       </c>
       <c r="K6">
-        <v>1.034115596662467</v>
+        <v>1.034117856712991</v>
       </c>
       <c r="L6">
-        <v>1.023132492344303</v>
+        <v>1.023136075006624</v>
       </c>
       <c r="M6">
-        <v>1.034740624483434</v>
+        <v>1.034743113363472</v>
+      </c>
+      <c r="N6">
+        <v>1.01856826993514</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004296424880551</v>
+        <v>1.004300574594925</v>
       </c>
       <c r="D7">
-        <v>1.022855005043367</v>
+        <v>1.022858373644903</v>
       </c>
       <c r="E7">
-        <v>1.011606035260229</v>
+        <v>1.011610868203186</v>
       </c>
       <c r="F7">
-        <v>1.023098729307823</v>
+        <v>1.023102286802982</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048128037893964</v>
+        <v>1.048129839366009</v>
       </c>
       <c r="J7">
-        <v>1.02358481184861</v>
+        <v>1.023588856674733</v>
       </c>
       <c r="K7">
-        <v>1.032682287350638</v>
+        <v>1.032685617520726</v>
       </c>
       <c r="L7">
-        <v>1.021563419901266</v>
+        <v>1.0215681961791</v>
       </c>
       <c r="M7">
-        <v>1.032923231837892</v>
+        <v>1.032926748770427</v>
+      </c>
+      <c r="N7">
+        <v>1.017446397579524</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9949081896797207</v>
+        <v>0.9949182441082352</v>
       </c>
       <c r="D8">
-        <v>1.015519937561965</v>
+        <v>1.01552804396337</v>
       </c>
       <c r="E8">
-        <v>1.00366977166722</v>
+        <v>1.003679899416083</v>
       </c>
       <c r="F8">
-        <v>1.014102269566669</v>
+        <v>1.014110400273426</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044821426826374</v>
+        <v>1.044825744030554</v>
       </c>
       <c r="J8">
-        <v>1.016665132668407</v>
+        <v>1.016674891329404</v>
       </c>
       <c r="K8">
-        <v>1.026493706402427</v>
+        <v>1.026501707162609</v>
       </c>
       <c r="L8">
-        <v>1.014800261970803</v>
+        <v>1.01481025379238</v>
       </c>
       <c r="M8">
-        <v>1.025094545753171</v>
+        <v>1.025102570130491</v>
+      </c>
+      <c r="N8">
+        <v>1.01260231311663</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9771841652035997</v>
+        <v>0.9772058743819783</v>
       </c>
       <c r="D9">
-        <v>1.001691503096081</v>
+        <v>1.001708911991368</v>
       </c>
       <c r="E9">
-        <v>0.9887394042207009</v>
+        <v>0.9887599505745009</v>
       </c>
       <c r="F9">
-        <v>0.9971778021671307</v>
+        <v>0.9971950120437246</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038459241663944</v>
+        <v>1.038468483093606</v>
       </c>
       <c r="J9">
-        <v>1.003569159001159</v>
+        <v>1.003590050266637</v>
       </c>
       <c r="K9">
-        <v>1.014757196326751</v>
+        <v>1.014774324004218</v>
       </c>
       <c r="L9">
-        <v>1.002017857551189</v>
+        <v>1.002038060709008</v>
       </c>
       <c r="M9">
-        <v>1.010316834117112</v>
+        <v>1.010333762746682</v>
+      </c>
+      <c r="N9">
+        <v>1.003414801658169</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9644256215455884</v>
+        <v>0.9644561998290644</v>
       </c>
       <c r="D10">
-        <v>0.9917595106759044</v>
+        <v>0.9917839528883746</v>
       </c>
       <c r="E10">
-        <v>0.9780353832857677</v>
+        <v>0.9780638185214002</v>
       </c>
       <c r="F10">
-        <v>0.9850428923067449</v>
+        <v>0.9850670542979519</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033803148388373</v>
+        <v>1.033816101397687</v>
       </c>
       <c r="J10">
-        <v>0.9941253968338137</v>
+        <v>0.9941546302324431</v>
       </c>
       <c r="K10">
-        <v>1.006279160919495</v>
+        <v>1.006303152224943</v>
       </c>
       <c r="L10">
-        <v>0.9928128727642611</v>
+        <v>0.9928407639883172</v>
       </c>
       <c r="M10">
-        <v>0.9996875573263727</v>
+        <v>0.9997112656061966</v>
+      </c>
+      <c r="N10">
+        <v>0.9967774683813639</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586383030754075</v>
+        <v>0.9586730558938225</v>
       </c>
       <c r="D11">
-        <v>0.9872619695594876</v>
+        <v>0.9872897080567438</v>
       </c>
       <c r="E11">
-        <v>0.9731923516004614</v>
+        <v>0.9732244858906096</v>
       </c>
       <c r="F11">
-        <v>0.9795517647968301</v>
+        <v>0.9795792108260745</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031674335605668</v>
+        <v>1.031689025147933</v>
       </c>
       <c r="J11">
-        <v>0.9898390867103666</v>
+        <v>0.9898722081317678</v>
       </c>
       <c r="K11">
-        <v>1.002428172021515</v>
+        <v>1.002455369575454</v>
       </c>
       <c r="L11">
-        <v>0.9886381695106574</v>
+        <v>0.9886696530388965</v>
       </c>
       <c r="M11">
-        <v>0.9948698897529249</v>
+        <v>0.9948967894071036</v>
+      </c>
+      <c r="N11">
+        <v>0.9937624320729835</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9564452699251863</v>
+        <v>0.9564816312953714</v>
       </c>
       <c r="D12">
-        <v>0.9855590557373628</v>
+        <v>0.9855880619134485</v>
       </c>
       <c r="E12">
-        <v>0.9713591943564485</v>
+        <v>0.9713927513952479</v>
       </c>
       <c r="F12">
-        <v>0.9774731532530594</v>
+        <v>0.9775018666112401</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030865253199779</v>
+        <v>1.03088061010722</v>
       </c>
       <c r="J12">
-        <v>0.9882145869107352</v>
+        <v>0.9882491999684628</v>
       </c>
       <c r="K12">
-        <v>1.000968251511723</v>
+        <v>1.00099668037998</v>
       </c>
       <c r="L12">
-        <v>0.9870564761956031</v>
+        <v>0.9870893393204255</v>
       </c>
       <c r="M12">
-        <v>0.9930450431112269</v>
+        <v>0.9930731724601728</v>
+      </c>
+      <c r="N12">
+        <v>0.9926194000978756</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9569177135701837</v>
+        <v>0.9569537271378836</v>
       </c>
       <c r="D13">
-        <v>0.9859258474131561</v>
+        <v>0.9859545796072257</v>
       </c>
       <c r="E13">
-        <v>0.9717540143031886</v>
+        <v>0.9717872638387482</v>
       </c>
       <c r="F13">
-        <v>0.9779208453951577</v>
+        <v>0.9779492846423096</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031039659142858</v>
+        <v>1.031054871834826</v>
       </c>
       <c r="J13">
-        <v>0.988564561014357</v>
+        <v>0.9885988518550377</v>
       </c>
       <c r="K13">
-        <v>1.001282787047594</v>
+        <v>1.001310949874225</v>
       </c>
       <c r="L13">
-        <v>0.9873972049810262</v>
+        <v>0.9874297700268702</v>
       </c>
       <c r="M13">
-        <v>0.993438131707395</v>
+        <v>0.9934659951728765</v>
+      </c>
+      <c r="N13">
+        <v>0.9928656640045673</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9584579352747928</v>
+        <v>0.9584928198244875</v>
       </c>
       <c r="D14">
-        <v>0.9871218827836105</v>
+        <v>0.9871497251482716</v>
       </c>
       <c r="E14">
-        <v>0.9730415393320908</v>
+        <v>0.9730737901923959</v>
       </c>
       <c r="F14">
-        <v>0.9793807622921383</v>
+        <v>0.9794083120692098</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031607839724684</v>
+        <v>1.031622583957151</v>
       </c>
       <c r="J14">
-        <v>0.9897054827518504</v>
+        <v>0.9897387264656452</v>
       </c>
       <c r="K14">
-        <v>1.002308111543138</v>
+        <v>1.002335410020981</v>
       </c>
       <c r="L14">
-        <v>0.9885080756601675</v>
+        <v>0.9885396722664235</v>
       </c>
       <c r="M14">
-        <v>0.9947197874712395</v>
+        <v>0.9947467878313299</v>
+      </c>
+      <c r="N14">
+        <v>0.9936684322503028</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9594010451344472</v>
+        <v>0.9594352419937499</v>
       </c>
       <c r="D15">
-        <v>0.9878544278386866</v>
+        <v>0.9878817278722406</v>
       </c>
       <c r="E15">
-        <v>0.9738301932729794</v>
+        <v>0.9738618354826966</v>
       </c>
       <c r="F15">
-        <v>0.980274992608537</v>
+        <v>0.9803020008578857</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031955437891955</v>
+        <v>1.031969896547139</v>
       </c>
       <c r="J15">
-        <v>0.9904040635946865</v>
+        <v>0.9904366686255075</v>
       </c>
       <c r="K15">
-        <v>1.002935860774298</v>
+        <v>1.002962632219007</v>
       </c>
       <c r="L15">
-        <v>0.9891883238145002</v>
+        <v>0.9892193299180183</v>
       </c>
       <c r="M15">
-        <v>0.9955046760732735</v>
+        <v>0.9955311507066168</v>
+      </c>
+      <c r="N15">
+        <v>0.9941599195635903</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9648038504331624</v>
+        <v>0.9648341593347523</v>
       </c>
       <c r="D16">
-        <v>0.9920536228429824</v>
+        <v>0.9920778520320428</v>
       </c>
       <c r="E16">
-        <v>0.9783521696417165</v>
+        <v>0.9783803658536848</v>
       </c>
       <c r="F16">
-        <v>0.9854020537846295</v>
+        <v>0.9854260041087506</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033941939714001</v>
+        <v>1.033954780437154</v>
       </c>
       <c r="J16">
-        <v>0.9944054850119303</v>
+        <v>0.9944344666753155</v>
       </c>
       <c r="K16">
-        <v>1.006530744724207</v>
+        <v>1.006554528597685</v>
       </c>
       <c r="L16">
-        <v>0.9930857366066811</v>
+        <v>0.9931133954320726</v>
       </c>
       <c r="M16">
-        <v>1.000002508002731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.000026010344968</v>
+      </c>
+      <c r="N16">
+        <v>0.9969744364963881</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.968119949644159</v>
+        <v>0.9681479142193709</v>
       </c>
       <c r="D17">
-        <v>0.994633119598447</v>
+        <v>0.9946554933277437</v>
       </c>
       <c r="E17">
-        <v>0.9811309876643114</v>
+        <v>0.9811571021394685</v>
       </c>
       <c r="F17">
-        <v>0.988552500098676</v>
+        <v>0.9885746096847552</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03515690591669</v>
+        <v>1.035168768283448</v>
       </c>
       <c r="J17">
-        <v>0.9968608642130408</v>
+        <v>0.9968876507947251</v>
       </c>
       <c r="K17">
-        <v>1.008735908620825</v>
+        <v>1.00875788455582</v>
       </c>
       <c r="L17">
-        <v>0.9954781504159083</v>
+        <v>0.9955037837885312</v>
       </c>
       <c r="M17">
-        <v>1.002764267434116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.002785977609557</v>
+      </c>
+      <c r="N17">
+        <v>0.998700869768531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9700291077809979</v>
+        <v>0.9700557365978436</v>
       </c>
       <c r="D18">
-        <v>0.9961188993309947</v>
+        <v>0.996140214572957</v>
       </c>
       <c r="E18">
-        <v>0.9827319649041403</v>
+        <v>0.9827568919788668</v>
       </c>
       <c r="F18">
-        <v>0.9903675234791123</v>
+        <v>0.9903885853164824</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035854806742159</v>
+        <v>1.035866110713354</v>
       </c>
       <c r="J18">
-        <v>0.998274232969385</v>
+        <v>0.9982997653510836</v>
       </c>
       <c r="K18">
-        <v>1.010004963612399</v>
+        <v>1.010025907213979</v>
       </c>
       <c r="L18">
-        <v>0.9968555764140445</v>
+        <v>0.9968800533462885</v>
       </c>
       <c r="M18">
-        <v>1.00435462362516</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.00437531268713</v>
+      </c>
+      <c r="N18">
+        <v>0.9996944047300648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9706759392906762</v>
+        <v>0.9707021178043759</v>
       </c>
       <c r="D19">
-        <v>0.9966224010198145</v>
+        <v>0.9966433592227734</v>
       </c>
       <c r="E19">
-        <v>0.9832745721256481</v>
+        <v>0.983299098709334</v>
       </c>
       <c r="F19">
-        <v>0.9909826662217107</v>
+        <v>0.9910033750263352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036090986401256</v>
+        <v>1.036102101974352</v>
       </c>
       <c r="J19">
-        <v>0.9987530423021898</v>
+        <v>0.9987781513049323</v>
       </c>
       <c r="K19">
-        <v>1.010434834026172</v>
+        <v>1.010455429253023</v>
       </c>
       <c r="L19">
-        <v>0.9973222598844746</v>
+        <v>0.9973463465795068</v>
       </c>
       <c r="M19">
-        <v>1.004893497181593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.004913842019027</v>
+      </c>
+      <c r="N19">
+        <v>1.000030945110342</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677667827320516</v>
+        <v>0.9677949955065144</v>
       </c>
       <c r="D20">
-        <v>0.9943583269475266</v>
+        <v>0.9943808972540584</v>
       </c>
       <c r="E20">
-        <v>0.9808349212672581</v>
+        <v>0.9808612562753769</v>
       </c>
       <c r="F20">
-        <v>0.9882168456620526</v>
+        <v>0.9882391500183754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035027675007898</v>
+        <v>1.035039641055321</v>
       </c>
       <c r="J20">
-        <v>0.9965993899097525</v>
+        <v>0.9966264092576933</v>
       </c>
       <c r="K20">
-        <v>1.008501109120078</v>
+        <v>1.008523276698406</v>
       </c>
       <c r="L20">
-        <v>0.9952233498329101</v>
+        <v>0.9952491978965943</v>
       </c>
       <c r="M20">
-        <v>1.002470101073994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.002492000987188</v>
+      </c>
+      <c r="N20">
+        <v>0.9985170456076288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9580056093415038</v>
+        <v>0.958040824689699</v>
       </c>
       <c r="D21">
-        <v>0.9867705964065379</v>
+        <v>0.9867986995584026</v>
       </c>
       <c r="E21">
-        <v>0.9726633663479106</v>
+        <v>0.9726959098915466</v>
       </c>
       <c r="F21">
-        <v>0.9789519583940703</v>
+        <v>0.9789797687296707</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031441043476528</v>
+        <v>1.031455925015968</v>
       </c>
       <c r="J21">
-        <v>0.9893704274459284</v>
+        <v>0.9894039781487376</v>
       </c>
       <c r="K21">
-        <v>1.002007014539856</v>
+        <v>1.002034566386039</v>
       </c>
       <c r="L21">
-        <v>0.9881818313334526</v>
+        <v>0.9882137118207674</v>
       </c>
       <c r="M21">
-        <v>0.9943433740169249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9943706272652105</v>
+      </c>
+      <c r="N21">
+        <v>0.9934326918079212</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9516151398385511</v>
+        <v>0.9516550982252604</v>
       </c>
       <c r="D22">
-        <v>0.9818112176078249</v>
+        <v>0.9818430535495535</v>
       </c>
       <c r="E22">
-        <v>0.9673257079301917</v>
+        <v>0.96736244109338</v>
       </c>
       <c r="F22">
-        <v>0.9728992913769606</v>
+        <v>0.9729308424167703</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029078992203935</v>
+        <v>1.029095837936062</v>
       </c>
       <c r="J22">
-        <v>0.9846363358445329</v>
+        <v>0.9846742714550426</v>
       </c>
       <c r="K22">
-        <v>0.9977518191646714</v>
+        <v>0.9977829932021814</v>
       </c>
       <c r="L22">
-        <v>0.9835734789672232</v>
+        <v>0.9836094177510777</v>
       </c>
       <c r="M22">
-        <v>0.9890274386112319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9890583176506089</v>
+      </c>
+      <c r="N22">
+        <v>0.9901010788094454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9550282943473314</v>
+        <v>0.9550657031135696</v>
       </c>
       <c r="D23">
-        <v>0.9844591768614247</v>
+        <v>0.9844890077360362</v>
       </c>
       <c r="E23">
-        <v>0.9701753483275218</v>
+        <v>0.9702098309827073</v>
       </c>
       <c r="F23">
-        <v>0.9761307491725215</v>
+        <v>0.976160288297676</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030341826110964</v>
+        <v>1.030357617043234</v>
       </c>
       <c r="J23">
-        <v>0.9871649015811849</v>
+        <v>0.9872004839680315</v>
       </c>
       <c r="K23">
-        <v>1.000024802012105</v>
+        <v>1.000054031409858</v>
       </c>
       <c r="L23">
-        <v>0.986034596893567</v>
+        <v>0.9860683569431122</v>
       </c>
       <c r="M23">
-        <v>0.9918661976967849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9918951277358826</v>
+      </c>
+      <c r="N23">
+        <v>0.9918807279154251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9679264408328444</v>
+        <v>0.967954541359522</v>
       </c>
       <c r="D24">
-        <v>0.9944825518039029</v>
+        <v>0.9945050332126006</v>
       </c>
       <c r="E24">
-        <v>0.9809687620823966</v>
+        <v>0.9809949973586761</v>
       </c>
       <c r="F24">
-        <v>0.988368582976227</v>
+        <v>0.9883907992446238</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03508610206554</v>
+        <v>1.035098021226452</v>
       </c>
       <c r="J24">
-        <v>0.9967175968238045</v>
+        <v>0.9967445109143155</v>
       </c>
       <c r="K24">
-        <v>1.008607257816386</v>
+        <v>1.008629338731102</v>
       </c>
       <c r="L24">
-        <v>0.9953385387662355</v>
+        <v>0.9953642897435219</v>
       </c>
       <c r="M24">
-        <v>1.002603085413541</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.002624899517977</v>
+      </c>
+      <c r="N24">
+        <v>0.9986001492996156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819204213029503</v>
+        <v>0.9819389452382313</v>
       </c>
       <c r="D25">
-        <v>1.005383669494645</v>
+        <v>1.005398542665669</v>
       </c>
       <c r="E25">
-        <v>0.992722331936833</v>
+        <v>0.9927400361079226</v>
       </c>
       <c r="F25">
-        <v>1.001692786674453</v>
+        <v>1.001707508586723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040172719301294</v>
+        <v>1.040180620292303</v>
       </c>
       <c r="J25">
-        <v>1.007071939773504</v>
+        <v>1.007089807736913</v>
       </c>
       <c r="K25">
-        <v>1.01789898187392</v>
+        <v>1.017913627306237</v>
       </c>
       <c r="L25">
-        <v>1.005434684767134</v>
+        <v>1.005452108926458</v>
       </c>
       <c r="M25">
-        <v>1.014264881023986</v>
+        <v>1.014279375387198</v>
+      </c>
+      <c r="N25">
+        <v>1.005874336475082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9924276832935368</v>
+        <v>1.014487734686257</v>
       </c>
       <c r="D2">
-        <v>1.013583177861974</v>
+        <v>1.032500954702787</v>
       </c>
       <c r="E2">
-        <v>1.001577814826284</v>
+        <v>1.027929970438177</v>
       </c>
       <c r="F2">
-        <v>1.011727197683045</v>
+        <v>1.037427324196117</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043940621126163</v>
+        <v>1.047701917977861</v>
       </c>
       <c r="J2">
-        <v>1.014837264274486</v>
+        <v>1.036243589388602</v>
       </c>
       <c r="K2">
-        <v>1.024856466120395</v>
+        <v>1.04352533364938</v>
       </c>
       <c r="L2">
-        <v>1.013015211862672</v>
+        <v>1.039013440734352</v>
       </c>
       <c r="M2">
-        <v>1.023025536361772</v>
+        <v>1.048388745714113</v>
       </c>
       <c r="N2">
-        <v>1.011313472359439</v>
+        <v>1.037715174144369</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9997068468668243</v>
+        <v>1.02138602498168</v>
       </c>
       <c r="D3">
-        <v>1.019268681389333</v>
+        <v>1.037853534605975</v>
       </c>
       <c r="E3">
-        <v>1.007725368257961</v>
+        <v>1.033780021268985</v>
       </c>
       <c r="F3">
-        <v>1.018696950876243</v>
+        <v>1.043526228279189</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046518353404355</v>
+        <v>1.049523700957767</v>
       </c>
       <c r="J3">
-        <v>1.020205506723797</v>
+        <v>1.041310190244597</v>
       </c>
       <c r="K3">
-        <v>1.029660812064592</v>
+        <v>1.048023941107212</v>
       </c>
       <c r="L3">
-        <v>1.018260346699773</v>
+        <v>1.043998181554096</v>
       </c>
       <c r="M3">
-        <v>1.029096061933718</v>
+        <v>1.053630900952228</v>
       </c>
       <c r="N3">
-        <v>1.015077002916293</v>
+        <v>1.042788970154693</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004275216878896</v>
+        <v>1.025729131085198</v>
       </c>
       <c r="D4">
-        <v>1.022838555392632</v>
+        <v>1.041225622938944</v>
       </c>
       <c r="E4">
-        <v>1.011589407460138</v>
+        <v>1.037469220665236</v>
       </c>
       <c r="F4">
-        <v>1.02307795430829</v>
+        <v>1.047372514165441</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048120978644223</v>
+        <v>1.05065844735848</v>
       </c>
       <c r="J4">
-        <v>1.023570190819603</v>
+        <v>1.044496821084387</v>
       </c>
       <c r="K4">
-        <v>1.032668937008586</v>
+        <v>1.050850704190704</v>
       </c>
       <c r="L4">
-        <v>1.021549942246164</v>
+        <v>1.047135516963794</v>
       </c>
       <c r="M4">
-        <v>1.032905604444388</v>
+        <v>1.056930933865225</v>
       </c>
       <c r="N4">
-        <v>1.017433331623553</v>
+        <v>1.045980126375787</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006163712128928</v>
+        <v>1.027527589379959</v>
       </c>
       <c r="D5">
-        <v>1.024314579005813</v>
+        <v>1.042622402755332</v>
       </c>
       <c r="E5">
-        <v>1.013188057725641</v>
+        <v>1.038998269552648</v>
       </c>
       <c r="F5">
-        <v>1.024890546407292</v>
+        <v>1.048966702838678</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048779774662074</v>
+        <v>1.051125344499015</v>
       </c>
       <c r="J5">
-        <v>1.02495997790499</v>
+        <v>1.045815544590717</v>
       </c>
       <c r="K5">
-        <v>1.033910672384395</v>
+        <v>1.052019847861849</v>
       </c>
       <c r="L5">
-        <v>1.022909202432861</v>
+        <v>1.048434357295277</v>
       </c>
       <c r="M5">
-        <v>1.034480257366644</v>
+        <v>1.058297286911578</v>
       </c>
       <c r="N5">
-        <v>1.018405983774375</v>
+        <v>1.047300722620756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00647897137616</v>
+        <v>1.027827993535105</v>
       </c>
       <c r="D6">
-        <v>1.024560995634961</v>
+        <v>1.042855734439524</v>
       </c>
       <c r="E6">
-        <v>1.013455005974803</v>
+        <v>1.039253751356629</v>
       </c>
       <c r="F6">
-        <v>1.025193223536543</v>
+        <v>1.049233070366885</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048889532015904</v>
+        <v>1.051203154451444</v>
       </c>
       <c r="J6">
-        <v>1.025191916547163</v>
+        <v>1.046035765207642</v>
       </c>
       <c r="K6">
-        <v>1.034117856712991</v>
+        <v>1.052215050079431</v>
       </c>
       <c r="L6">
-        <v>1.023136075006624</v>
+        <v>1.04865128766543</v>
       </c>
       <c r="M6">
-        <v>1.034743113363472</v>
+        <v>1.058525502172696</v>
       </c>
       <c r="N6">
-        <v>1.01856826993514</v>
+        <v>1.047521255976216</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004300574594925</v>
+        <v>1.025753267900682</v>
       </c>
       <c r="D7">
-        <v>1.022858373644903</v>
+        <v>1.041244367379508</v>
       </c>
       <c r="E7">
-        <v>1.011610868203186</v>
+        <v>1.037489736467193</v>
       </c>
       <c r="F7">
-        <v>1.023102286802982</v>
+        <v>1.04739390384707</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048129839366009</v>
+        <v>1.050664725436735</v>
       </c>
       <c r="J7">
-        <v>1.023588856674733</v>
+        <v>1.044514522876806</v>
       </c>
       <c r="K7">
-        <v>1.032685617520726</v>
+        <v>1.050866400735606</v>
       </c>
       <c r="L7">
-        <v>1.0215681961791</v>
+        <v>1.047152949822122</v>
       </c>
       <c r="M7">
-        <v>1.032926748770427</v>
+        <v>1.056949272258962</v>
       </c>
       <c r="N7">
-        <v>1.017446397579524</v>
+        <v>1.045997853306782</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9949182441082352</v>
+        <v>1.016844929412956</v>
       </c>
       <c r="D8">
-        <v>1.01552804396337</v>
+        <v>1.034329452891634</v>
       </c>
       <c r="E8">
-        <v>1.003679899416083</v>
+        <v>1.029927645690026</v>
       </c>
       <c r="F8">
-        <v>1.014110400273426</v>
+        <v>1.039509943134425</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044825744030554</v>
+        <v>1.048326973249221</v>
       </c>
       <c r="J8">
-        <v>1.016674891329404</v>
+        <v>1.037975529941432</v>
       </c>
       <c r="K8">
-        <v>1.026501707162609</v>
+        <v>1.045063652901883</v>
       </c>
       <c r="L8">
-        <v>1.01481025379238</v>
+        <v>1.040716931260929</v>
       </c>
       <c r="M8">
-        <v>1.025102570130491</v>
+        <v>1.050180056525058</v>
       </c>
       <c r="N8">
-        <v>1.01260231311663</v>
+        <v>1.039449574251406</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772058743819783</v>
+        <v>1.000151337227379</v>
       </c>
       <c r="D9">
-        <v>1.001708911991368</v>
+        <v>1.021393861430032</v>
       </c>
       <c r="E9">
-        <v>0.9887599505745009</v>
+        <v>1.01581000024373</v>
       </c>
       <c r="F9">
-        <v>0.9971950120437246</v>
+        <v>1.024792836444637</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038468483093606</v>
+        <v>1.043850376789989</v>
       </c>
       <c r="J9">
-        <v>1.003590050266637</v>
+        <v>1.025698752517622</v>
       </c>
       <c r="K9">
-        <v>1.014774324004218</v>
+        <v>1.034149118655873</v>
       </c>
       <c r="L9">
-        <v>1.002038060709008</v>
+        <v>1.028651675199379</v>
       </c>
       <c r="M9">
-        <v>1.010333762746682</v>
+        <v>1.037496077917553</v>
       </c>
       <c r="N9">
-        <v>1.003414801658169</v>
+        <v>1.027155362395489</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9644561998290644</v>
+        <v>0.9882396681631161</v>
       </c>
       <c r="D10">
-        <v>0.9917839528883746</v>
+        <v>1.01218695316221</v>
       </c>
       <c r="E10">
-        <v>0.9780638185214002</v>
+        <v>1.00577928810769</v>
       </c>
       <c r="F10">
-        <v>0.9850670542979519</v>
+        <v>1.014337506765877</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033816101397687</v>
+        <v>1.040595357199661</v>
       </c>
       <c r="J10">
-        <v>0.9941546302324431</v>
+        <v>1.01692777993704</v>
       </c>
       <c r="K10">
-        <v>1.006303152224943</v>
+        <v>1.026339600335262</v>
       </c>
       <c r="L10">
-        <v>0.9928407639883172</v>
+        <v>1.020044973889395</v>
       </c>
       <c r="M10">
-        <v>0.9997112656061966</v>
+        <v>1.028452630080426</v>
       </c>
       <c r="N10">
-        <v>0.9967774683813639</v>
+        <v>1.018371934027797</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9586730558938225</v>
+        <v>0.9828670607916699</v>
       </c>
       <c r="D11">
-        <v>0.9872897080567438</v>
+        <v>1.008041821968207</v>
       </c>
       <c r="E11">
-        <v>0.9732244858906096</v>
+        <v>1.001266952192362</v>
       </c>
       <c r="F11">
-        <v>0.9795792108260745</v>
+        <v>1.009634550922721</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031689025147933</v>
+        <v>1.039113893388512</v>
       </c>
       <c r="J11">
-        <v>0.9898722081317678</v>
+        <v>1.012970377533168</v>
       </c>
       <c r="K11">
-        <v>1.002455369575454</v>
+        <v>1.022813658262649</v>
       </c>
       <c r="L11">
-        <v>0.9886696530388965</v>
+        <v>1.016165015137198</v>
       </c>
       <c r="M11">
-        <v>0.9948967894071036</v>
+        <v>1.024377032545328</v>
       </c>
       <c r="N11">
-        <v>0.9937624320729835</v>
+        <v>1.014408911658591</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9564816312953714</v>
+        <v>0.9808363401115293</v>
       </c>
       <c r="D12">
-        <v>0.9855880619134485</v>
+        <v>1.006476379880111</v>
       </c>
       <c r="E12">
-        <v>0.9713927513952479</v>
+        <v>0.9995633423700033</v>
       </c>
       <c r="F12">
-        <v>0.9775018666112401</v>
+        <v>1.007859041144562</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03088061010722</v>
+        <v>1.038552035108566</v>
       </c>
       <c r="J12">
-        <v>0.9882491999684628</v>
+        <v>1.011474482367235</v>
       </c>
       <c r="K12">
-        <v>1.00099668037998</v>
+        <v>1.02148054567471</v>
       </c>
       <c r="L12">
-        <v>0.9870893393204255</v>
+        <v>1.014698912834924</v>
       </c>
       <c r="M12">
-        <v>0.9930731724601728</v>
+        <v>1.02283720747178</v>
       </c>
       <c r="N12">
-        <v>0.9926194000978756</v>
+        <v>1.012910892149941</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9569537271378836</v>
+        <v>0.981273573787944</v>
       </c>
       <c r="D13">
-        <v>0.9859545796072257</v>
+        <v>1.006813371719675</v>
       </c>
       <c r="E13">
-        <v>0.9717872638387482</v>
+        <v>0.9999300552172264</v>
       </c>
       <c r="F13">
-        <v>0.9779492846423096</v>
+        <v>1.008241227717161</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031054871834826</v>
+        <v>1.038673092585436</v>
       </c>
       <c r="J13">
-        <v>0.9885988518550377</v>
+        <v>1.011796565003915</v>
       </c>
       <c r="K13">
-        <v>1.001310949874225</v>
+        <v>1.021767592666644</v>
       </c>
       <c r="L13">
-        <v>0.9874297700268702</v>
+        <v>1.015014556965013</v>
       </c>
       <c r="M13">
-        <v>0.9934659951728765</v>
+        <v>1.023168714341061</v>
       </c>
       <c r="N13">
-        <v>0.9928656640045673</v>
+        <v>1.013233432180908</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9584928198244875</v>
+        <v>0.982699934257585</v>
       </c>
       <c r="D14">
-        <v>0.9871497251482716</v>
+        <v>1.007912959494267</v>
       </c>
       <c r="E14">
-        <v>0.9730737901923959</v>
+        <v>1.001126706082392</v>
       </c>
       <c r="F14">
-        <v>0.9794083120692098</v>
+        <v>1.009488384375623</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031622583957151</v>
+        <v>1.039067690852059</v>
       </c>
       <c r="J14">
-        <v>0.9897387264656452</v>
+        <v>1.012847267768319</v>
       </c>
       <c r="K14">
-        <v>1.002335410020981</v>
+        <v>1.022703951254467</v>
       </c>
       <c r="L14">
-        <v>0.9885396722664235</v>
+        <v>1.016044346623186</v>
       </c>
       <c r="M14">
-        <v>0.9947467878313299</v>
+        <v>1.024250292034792</v>
       </c>
       <c r="N14">
-        <v>0.9936684322503028</v>
+        <v>1.014285627063755</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9594352419937499</v>
+        <v>0.9835740213297682</v>
       </c>
       <c r="D15">
-        <v>0.9878817278722406</v>
+        <v>1.008586976928902</v>
       </c>
       <c r="E15">
-        <v>0.9738618354826966</v>
+        <v>1.001860286303575</v>
       </c>
       <c r="F15">
-        <v>0.9803020008578857</v>
+        <v>1.010252935215401</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031969896547139</v>
+        <v>1.039309257745393</v>
       </c>
       <c r="J15">
-        <v>0.9904366686255075</v>
+        <v>1.013491140206531</v>
       </c>
       <c r="K15">
-        <v>1.002962632219007</v>
+        <v>1.023277714057685</v>
       </c>
       <c r="L15">
-        <v>0.9892193299180183</v>
+        <v>1.016675472389111</v>
       </c>
       <c r="M15">
-        <v>0.9955311507066168</v>
+        <v>1.024913184144705</v>
       </c>
       <c r="N15">
-        <v>0.9941599195635903</v>
+        <v>1.014930413874683</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9648341593347523</v>
+        <v>0.9885914714484798</v>
       </c>
       <c r="D16">
-        <v>0.9920778520320428</v>
+        <v>1.012458551746654</v>
       </c>
       <c r="E16">
-        <v>0.9783803658536848</v>
+        <v>1.006075019663313</v>
       </c>
       <c r="F16">
-        <v>0.9854260041087506</v>
+        <v>1.014645740130335</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033954780437154</v>
+        <v>1.040692097066634</v>
       </c>
       <c r="J16">
-        <v>0.9944344666753155</v>
+        <v>1.017186895491727</v>
       </c>
       <c r="K16">
-        <v>1.006554528597685</v>
+        <v>1.026570420506286</v>
       </c>
       <c r="L16">
-        <v>0.9931133954320726</v>
+        <v>1.020299089238148</v>
       </c>
       <c r="M16">
-        <v>1.000026010344968</v>
+        <v>1.028719585759589</v>
       </c>
       <c r="N16">
-        <v>0.9969744364963881</v>
+        <v>1.018631417556293</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9681479142193709</v>
+        <v>0.991679388806288</v>
       </c>
       <c r="D17">
-        <v>0.9946554933277437</v>
+        <v>1.014843352527308</v>
       </c>
       <c r="E17">
-        <v>0.9811571021394685</v>
+        <v>1.008672134977009</v>
       </c>
       <c r="F17">
-        <v>0.9885746096847552</v>
+        <v>1.01735269198504</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035168768283448</v>
+        <v>1.041539726222988</v>
       </c>
       <c r="J17">
-        <v>0.9968876507947251</v>
+        <v>1.019461114140959</v>
       </c>
       <c r="K17">
-        <v>1.00875788455582</v>
+        <v>1.028596034938782</v>
       </c>
       <c r="L17">
-        <v>0.9955037837885312</v>
+        <v>1.022529799822781</v>
       </c>
       <c r="M17">
-        <v>1.002785977609557</v>
+        <v>1.031063156005367</v>
       </c>
       <c r="N17">
-        <v>0.998700869768531</v>
+        <v>1.020908865856863</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9700557365978436</v>
+        <v>0.9934600036042111</v>
       </c>
       <c r="D18">
-        <v>0.996140214572957</v>
+        <v>1.016219218087253</v>
       </c>
       <c r="E18">
-        <v>0.9827568919788668</v>
+        <v>1.010170842021886</v>
       </c>
       <c r="F18">
-        <v>0.9903885853164824</v>
+        <v>1.018914818638887</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035866110713354</v>
+        <v>1.042027240626272</v>
       </c>
       <c r="J18">
-        <v>0.9982997653510836</v>
+        <v>1.020772381455002</v>
       </c>
       <c r="K18">
-        <v>1.010025907213979</v>
+        <v>1.029763738887822</v>
       </c>
       <c r="L18">
-        <v>0.9968800533462885</v>
+        <v>1.02381629294647</v>
       </c>
       <c r="M18">
-        <v>1.00437531268713</v>
+        <v>1.032414854085438</v>
       </c>
       <c r="N18">
-        <v>0.9996944047300648</v>
+        <v>1.022221995320897</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9707021178043759</v>
+        <v>0.9940637480824838</v>
       </c>
       <c r="D19">
-        <v>0.9966433592227734</v>
+        <v>1.016685838830919</v>
       </c>
       <c r="E19">
-        <v>0.983299098709334</v>
+        <v>1.010679184816924</v>
       </c>
       <c r="F19">
-        <v>0.9910033750263352</v>
+        <v>1.019444678567088</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036102101974352</v>
+        <v>1.042192322814088</v>
       </c>
       <c r="J19">
-        <v>0.9987781513049323</v>
+        <v>1.021216960088176</v>
       </c>
       <c r="K19">
-        <v>1.010455429253023</v>
+        <v>1.030159603993353</v>
       </c>
       <c r="L19">
-        <v>0.9973463465795068</v>
+        <v>1.024252524335492</v>
       </c>
       <c r="M19">
-        <v>1.004913842019027</v>
+        <v>1.03287321491844</v>
       </c>
       <c r="N19">
-        <v>1.000030945110342</v>
+        <v>1.022667205306724</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677949955065144</v>
+        <v>0.9913502258586594</v>
       </c>
       <c r="D20">
-        <v>0.9943808972540584</v>
+        <v>1.014589066206199</v>
       </c>
       <c r="E20">
-        <v>0.9808612562753769</v>
+        <v>1.008395173879327</v>
       </c>
       <c r="F20">
-        <v>0.9882391500183754</v>
+        <v>1.017064013854595</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035039641055321</v>
+        <v>1.041449501843188</v>
       </c>
       <c r="J20">
-        <v>0.9966264092576933</v>
+        <v>1.019218702513835</v>
       </c>
       <c r="K20">
-        <v>1.008523276698406</v>
+        <v>1.028380145238988</v>
       </c>
       <c r="L20">
-        <v>0.9952491978965943</v>
+        <v>1.022291993259613</v>
       </c>
       <c r="M20">
-        <v>1.002492000987188</v>
+        <v>1.03081330573697</v>
       </c>
       <c r="N20">
-        <v>0.9985170456076288</v>
+        <v>1.020666109977423</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.958040824689699</v>
+        <v>0.9822808998351734</v>
       </c>
       <c r="D21">
-        <v>0.9867986995584026</v>
+        <v>1.007589886036399</v>
       </c>
       <c r="E21">
-        <v>0.9726959098915466</v>
+        <v>1.000775100553345</v>
       </c>
       <c r="F21">
-        <v>0.9789797687296707</v>
+        <v>1.009121937068815</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031455925015968</v>
+        <v>1.038951817582289</v>
       </c>
       <c r="J21">
-        <v>0.9894039781487376</v>
+        <v>1.012538595064471</v>
       </c>
       <c r="K21">
-        <v>1.002034566386039</v>
+        <v>1.022428878417371</v>
       </c>
       <c r="L21">
-        <v>0.9882137118207674</v>
+        <v>1.015741803281725</v>
       </c>
       <c r="M21">
-        <v>0.9943706272652105</v>
+        <v>1.023932528128246</v>
       </c>
       <c r="N21">
-        <v>0.9934326918079212</v>
+        <v>1.013976516009262</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9516550982252604</v>
+        <v>0.976373949451281</v>
       </c>
       <c r="D22">
-        <v>0.9818430535495535</v>
+        <v>1.003039074808182</v>
       </c>
       <c r="E22">
-        <v>0.96736244109338</v>
+        <v>0.9958235447973406</v>
       </c>
       <c r="F22">
-        <v>0.9729308424167703</v>
+        <v>1.003961542083042</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029095837936062</v>
+        <v>1.037314004578472</v>
       </c>
       <c r="J22">
-        <v>0.9846742714550426</v>
+        <v>1.008187314551616</v>
       </c>
       <c r="K22">
-        <v>0.9977829932021814</v>
+        <v>1.018550566488307</v>
       </c>
       <c r="L22">
-        <v>0.9836094177510777</v>
+        <v>1.011478194602624</v>
       </c>
       <c r="M22">
-        <v>0.9890583176506089</v>
+        <v>1.019454926445461</v>
       </c>
       <c r="N22">
-        <v>0.9901010788094454</v>
+        <v>1.00961905617898</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9550657031135696</v>
+        <v>0.9795257740799561</v>
       </c>
       <c r="D23">
-        <v>0.9844890077360362</v>
+        <v>1.00546648847396</v>
       </c>
       <c r="E23">
-        <v>0.9702098309827073</v>
+        <v>0.9984644547215042</v>
       </c>
       <c r="F23">
-        <v>0.976160288297676</v>
+        <v>1.006713795709872</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030357617043234</v>
+        <v>1.038188906966641</v>
       </c>
       <c r="J23">
-        <v>0.9872004839680315</v>
+        <v>1.010509067083466</v>
       </c>
       <c r="K23">
-        <v>1.000054031409858</v>
+        <v>1.020620104936626</v>
       </c>
       <c r="L23">
-        <v>0.9860683569431122</v>
+        <v>1.013752874167453</v>
       </c>
       <c r="M23">
-        <v>0.9918951277358826</v>
+        <v>1.021843656375605</v>
       </c>
       <c r="N23">
-        <v>0.9918807279154251</v>
+        <v>1.011944105865735</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.967954541359522</v>
+        <v>0.9914990236145174</v>
       </c>
       <c r="D24">
-        <v>0.9945050332126006</v>
+        <v>1.014704013918159</v>
       </c>
       <c r="E24">
-        <v>0.9809949973586761</v>
+        <v>1.008520370416438</v>
       </c>
       <c r="F24">
-        <v>0.9883907992446238</v>
+        <v>1.017194506805462</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035098021226452</v>
+        <v>1.041490291603133</v>
       </c>
       <c r="J24">
-        <v>0.9967445109143155</v>
+        <v>1.019328284861948</v>
       </c>
       <c r="K24">
-        <v>1.008629338731102</v>
+        <v>1.028477739027693</v>
       </c>
       <c r="L24">
-        <v>0.9953642897435219</v>
+        <v>1.022399492918936</v>
       </c>
       <c r="M24">
-        <v>1.002624899517977</v>
+        <v>1.030926249351736</v>
       </c>
       <c r="N24">
-        <v>0.9986001492996156</v>
+        <v>1.02077584794504</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9819389452382313</v>
+        <v>1.004595979949375</v>
       </c>
       <c r="D25">
-        <v>1.005398542665669</v>
+        <v>1.024834579692294</v>
       </c>
       <c r="E25">
-        <v>0.9927400361079226</v>
+        <v>1.019561993410368</v>
       </c>
       <c r="F25">
-        <v>1.001707508586723</v>
+        <v>1.028703948370268</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040180620292303</v>
+        <v>1.045052962745721</v>
       </c>
       <c r="J25">
-        <v>1.007089807736913</v>
+        <v>1.028969654853981</v>
       </c>
       <c r="K25">
-        <v>1.017913627306237</v>
+        <v>1.037059226143224</v>
       </c>
       <c r="L25">
-        <v>1.005452108926458</v>
+        <v>1.031864038947209</v>
       </c>
       <c r="M25">
-        <v>1.014279375387198</v>
+        <v>1.040872434021104</v>
       </c>
       <c r="N25">
-        <v>1.005874336475082</v>
+        <v>1.030430909788343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.014487734686257</v>
+        <v>1.001251249557126</v>
       </c>
       <c r="D2">
-        <v>1.032500954702787</v>
+        <v>1.022827806383458</v>
       </c>
       <c r="E2">
-        <v>1.027929970438177</v>
+        <v>1.017117306023374</v>
       </c>
       <c r="F2">
-        <v>1.037427324196117</v>
+        <v>1.02697940748831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047701917977861</v>
+        <v>1.048102083352344</v>
       </c>
       <c r="J2">
-        <v>1.036243589388602</v>
+        <v>1.023394600264801</v>
       </c>
       <c r="K2">
-        <v>1.04352533364938</v>
+        <v>1.033978016820116</v>
       </c>
       <c r="L2">
-        <v>1.039013440734352</v>
+        <v>1.028343211141661</v>
       </c>
       <c r="M2">
-        <v>1.048388745714113</v>
+        <v>1.038075248911124</v>
       </c>
       <c r="N2">
-        <v>1.037715174144369</v>
+        <v>1.011760902601285</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02138602498168</v>
+        <v>1.005266903743048</v>
       </c>
       <c r="D3">
-        <v>1.037853534605975</v>
+        <v>1.025833751268462</v>
       </c>
       <c r="E3">
-        <v>1.033780021268985</v>
+        <v>1.020418047054793</v>
       </c>
       <c r="F3">
-        <v>1.043526228279189</v>
+        <v>1.030598965888595</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049523700957767</v>
+        <v>1.049133911670641</v>
       </c>
       <c r="J3">
-        <v>1.041310190244597</v>
+        <v>1.025615010211315</v>
       </c>
       <c r="K3">
-        <v>1.048023941107212</v>
+        <v>1.03614641960965</v>
       </c>
       <c r="L3">
-        <v>1.043998181554096</v>
+        <v>1.030796174287039</v>
       </c>
       <c r="M3">
-        <v>1.053630900952228</v>
+        <v>1.040854742916796</v>
       </c>
       <c r="N3">
-        <v>1.042788970154693</v>
+        <v>1.012499930979447</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.025729131085198</v>
+        <v>1.007815884493346</v>
       </c>
       <c r="D4">
-        <v>1.041225622938944</v>
+        <v>1.027741917212504</v>
       </c>
       <c r="E4">
-        <v>1.037469220665236</v>
+        <v>1.022518727459476</v>
       </c>
       <c r="F4">
-        <v>1.047372514165441</v>
+        <v>1.032901007830053</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05065844735848</v>
+        <v>1.049774032587375</v>
       </c>
       <c r="J4">
-        <v>1.044496821084387</v>
+        <v>1.027021750420315</v>
       </c>
       <c r="K4">
-        <v>1.050850704190704</v>
+        <v>1.037516665586323</v>
       </c>
       <c r="L4">
-        <v>1.047135516963794</v>
+        <v>1.032352760691991</v>
       </c>
       <c r="M4">
-        <v>1.056930933865225</v>
+        <v>1.042617923243556</v>
       </c>
       <c r="N4">
-        <v>1.045980126375787</v>
+        <v>1.01296808571267</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027527589379959</v>
+        <v>1.008876015925515</v>
       </c>
       <c r="D5">
-        <v>1.042622402755332</v>
+        <v>1.028535505673322</v>
       </c>
       <c r="E5">
-        <v>1.038998269552648</v>
+        <v>1.023393691010828</v>
       </c>
       <c r="F5">
-        <v>1.048966702838678</v>
+        <v>1.033859472962598</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051125344499015</v>
+        <v>1.05003664718747</v>
       </c>
       <c r="J5">
-        <v>1.045815544590717</v>
+        <v>1.027606143368666</v>
       </c>
       <c r="K5">
-        <v>1.052019847861849</v>
+        <v>1.038085029679987</v>
       </c>
       <c r="L5">
-        <v>1.048434357295277</v>
+        <v>1.033000007306601</v>
       </c>
       <c r="M5">
-        <v>1.058297286911578</v>
+        <v>1.043350923113142</v>
       </c>
       <c r="N5">
-        <v>1.047300722620756</v>
+        <v>1.013162552983253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027827993535105</v>
+        <v>1.009053355089991</v>
       </c>
       <c r="D6">
-        <v>1.042855734439524</v>
+        <v>1.028668254455265</v>
       </c>
       <c r="E6">
-        <v>1.039253751356629</v>
+        <v>1.023540129526562</v>
       </c>
       <c r="F6">
-        <v>1.049233070366885</v>
+        <v>1.034019865140136</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051203154451444</v>
+        <v>1.050080363473225</v>
       </c>
       <c r="J6">
-        <v>1.046035765207642</v>
+        <v>1.027703860211217</v>
       </c>
       <c r="K6">
-        <v>1.052215050079431</v>
+        <v>1.038180014760809</v>
       </c>
       <c r="L6">
-        <v>1.04865128766543</v>
+        <v>1.03310826951859</v>
       </c>
       <c r="M6">
-        <v>1.058525502172696</v>
+        <v>1.043473519938436</v>
       </c>
       <c r="N6">
-        <v>1.047521255976216</v>
+        <v>1.013195069079176</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.025753267900682</v>
+        <v>1.007830094572755</v>
       </c>
       <c r="D7">
-        <v>1.041244367379508</v>
+        <v>1.027752554698363</v>
       </c>
       <c r="E7">
-        <v>1.037489736467193</v>
+        <v>1.022530450520216</v>
       </c>
       <c r="F7">
-        <v>1.04739390384707</v>
+        <v>1.032913851125342</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050664725436735</v>
+        <v>1.049777567035454</v>
       </c>
       <c r="J7">
-        <v>1.044514522876806</v>
+        <v>1.027029586375967</v>
       </c>
       <c r="K7">
-        <v>1.050866400735606</v>
+        <v>1.037524290069827</v>
       </c>
       <c r="L7">
-        <v>1.047152949822122</v>
+        <v>1.032361437045718</v>
       </c>
       <c r="M7">
-        <v>1.056949272258962</v>
+        <v>1.042627749721959</v>
       </c>
       <c r="N7">
-        <v>1.045997853306782</v>
+        <v>1.012970693330197</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016844929412956</v>
+        <v>1.002618818876691</v>
       </c>
       <c r="D8">
-        <v>1.034329452891634</v>
+        <v>1.023851454694143</v>
       </c>
       <c r="E8">
-        <v>1.029927645690026</v>
+        <v>1.018240229714946</v>
       </c>
       <c r="F8">
-        <v>1.039509943134425</v>
+        <v>1.028211117581845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048326973249221</v>
+        <v>1.04845655963716</v>
       </c>
       <c r="J8">
-        <v>1.037975529941432</v>
+        <v>1.02415132654616</v>
       </c>
       <c r="K8">
-        <v>1.045063652901883</v>
+        <v>1.034717751690956</v>
       </c>
       <c r="L8">
-        <v>1.040716931260929</v>
+        <v>1.029178666350232</v>
       </c>
       <c r="M8">
-        <v>1.050180056525058</v>
+        <v>1.039022043812018</v>
       </c>
       <c r="N8">
-        <v>1.039449574251406</v>
+        <v>1.01201277783995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.000151337227379</v>
+        <v>0.9930399175046486</v>
       </c>
       <c r="D9">
-        <v>1.021393861430032</v>
+        <v>1.016684135185264</v>
       </c>
       <c r="E9">
-        <v>1.01581000024373</v>
+        <v>1.010399780531684</v>
       </c>
       <c r="F9">
-        <v>1.024792836444637</v>
+        <v>1.01960453169167</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043850376789989</v>
+        <v>1.045913035103156</v>
       </c>
       <c r="J9">
-        <v>1.025698752517622</v>
+        <v>1.018840871134756</v>
       </c>
       <c r="K9">
-        <v>1.034149118655873</v>
+        <v>1.029512201644341</v>
       </c>
       <c r="L9">
-        <v>1.028651675199379</v>
+        <v>1.023326352221878</v>
       </c>
       <c r="M9">
-        <v>1.037496077917553</v>
+        <v>1.032387349595505</v>
       </c>
       <c r="N9">
-        <v>1.027155362395489</v>
+        <v>1.010245028187212</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9882396681631161</v>
+        <v>0.9863619027967465</v>
       </c>
       <c r="D10">
-        <v>1.01218695316221</v>
+        <v>1.01169322487948</v>
       </c>
       <c r="E10">
-        <v>1.00577928810769</v>
+        <v>1.004967189229413</v>
       </c>
       <c r="F10">
-        <v>1.014337506765877</v>
+        <v>1.013632672525457</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040595357199661</v>
+        <v>1.044065157051366</v>
       </c>
       <c r="J10">
-        <v>1.01692777993704</v>
+        <v>1.015127266657811</v>
       </c>
       <c r="K10">
-        <v>1.026339600335262</v>
+        <v>1.025854516025142</v>
       </c>
       <c r="L10">
-        <v>1.020044973889395</v>
+        <v>1.019247334981269</v>
       </c>
       <c r="M10">
-        <v>1.028452630080426</v>
+        <v>1.027760071402816</v>
       </c>
       <c r="N10">
-        <v>1.018371934027797</v>
+        <v>1.009008694829736</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9828670607916699</v>
+        <v>0.9833947745395035</v>
       </c>
       <c r="D11">
-        <v>1.008041821968207</v>
+        <v>1.009477921433575</v>
       </c>
       <c r="E11">
-        <v>1.001266952192362</v>
+        <v>1.002561989241309</v>
       </c>
       <c r="F11">
-        <v>1.009634550922721</v>
+        <v>1.010986692232174</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039113893388512</v>
+        <v>1.043227186447143</v>
       </c>
       <c r="J11">
-        <v>1.012970377533168</v>
+        <v>1.013475046540015</v>
       </c>
       <c r="K11">
-        <v>1.022813658262649</v>
+        <v>1.024223284453624</v>
       </c>
       <c r="L11">
-        <v>1.016165015137198</v>
+        <v>1.017435751391977</v>
       </c>
       <c r="M11">
-        <v>1.024377032545328</v>
+        <v>1.025704347850383</v>
       </c>
       <c r="N11">
-        <v>1.014408911658591</v>
+        <v>1.008458627228889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9808363401115293</v>
+        <v>0.9822807420034003</v>
       </c>
       <c r="D12">
-        <v>1.006476379880111</v>
+        <v>1.008646575517778</v>
       </c>
       <c r="E12">
-        <v>0.9995633423700033</v>
+        <v>1.001660281867135</v>
       </c>
       <c r="F12">
-        <v>1.007859041144562</v>
+        <v>1.009994409187915</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038552035108566</v>
+        <v>1.042910086228266</v>
       </c>
       <c r="J12">
-        <v>1.011474482367235</v>
+        <v>1.012854416117282</v>
       </c>
       <c r="K12">
-        <v>1.02148054567471</v>
+        <v>1.023609974700969</v>
       </c>
       <c r="L12">
-        <v>1.014698912834924</v>
+        <v>1.016755742473571</v>
       </c>
       <c r="M12">
-        <v>1.02283720747178</v>
+        <v>1.024932604726319</v>
       </c>
       <c r="N12">
-        <v>1.012910892149941</v>
+        <v>1.008252003498587</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.981273573787944</v>
+        <v>0.9825202541403141</v>
       </c>
       <c r="D13">
-        <v>1.006813371719675</v>
+        <v>1.008825291614722</v>
       </c>
       <c r="E13">
-        <v>0.9999300552172264</v>
+        <v>1.001854083317762</v>
       </c>
       <c r="F13">
-        <v>1.008241227717161</v>
+        <v>1.010207691750689</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038673092585436</v>
+        <v>1.042978372240038</v>
       </c>
       <c r="J13">
-        <v>1.011796565003915</v>
+        <v>1.012987861400042</v>
       </c>
       <c r="K13">
-        <v>1.021767592666644</v>
+        <v>1.023741871035798</v>
       </c>
       <c r="L13">
-        <v>1.015014556965013</v>
+        <v>1.016901933176385</v>
       </c>
       <c r="M13">
-        <v>1.023168714341061</v>
+        <v>1.025098520852709</v>
       </c>
       <c r="N13">
-        <v>1.013233432180908</v>
+        <v>1.008296430788729</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.982699934257585</v>
+        <v>0.9833029345965102</v>
       </c>
       <c r="D14">
-        <v>1.007912959494267</v>
+        <v>1.009409377218088</v>
       </c>
       <c r="E14">
-        <v>1.001126706082392</v>
+        <v>1.00248762553726</v>
       </c>
       <c r="F14">
-        <v>1.009488384375623</v>
+        <v>1.010904865030917</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039067690852059</v>
+        <v>1.043201094936543</v>
       </c>
       <c r="J14">
-        <v>1.012847267768319</v>
+        <v>1.013423887933857</v>
       </c>
       <c r="K14">
-        <v>1.022703951254467</v>
+        <v>1.024172740619847</v>
       </c>
       <c r="L14">
-        <v>1.016044346623186</v>
+        <v>1.017379688367058</v>
       </c>
       <c r="M14">
-        <v>1.024250292034792</v>
+        <v>1.025640723684878</v>
       </c>
       <c r="N14">
-        <v>1.014285627063755</v>
+        <v>1.008441595199545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9835740213297682</v>
+        <v>0.9837835742922711</v>
       </c>
       <c r="D15">
-        <v>1.008586976928902</v>
+        <v>1.009768116980857</v>
       </c>
       <c r="E15">
-        <v>1.001860286303575</v>
+        <v>1.002876859394678</v>
       </c>
       <c r="F15">
-        <v>1.010252935215401</v>
+        <v>1.011333151704405</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039309257745393</v>
+        <v>1.043337542924035</v>
       </c>
       <c r="J15">
-        <v>1.013491140206531</v>
+        <v>1.013691612305449</v>
       </c>
       <c r="K15">
-        <v>1.023277714057685</v>
+        <v>1.024437224910071</v>
       </c>
       <c r="L15">
-        <v>1.016675472389111</v>
+        <v>1.017673098389564</v>
       </c>
       <c r="M15">
-        <v>1.024913184144705</v>
+        <v>1.02597370177415</v>
       </c>
       <c r="N15">
-        <v>1.014930413874683</v>
+        <v>1.008530727631739</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9885914714484798</v>
+        <v>0.9865571830857072</v>
       </c>
       <c r="D16">
-        <v>1.012458551746654</v>
+        <v>1.011839076665273</v>
       </c>
       <c r="E16">
-        <v>1.006075019663313</v>
+        <v>1.005125669926353</v>
       </c>
       <c r="F16">
-        <v>1.014645740130335</v>
+        <v>1.013806975875285</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040692097066634</v>
+        <v>1.04411996020158</v>
       </c>
       <c r="J16">
-        <v>1.017186895491727</v>
+        <v>1.01523596411806</v>
       </c>
       <c r="K16">
-        <v>1.026570420506286</v>
+        <v>1.025961753363229</v>
       </c>
       <c r="L16">
-        <v>1.020299089238148</v>
+        <v>1.019366583815626</v>
       </c>
       <c r="M16">
-        <v>1.028719585759589</v>
+        <v>1.027895377881267</v>
       </c>
       <c r="N16">
-        <v>1.018631417556293</v>
+        <v>1.009044883033199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.991679388806288</v>
+        <v>0.9882763918585532</v>
       </c>
       <c r="D17">
-        <v>1.014843352527308</v>
+        <v>1.013123388770429</v>
       </c>
       <c r="E17">
-        <v>1.008672134977009</v>
+        <v>1.006521885842878</v>
       </c>
       <c r="F17">
-        <v>1.01735269198504</v>
+        <v>1.0153423576508</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041539726222988</v>
+        <v>1.044600514311108</v>
       </c>
       <c r="J17">
-        <v>1.019461114140959</v>
+        <v>1.016192667198881</v>
       </c>
       <c r="K17">
-        <v>1.028596034938782</v>
+        <v>1.026905164633739</v>
       </c>
       <c r="L17">
-        <v>1.022529799822781</v>
+        <v>1.020416521005386</v>
       </c>
       <c r="M17">
-        <v>1.031063156005367</v>
+        <v>1.029086623107677</v>
       </c>
       <c r="N17">
-        <v>1.020908865856863</v>
+        <v>1.009363393363927</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9934600036042111</v>
+        <v>0.9892719322263825</v>
       </c>
       <c r="D18">
-        <v>1.016219218087253</v>
+        <v>1.013867300139457</v>
       </c>
       <c r="E18">
-        <v>1.010170842021886</v>
+        <v>1.007331201507889</v>
       </c>
       <c r="F18">
-        <v>1.018914818638887</v>
+        <v>1.016232147867155</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042027240626272</v>
+        <v>1.044877174765156</v>
       </c>
       <c r="J18">
-        <v>1.020772381455002</v>
+        <v>1.016746450650257</v>
       </c>
       <c r="K18">
-        <v>1.029763738887822</v>
+        <v>1.027450883418008</v>
       </c>
       <c r="L18">
-        <v>1.02381629294647</v>
+        <v>1.021024577498663</v>
       </c>
       <c r="M18">
-        <v>1.032414854085438</v>
+        <v>1.029776454563181</v>
       </c>
       <c r="N18">
-        <v>1.022221995320897</v>
+        <v>1.009547760570495</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9940637480824838</v>
+        <v>0.9896101734796122</v>
       </c>
       <c r="D19">
-        <v>1.016685838830919</v>
+        <v>1.014120081627587</v>
       </c>
       <c r="E19">
-        <v>1.010679184816924</v>
+        <v>1.007606307529526</v>
       </c>
       <c r="F19">
-        <v>1.019444678567088</v>
+        <v>1.016534576508995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042192322814088</v>
+        <v>1.04497089627922</v>
       </c>
       <c r="J19">
-        <v>1.021216960088176</v>
+        <v>1.016934564681089</v>
       </c>
       <c r="K19">
-        <v>1.030159603993353</v>
+        <v>1.027636194457659</v>
       </c>
       <c r="L19">
-        <v>1.024252524335492</v>
+        <v>1.021231179157946</v>
       </c>
       <c r="M19">
-        <v>1.03287321491844</v>
+        <v>1.030010830619186</v>
       </c>
       <c r="N19">
-        <v>1.022667205306724</v>
+        <v>1.009610387792478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9913502258586594</v>
+        <v>0.9880926903887258</v>
       </c>
       <c r="D20">
-        <v>1.014589066206199</v>
+        <v>1.012986135124901</v>
       </c>
       <c r="E20">
-        <v>1.008395173879327</v>
+        <v>1.006372612455643</v>
       </c>
       <c r="F20">
-        <v>1.017064013854595</v>
+        <v>1.015178225663369</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041449501843188</v>
+        <v>1.044549332871007</v>
       </c>
       <c r="J20">
-        <v>1.019218702513835</v>
+        <v>1.01609046309773</v>
       </c>
       <c r="K20">
-        <v>1.028380145238988</v>
+        <v>1.026804418803446</v>
       </c>
       <c r="L20">
-        <v>1.022291993259613</v>
+        <v>1.020304325116024</v>
       </c>
       <c r="M20">
-        <v>1.03081330573697</v>
+        <v>1.02895933345265</v>
       </c>
       <c r="N20">
-        <v>1.020666109977423</v>
+        <v>1.009329367170221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9822808998351734</v>
+        <v>0.9830727881754141</v>
       </c>
       <c r="D21">
-        <v>1.007589886036399</v>
+        <v>1.009237615583292</v>
       </c>
       <c r="E21">
-        <v>1.000775100553345</v>
+        <v>1.002301295582804</v>
       </c>
       <c r="F21">
-        <v>1.009121937068815</v>
+        <v>1.010699829147152</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038951817582289</v>
+        <v>1.04313567119803</v>
       </c>
       <c r="J21">
-        <v>1.012538595064471</v>
+        <v>1.013295682419954</v>
       </c>
       <c r="K21">
-        <v>1.022428878417371</v>
+        <v>1.024046066746718</v>
       </c>
       <c r="L21">
-        <v>1.015741803281725</v>
+        <v>1.017239199984255</v>
       </c>
       <c r="M21">
-        <v>1.023932528128246</v>
+        <v>1.025481286366106</v>
       </c>
       <c r="N21">
-        <v>1.013976516009262</v>
+        <v>1.00839891226741</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.976373949451281</v>
+        <v>0.979847368399649</v>
       </c>
       <c r="D22">
-        <v>1.003039074808182</v>
+        <v>1.006831506131948</v>
       </c>
       <c r="E22">
-        <v>0.9958235447973406</v>
+        <v>0.9996932251420972</v>
       </c>
       <c r="F22">
-        <v>1.003961542083042</v>
+        <v>1.007829195839251</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037314004578472</v>
+        <v>1.042212968668965</v>
       </c>
       <c r="J22">
-        <v>1.008187314551616</v>
+        <v>1.011498290714054</v>
       </c>
       <c r="K22">
-        <v>1.018550566488307</v>
+        <v>1.022268833564309</v>
       </c>
       <c r="L22">
-        <v>1.011478194602624</v>
+        <v>1.015270761752937</v>
       </c>
       <c r="M22">
-        <v>1.019454926445461</v>
+        <v>1.023247134151682</v>
       </c>
       <c r="N22">
-        <v>1.00961905617898</v>
+        <v>1.007800517867337</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9795257740799561</v>
+        <v>0.9815639827598502</v>
       </c>
       <c r="D23">
-        <v>1.00546648847396</v>
+        <v>1.008111818903873</v>
       </c>
       <c r="E23">
-        <v>0.9984644547215042</v>
+        <v>1.001080517066835</v>
       </c>
       <c r="F23">
-        <v>1.006713795709872</v>
+        <v>1.009356320612629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038188906966641</v>
+        <v>1.04270537711354</v>
       </c>
       <c r="J23">
-        <v>1.010509067083466</v>
+        <v>1.012455031138108</v>
       </c>
       <c r="K23">
-        <v>1.020620104936626</v>
+        <v>1.023215144622592</v>
       </c>
       <c r="L23">
-        <v>1.013752874167453</v>
+        <v>1.016318283078899</v>
       </c>
       <c r="M23">
-        <v>1.021843656375605</v>
+        <v>1.024436106084846</v>
       </c>
       <c r="N23">
-        <v>1.011944105865735</v>
+        <v>1.008119038426571</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9914990236145174</v>
+        <v>0.9881757195240054</v>
       </c>
       <c r="D24">
-        <v>1.014704013918159</v>
+        <v>1.013048170203637</v>
       </c>
       <c r="E24">
-        <v>1.008520370416438</v>
+        <v>1.006440078326158</v>
       </c>
       <c r="F24">
-        <v>1.017194506805462</v>
+        <v>1.01525240765107</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041490291603133</v>
+        <v>1.044572470793732</v>
       </c>
       <c r="J24">
-        <v>1.019328284861948</v>
+        <v>1.016136657830675</v>
       </c>
       <c r="K24">
-        <v>1.028477739027693</v>
+        <v>1.026849955570716</v>
       </c>
       <c r="L24">
-        <v>1.022399492918936</v>
+        <v>1.020355035043447</v>
       </c>
       <c r="M24">
-        <v>1.030926249351736</v>
+        <v>1.029016865601768</v>
       </c>
       <c r="N24">
-        <v>1.02077584794504</v>
+        <v>1.009344746507115</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004595979949375</v>
+        <v>0.9955657865823103</v>
       </c>
       <c r="D25">
-        <v>1.024834579692294</v>
+        <v>1.018573347994133</v>
       </c>
       <c r="E25">
-        <v>1.019561993410368</v>
+        <v>1.012461662981382</v>
       </c>
       <c r="F25">
-        <v>1.028703948370268</v>
+        <v>1.02186934039066</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045052962745721</v>
+        <v>1.046596872041343</v>
       </c>
       <c r="J25">
-        <v>1.028969654853981</v>
+        <v>1.020243306773033</v>
       </c>
       <c r="K25">
-        <v>1.037059226143224</v>
+        <v>1.030890019748756</v>
       </c>
       <c r="L25">
-        <v>1.031864038947209</v>
+        <v>1.024869559405917</v>
       </c>
       <c r="M25">
-        <v>1.040872434021104</v>
+        <v>1.034137390371892</v>
       </c>
       <c r="N25">
-        <v>1.030430909788343</v>
+        <v>1.010711905132589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001251249557126</v>
+        <v>1.029535611330794</v>
       </c>
       <c r="D2">
-        <v>1.022827806383458</v>
+        <v>1.0378792253427</v>
       </c>
       <c r="E2">
-        <v>1.017117306023374</v>
+        <v>1.039116639903256</v>
       </c>
       <c r="F2">
-        <v>1.02697940748831</v>
+        <v>1.049503707582211</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048102083352344</v>
+        <v>1.033788878336445</v>
       </c>
       <c r="J2">
-        <v>1.023394600264801</v>
+        <v>1.034681847077829</v>
       </c>
       <c r="K2">
-        <v>1.033978016820116</v>
+        <v>1.04066885129537</v>
       </c>
       <c r="L2">
-        <v>1.028343211141661</v>
+        <v>1.041902741802839</v>
       </c>
       <c r="M2">
-        <v>1.038075248911124</v>
+        <v>1.052260583338637</v>
       </c>
       <c r="N2">
-        <v>1.011760902601285</v>
+        <v>1.015570603495936</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005266903743048</v>
+        <v>1.030388896884912</v>
       </c>
       <c r="D3">
-        <v>1.025833751268462</v>
+        <v>1.038528353158067</v>
       </c>
       <c r="E3">
-        <v>1.020418047054793</v>
+        <v>1.03986801930943</v>
       </c>
       <c r="F3">
-        <v>1.030598965888595</v>
+        <v>1.050324086768794</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049133911670641</v>
+        <v>1.033921319834343</v>
       </c>
       <c r="J3">
-        <v>1.025615010211315</v>
+        <v>1.035176697750805</v>
       </c>
       <c r="K3">
-        <v>1.03614641960965</v>
+        <v>1.041128302905858</v>
       </c>
       <c r="L3">
-        <v>1.030796174287039</v>
+        <v>1.042464428939411</v>
       </c>
       <c r="M3">
-        <v>1.040854742916796</v>
+        <v>1.052893200797284</v>
       </c>
       <c r="N3">
-        <v>1.012499930979447</v>
+        <v>1.015734712811213</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.007815884493346</v>
+        <v>1.03094149738673</v>
       </c>
       <c r="D4">
-        <v>1.027741917212504</v>
+        <v>1.038948381565166</v>
       </c>
       <c r="E4">
-        <v>1.022518727459476</v>
+        <v>1.040354971912009</v>
       </c>
       <c r="F4">
-        <v>1.032901007830053</v>
+        <v>1.050855589642355</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049774032587375</v>
+        <v>1.034005242070008</v>
       </c>
       <c r="J4">
-        <v>1.027021750420315</v>
+        <v>1.035496720919522</v>
       </c>
       <c r="K4">
-        <v>1.037516665586323</v>
+        <v>1.041424912903502</v>
       </c>
       <c r="L4">
-        <v>1.032352760691991</v>
+        <v>1.042827972991933</v>
       </c>
       <c r="M4">
-        <v>1.042617923243556</v>
+        <v>1.053302557606791</v>
       </c>
       <c r="N4">
-        <v>1.01296808571267</v>
+        <v>1.015840821425795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.008876015925515</v>
+        <v>1.031173921014486</v>
       </c>
       <c r="D5">
-        <v>1.028535505673322</v>
+        <v>1.039124959442368</v>
       </c>
       <c r="E5">
-        <v>1.023393691010828</v>
+        <v>1.040559866856918</v>
       </c>
       <c r="F5">
-        <v>1.033859472962598</v>
+        <v>1.051079190099108</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05003664718747</v>
+        <v>1.034040096803066</v>
       </c>
       <c r="J5">
-        <v>1.027606143368666</v>
+        <v>1.035631214662186</v>
       </c>
       <c r="K5">
-        <v>1.038085029679987</v>
+        <v>1.041549442060937</v>
       </c>
       <c r="L5">
-        <v>1.033000007306601</v>
+        <v>1.042980828166868</v>
       </c>
       <c r="M5">
-        <v>1.043350923113142</v>
+        <v>1.053474652145984</v>
       </c>
       <c r="N5">
-        <v>1.013162552983253</v>
+        <v>1.015885409612717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009053355089991</v>
+        <v>1.031212952390629</v>
       </c>
       <c r="D6">
-        <v>1.028668254455265</v>
+        <v>1.039154607468478</v>
       </c>
       <c r="E6">
-        <v>1.023540129526562</v>
+        <v>1.040594280125393</v>
       </c>
       <c r="F6">
-        <v>1.034019865140136</v>
+        <v>1.051116742727418</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050080363473225</v>
+        <v>1.034045924047822</v>
       </c>
       <c r="J6">
-        <v>1.027703860211217</v>
+        <v>1.035653794135171</v>
       </c>
       <c r="K6">
-        <v>1.038180014760809</v>
+        <v>1.041570341295524</v>
       </c>
       <c r="L6">
-        <v>1.03310826951859</v>
+        <v>1.043006494426994</v>
       </c>
       <c r="M6">
-        <v>1.043473519938436</v>
+        <v>1.053503547581758</v>
       </c>
       <c r="N6">
-        <v>1.013195069079176</v>
+        <v>1.015892894986566</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007830094572755</v>
+        <v>1.030944602610908</v>
       </c>
       <c r="D7">
-        <v>1.027752554698363</v>
+        <v>1.038950741017918</v>
       </c>
       <c r="E7">
-        <v>1.022530450520216</v>
+        <v>1.040357709023066</v>
       </c>
       <c r="F7">
-        <v>1.032913851125342</v>
+        <v>1.050858576789601</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049777567035454</v>
+        <v>1.03400570947641</v>
       </c>
       <c r="J7">
-        <v>1.027029586375967</v>
+        <v>1.035498518206026</v>
       </c>
       <c r="K7">
-        <v>1.037524290069827</v>
+        <v>1.041426577521094</v>
       </c>
       <c r="L7">
-        <v>1.032361437045718</v>
+        <v>1.042830015368595</v>
       </c>
       <c r="M7">
-        <v>1.042627749721959</v>
+        <v>1.053304857140912</v>
       </c>
       <c r="N7">
-        <v>1.012970693330197</v>
+        <v>1.015841417294008</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002618818876691</v>
+        <v>1.029823885385196</v>
       </c>
       <c r="D8">
-        <v>1.023851454694143</v>
+        <v>1.038098600131795</v>
       </c>
       <c r="E8">
-        <v>1.018240229714946</v>
+        <v>1.039370413643726</v>
       </c>
       <c r="F8">
-        <v>1.028211117581845</v>
+        <v>1.049780820156362</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04845655963716</v>
+        <v>1.033834004790019</v>
       </c>
       <c r="J8">
-        <v>1.02415132654616</v>
+        <v>1.034849120312378</v>
       </c>
       <c r="K8">
-        <v>1.034717751690956</v>
+        <v>1.040824266256492</v>
       </c>
       <c r="L8">
-        <v>1.029178666350232</v>
+        <v>1.042092546066169</v>
       </c>
       <c r="M8">
-        <v>1.039022043812018</v>
+        <v>1.052474376070255</v>
       </c>
       <c r="N8">
-        <v>1.01201277783995</v>
+        <v>1.015626081519176</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9930399175046486</v>
+        <v>1.02785269052195</v>
       </c>
       <c r="D9">
-        <v>1.016684135185264</v>
+        <v>1.036597097290524</v>
       </c>
       <c r="E9">
-        <v>1.010399780531684</v>
+        <v>1.037636574275911</v>
       </c>
       <c r="F9">
-        <v>1.01960453169167</v>
+        <v>1.047886838740971</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045913035103156</v>
+        <v>1.033517876047131</v>
       </c>
       <c r="J9">
-        <v>1.018840871134756</v>
+        <v>1.033703490374774</v>
       </c>
       <c r="K9">
-        <v>1.029512201644341</v>
+        <v>1.039757728489602</v>
       </c>
       <c r="L9">
-        <v>1.023326352221878</v>
+        <v>1.040793822564146</v>
       </c>
       <c r="M9">
-        <v>1.032387349595505</v>
+        <v>1.05101112154261</v>
       </c>
       <c r="N9">
-        <v>1.010245028187212</v>
+        <v>1.015246031722789</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9863619027967465</v>
+        <v>1.026541109938047</v>
       </c>
       <c r="D10">
-        <v>1.01169322487948</v>
+        <v>1.035596260364477</v>
       </c>
       <c r="E10">
-        <v>1.004967189229413</v>
+        <v>1.036484758559639</v>
       </c>
       <c r="F10">
-        <v>1.013632672525457</v>
+        <v>1.046627774527953</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044065157051366</v>
+        <v>1.033298059274993</v>
       </c>
       <c r="J10">
-        <v>1.015127266657811</v>
+        <v>1.032938935212846</v>
       </c>
       <c r="K10">
-        <v>1.025854516025142</v>
+        <v>1.039043302073461</v>
       </c>
       <c r="L10">
-        <v>1.019247334981269</v>
+        <v>1.039928626042457</v>
       </c>
       <c r="M10">
-        <v>1.027760071402816</v>
+        <v>1.050035826165139</v>
       </c>
       <c r="N10">
-        <v>1.009008694829736</v>
+        <v>1.014992288706293</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9833947745395035</v>
+        <v>1.025973805318399</v>
       </c>
       <c r="D11">
-        <v>1.009477921433575</v>
+        <v>1.035162949645087</v>
       </c>
       <c r="E11">
-        <v>1.002561989241309</v>
+        <v>1.035986999735316</v>
       </c>
       <c r="F11">
-        <v>1.010986692232174</v>
+        <v>1.046083462219734</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043227186447143</v>
+        <v>1.033200737683691</v>
       </c>
       <c r="J11">
-        <v>1.013475046540015</v>
+        <v>1.032607700421033</v>
       </c>
       <c r="K11">
-        <v>1.024223284453624</v>
+        <v>1.038733159061709</v>
       </c>
       <c r="L11">
-        <v>1.017435751391977</v>
+        <v>1.039554151485471</v>
       </c>
       <c r="M11">
-        <v>1.025704347850383</v>
+        <v>1.049613582852464</v>
       </c>
       <c r="N11">
-        <v>1.008458627228889</v>
+        <v>1.014882331617099</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9822807420034003</v>
+        <v>1.025763177590587</v>
       </c>
       <c r="D12">
-        <v>1.008646575517778</v>
+        <v>1.035002009398828</v>
       </c>
       <c r="E12">
-        <v>1.001660281867135</v>
+        <v>1.035802259786562</v>
       </c>
       <c r="F12">
-        <v>1.009994409187915</v>
+        <v>1.045881413223575</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042910086228266</v>
+        <v>1.033164267567382</v>
       </c>
       <c r="J12">
-        <v>1.012854416117282</v>
+        <v>1.032484639718184</v>
       </c>
       <c r="K12">
-        <v>1.023609974700969</v>
+        <v>1.038617840650389</v>
       </c>
       <c r="L12">
-        <v>1.016755742473571</v>
+        <v>1.039415080648025</v>
       </c>
       <c r="M12">
-        <v>1.024932604726319</v>
+        <v>1.049456754494453</v>
       </c>
       <c r="N12">
-        <v>1.008252003498587</v>
+        <v>1.014841476392688</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9825202541403141</v>
+        <v>1.025808353653391</v>
       </c>
       <c r="D13">
-        <v>1.008825291614722</v>
+        <v>1.03503653111581</v>
       </c>
       <c r="E13">
-        <v>1.001854083317762</v>
+        <v>1.035841880322257</v>
       </c>
       <c r="F13">
-        <v>1.010207691750689</v>
+        <v>1.04592474737617</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042978372240038</v>
+        <v>1.033172105022205</v>
       </c>
       <c r="J13">
-        <v>1.012987861400042</v>
+        <v>1.032511037783227</v>
       </c>
       <c r="K13">
-        <v>1.023741871035798</v>
+        <v>1.038642582134412</v>
       </c>
       <c r="L13">
-        <v>1.016901933176385</v>
+        <v>1.039444910628962</v>
       </c>
       <c r="M13">
-        <v>1.025098520852709</v>
+        <v>1.04949039415722</v>
       </c>
       <c r="N13">
-        <v>1.008296430788729</v>
+        <v>1.01485024052472</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9833029345965102</v>
+        <v>1.025956392828617</v>
       </c>
       <c r="D14">
-        <v>1.009409377218088</v>
+        <v>1.035149646045988</v>
       </c>
       <c r="E14">
-        <v>1.00248762553726</v>
+        <v>1.035971726006073</v>
       </c>
       <c r="F14">
-        <v>1.010904865030917</v>
+        <v>1.04606675806542</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043201094936543</v>
+        <v>1.033197729586379</v>
       </c>
       <c r="J14">
-        <v>1.013423887933857</v>
+        <v>1.032597528694671</v>
       </c>
       <c r="K14">
-        <v>1.024172740619847</v>
+        <v>1.038723629194202</v>
       </c>
       <c r="L14">
-        <v>1.017379688367058</v>
+        <v>1.039542655314234</v>
       </c>
       <c r="M14">
-        <v>1.025640723684878</v>
+        <v>1.049600619124901</v>
       </c>
       <c r="N14">
-        <v>1.008441595199545</v>
+        <v>1.014878954759077</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9837835742922711</v>
+        <v>1.026047617214717</v>
       </c>
       <c r="D15">
-        <v>1.009768116980857</v>
+        <v>1.035219341355202</v>
       </c>
       <c r="E15">
-        <v>1.002876859394678</v>
+        <v>1.036051748128263</v>
       </c>
       <c r="F15">
-        <v>1.011333151704405</v>
+        <v>1.046154273199146</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043337542924035</v>
+        <v>1.033213475277388</v>
       </c>
       <c r="J15">
-        <v>1.013691612305449</v>
+        <v>1.032650815278894</v>
       </c>
       <c r="K15">
-        <v>1.024437224910071</v>
+        <v>1.038773549437657</v>
       </c>
       <c r="L15">
-        <v>1.017673098389564</v>
+        <v>1.039602882488152</v>
       </c>
       <c r="M15">
-        <v>1.02597370177415</v>
+        <v>1.04966853395409</v>
       </c>
       <c r="N15">
-        <v>1.008530727631739</v>
+        <v>1.014896644934907</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9865571830857072</v>
+        <v>1.026578773239622</v>
       </c>
       <c r="D16">
-        <v>1.011839076665273</v>
+        <v>1.035625019159379</v>
       </c>
       <c r="E16">
-        <v>1.005125669926353</v>
+        <v>1.03651781408471</v>
       </c>
       <c r="F16">
-        <v>1.013806975875285</v>
+        <v>1.046663917261075</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04411996020158</v>
+        <v>1.033304473188063</v>
       </c>
       <c r="J16">
-        <v>1.01523596411806</v>
+        <v>1.032960914548785</v>
       </c>
       <c r="K16">
-        <v>1.025961753363229</v>
+        <v>1.039063868688288</v>
       </c>
       <c r="L16">
-        <v>1.019366583815626</v>
+        <v>1.039953482207588</v>
       </c>
       <c r="M16">
-        <v>1.027895377881267</v>
+        <v>1.050063850598528</v>
       </c>
       <c r="N16">
-        <v>1.009044883033199</v>
+        <v>1.014999584450991</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9882763918585532</v>
+        <v>1.02691212005</v>
       </c>
       <c r="D17">
-        <v>1.013123388770429</v>
+        <v>1.03587950706847</v>
       </c>
       <c r="E17">
-        <v>1.006521885842878</v>
+        <v>1.036810429967395</v>
       </c>
       <c r="F17">
-        <v>1.0153423576508</v>
+        <v>1.046983838070717</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044600514311108</v>
+        <v>1.033360981602661</v>
       </c>
       <c r="J17">
-        <v>1.016192667198881</v>
+        <v>1.033155385057744</v>
       </c>
       <c r="K17">
-        <v>1.026905164633739</v>
+        <v>1.039245767359994</v>
       </c>
       <c r="L17">
-        <v>1.020416521005386</v>
+        <v>1.040173448351838</v>
       </c>
       <c r="M17">
-        <v>1.029086623107677</v>
+        <v>1.050311841155814</v>
       </c>
       <c r="N17">
-        <v>1.009363393363927</v>
+        <v>1.015064133339927</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9892719322263825</v>
+        <v>1.027106615169807</v>
       </c>
       <c r="D18">
-        <v>1.013867300139457</v>
+        <v>1.03602795105632</v>
       </c>
       <c r="E18">
-        <v>1.007331201507889</v>
+        <v>1.036981202773168</v>
       </c>
       <c r="F18">
-        <v>1.016232147867155</v>
+        <v>1.047170526352409</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044877174765156</v>
+        <v>1.033393735516866</v>
       </c>
       <c r="J18">
-        <v>1.016746450650257</v>
+        <v>1.033268799216087</v>
       </c>
       <c r="K18">
-        <v>1.027450883418008</v>
+        <v>1.039351789297158</v>
       </c>
       <c r="L18">
-        <v>1.021024577498663</v>
+        <v>1.040301766342431</v>
       </c>
       <c r="M18">
-        <v>1.029776454563181</v>
+        <v>1.050456496109328</v>
       </c>
       <c r="N18">
-        <v>1.009547760570495</v>
+        <v>1.015101775412913</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9896101734796122</v>
+        <v>1.027172943035404</v>
       </c>
       <c r="D19">
-        <v>1.014120081627587</v>
+        <v>1.036078567494564</v>
       </c>
       <c r="E19">
-        <v>1.007606307529526</v>
+        <v>1.037039447928872</v>
       </c>
       <c r="F19">
-        <v>1.016534576508995</v>
+        <v>1.047234196399547</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04497089627922</v>
+        <v>1.033404868704139</v>
       </c>
       <c r="J19">
-        <v>1.016934564681089</v>
+        <v>1.033307467556478</v>
       </c>
       <c r="K19">
-        <v>1.027636194457659</v>
+        <v>1.039387927021246</v>
       </c>
       <c r="L19">
-        <v>1.021231179157946</v>
+        <v>1.040345522038992</v>
       </c>
       <c r="M19">
-        <v>1.030010830619186</v>
+        <v>1.050505820720089</v>
       </c>
       <c r="N19">
-        <v>1.009610387792478</v>
+        <v>1.015114608981917</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9880926903887258</v>
+        <v>1.026876348919662</v>
       </c>
       <c r="D20">
-        <v>1.012986135124901</v>
+        <v>1.035852202342101</v>
       </c>
       <c r="E20">
-        <v>1.006372612455643</v>
+        <v>1.036779025221838</v>
       </c>
       <c r="F20">
-        <v>1.015178225663369</v>
+        <v>1.046949504904342</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044549332871007</v>
+        <v>1.033354940136152</v>
       </c>
       <c r="J20">
-        <v>1.01609046309773</v>
+        <v>1.033134521982237</v>
       </c>
       <c r="K20">
-        <v>1.026804418803446</v>
+        <v>1.039226259254243</v>
       </c>
       <c r="L20">
-        <v>1.020304325116024</v>
+        <v>1.040149846456616</v>
       </c>
       <c r="M20">
-        <v>1.02895933345265</v>
+        <v>1.050285233456556</v>
       </c>
       <c r="N20">
-        <v>1.009329367170221</v>
+        <v>1.015057208700073</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9830727881754141</v>
+        <v>1.025912796361047</v>
       </c>
       <c r="D21">
-        <v>1.009237615583292</v>
+        <v>1.03511633620926</v>
       </c>
       <c r="E21">
-        <v>1.002301295582804</v>
+        <v>1.03593348553725</v>
       </c>
       <c r="F21">
-        <v>1.010699829147152</v>
+        <v>1.046024935774131</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04313567119803</v>
+        <v>1.033190192632376</v>
       </c>
       <c r="J21">
-        <v>1.013295682419954</v>
+        <v>1.032572059966474</v>
       </c>
       <c r="K21">
-        <v>1.024046066746718</v>
+        <v>1.038699766086753</v>
       </c>
       <c r="L21">
-        <v>1.017239199984255</v>
+        <v>1.039513871219856</v>
       </c>
       <c r="M21">
-        <v>1.025481286366106</v>
+        <v>1.049568160285203</v>
       </c>
       <c r="N21">
-        <v>1.00839891226741</v>
+        <v>1.014870499467663</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.979847368399649</v>
+        <v>1.025307519951773</v>
       </c>
       <c r="D22">
-        <v>1.006831506131948</v>
+        <v>1.034653730503314</v>
       </c>
       <c r="E22">
-        <v>0.9996932251420972</v>
+        <v>1.035402729030267</v>
       </c>
       <c r="F22">
-        <v>1.007829195839251</v>
+        <v>1.045444391970027</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042212968668965</v>
+        <v>1.033084755205689</v>
       </c>
       <c r="J22">
-        <v>1.011498290714054</v>
+        <v>1.032218271726618</v>
       </c>
       <c r="K22">
-        <v>1.022268833564309</v>
+        <v>1.03836805990252</v>
       </c>
       <c r="L22">
-        <v>1.015270761752937</v>
+        <v>1.039114157681141</v>
       </c>
       <c r="M22">
-        <v>1.023247134151682</v>
+        <v>1.04911737591888</v>
       </c>
       <c r="N22">
-        <v>1.007800517867337</v>
+        <v>1.014753037223191</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9815639827598502</v>
+        <v>1.025628336028939</v>
       </c>
       <c r="D23">
-        <v>1.008111818903873</v>
+        <v>1.03489895998277</v>
       </c>
       <c r="E23">
-        <v>1.001080517066835</v>
+        <v>1.035684010215139</v>
       </c>
       <c r="F23">
-        <v>1.009356320612629</v>
+        <v>1.045752075617657</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04270537711354</v>
+        <v>1.033140825035274</v>
       </c>
       <c r="J23">
-        <v>1.012455031138108</v>
+        <v>1.03240583497896</v>
       </c>
       <c r="K23">
-        <v>1.023215144622592</v>
+        <v>1.038543967508612</v>
       </c>
       <c r="L23">
-        <v>1.016318283078899</v>
+        <v>1.039326038748887</v>
       </c>
       <c r="M23">
-        <v>1.024436106084846</v>
+        <v>1.049356338232401</v>
       </c>
       <c r="N23">
-        <v>1.008119038426571</v>
+        <v>1.014815312734219</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9881757195240054</v>
+        <v>1.026892512169831</v>
       </c>
       <c r="D24">
-        <v>1.013048170203637</v>
+        <v>1.035864540155871</v>
       </c>
       <c r="E24">
-        <v>1.006440078326158</v>
+        <v>1.036793215381517</v>
       </c>
       <c r="F24">
-        <v>1.01525240765107</v>
+        <v>1.046965018325417</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044572470793732</v>
+        <v>1.03335767065292</v>
       </c>
       <c r="J24">
-        <v>1.016136657830675</v>
+        <v>1.033143949161308</v>
       </c>
       <c r="K24">
-        <v>1.026849955570716</v>
+        <v>1.03923507436399</v>
       </c>
       <c r="L24">
-        <v>1.020355035043447</v>
+        <v>1.040160511089536</v>
       </c>
       <c r="M24">
-        <v>1.029016865601768</v>
+        <v>1.050297256311398</v>
       </c>
       <c r="N24">
-        <v>1.009344746507115</v>
+        <v>1.01506033767215</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9955657865823103</v>
+        <v>1.028361849177327</v>
       </c>
       <c r="D25">
-        <v>1.018573347994133</v>
+        <v>1.036985250885567</v>
       </c>
       <c r="E25">
-        <v>1.012461662981382</v>
+        <v>1.038084102679324</v>
       </c>
       <c r="F25">
-        <v>1.02186934039066</v>
+        <v>1.04837585421227</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046596872041343</v>
+        <v>1.033601204542138</v>
       </c>
       <c r="J25">
-        <v>1.020243306773033</v>
+        <v>1.033999810167349</v>
       </c>
       <c r="K25">
-        <v>1.030890019748756</v>
+        <v>1.040034059915514</v>
       </c>
       <c r="L25">
-        <v>1.024869559405917</v>
+        <v>1.04112947093697</v>
       </c>
       <c r="M25">
-        <v>1.034137390371892</v>
+        <v>1.051389378658239</v>
       </c>
       <c r="N25">
-        <v>1.010711905132589</v>
+        <v>1.015344352060571</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029535611330794</v>
+        <v>1.001251249557127</v>
       </c>
       <c r="D2">
-        <v>1.0378792253427</v>
+        <v>1.022827806383459</v>
       </c>
       <c r="E2">
-        <v>1.039116639903256</v>
+        <v>1.017117306023375</v>
       </c>
       <c r="F2">
-        <v>1.049503707582211</v>
+        <v>1.026979407488311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033788878336445</v>
+        <v>1.048102083352344</v>
       </c>
       <c r="J2">
-        <v>1.034681847077829</v>
+        <v>1.023394600264802</v>
       </c>
       <c r="K2">
-        <v>1.04066885129537</v>
+        <v>1.033978016820116</v>
       </c>
       <c r="L2">
-        <v>1.041902741802839</v>
+        <v>1.028343211141661</v>
       </c>
       <c r="M2">
-        <v>1.052260583338637</v>
+        <v>1.038075248911125</v>
       </c>
       <c r="N2">
-        <v>1.015570603495936</v>
+        <v>1.011760902601286</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030388896884912</v>
+        <v>1.005266903743049</v>
       </c>
       <c r="D3">
-        <v>1.038528353158067</v>
+        <v>1.025833751268462</v>
       </c>
       <c r="E3">
-        <v>1.03986801930943</v>
+        <v>1.020418047054794</v>
       </c>
       <c r="F3">
-        <v>1.050324086768794</v>
+        <v>1.030598965888596</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033921319834343</v>
+        <v>1.049133911670641</v>
       </c>
       <c r="J3">
-        <v>1.035176697750805</v>
+        <v>1.025615010211316</v>
       </c>
       <c r="K3">
-        <v>1.041128302905858</v>
+        <v>1.036146419609651</v>
       </c>
       <c r="L3">
-        <v>1.042464428939411</v>
+        <v>1.030796174287039</v>
       </c>
       <c r="M3">
-        <v>1.052893200797284</v>
+        <v>1.040854742916796</v>
       </c>
       <c r="N3">
-        <v>1.015734712811213</v>
+        <v>1.012499930979448</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03094149738673</v>
+        <v>1.007815884493346</v>
       </c>
       <c r="D4">
-        <v>1.038948381565166</v>
+        <v>1.027741917212504</v>
       </c>
       <c r="E4">
-        <v>1.040354971912009</v>
+        <v>1.022518727459476</v>
       </c>
       <c r="F4">
-        <v>1.050855589642355</v>
+        <v>1.032901007830053</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034005242070008</v>
+        <v>1.049774032587375</v>
       </c>
       <c r="J4">
-        <v>1.035496720919522</v>
+        <v>1.027021750420315</v>
       </c>
       <c r="K4">
-        <v>1.041424912903502</v>
+        <v>1.037516665586323</v>
       </c>
       <c r="L4">
-        <v>1.042827972991933</v>
+        <v>1.032352760691991</v>
       </c>
       <c r="M4">
-        <v>1.053302557606791</v>
+        <v>1.042617923243556</v>
       </c>
       <c r="N4">
-        <v>1.015840821425795</v>
+        <v>1.01296808571267</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C5">
-        <v>1.031173921014486</v>
+        <v>1.008876015925515</v>
       </c>
       <c r="D5">
-        <v>1.039124959442368</v>
+        <v>1.028535505673322</v>
       </c>
       <c r="E5">
-        <v>1.040559866856918</v>
+        <v>1.023393691010828</v>
       </c>
       <c r="F5">
-        <v>1.051079190099108</v>
+        <v>1.033859472962598</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034040096803066</v>
+        <v>1.05003664718747</v>
       </c>
       <c r="J5">
-        <v>1.035631214662186</v>
+        <v>1.027606143368666</v>
       </c>
       <c r="K5">
-        <v>1.041549442060937</v>
+        <v>1.038085029679986</v>
       </c>
       <c r="L5">
-        <v>1.042980828166868</v>
+        <v>1.033000007306601</v>
       </c>
       <c r="M5">
-        <v>1.053474652145984</v>
+        <v>1.043350923113142</v>
       </c>
       <c r="N5">
-        <v>1.015885409612717</v>
+        <v>1.013162552983253</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.031212952390629</v>
+        <v>1.009053355089991</v>
       </c>
       <c r="D6">
-        <v>1.039154607468478</v>
+        <v>1.028668254455265</v>
       </c>
       <c r="E6">
-        <v>1.040594280125393</v>
+        <v>1.023540129526562</v>
       </c>
       <c r="F6">
-        <v>1.051116742727418</v>
+        <v>1.034019865140137</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034045924047822</v>
+        <v>1.050080363473225</v>
       </c>
       <c r="J6">
-        <v>1.035653794135171</v>
+        <v>1.027703860211217</v>
       </c>
       <c r="K6">
-        <v>1.041570341295524</v>
+        <v>1.03818001476081</v>
       </c>
       <c r="L6">
-        <v>1.043006494426994</v>
+        <v>1.03310826951859</v>
       </c>
       <c r="M6">
-        <v>1.053503547581758</v>
+        <v>1.043473519938437</v>
       </c>
       <c r="N6">
-        <v>1.015892894986566</v>
+        <v>1.013195069079176</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030944602610908</v>
+        <v>1.007830094572755</v>
       </c>
       <c r="D7">
-        <v>1.038950741017918</v>
+        <v>1.027752554698364</v>
       </c>
       <c r="E7">
-        <v>1.040357709023066</v>
+        <v>1.022530450520216</v>
       </c>
       <c r="F7">
-        <v>1.050858576789601</v>
+        <v>1.032913851125342</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03400570947641</v>
+        <v>1.049777567035454</v>
       </c>
       <c r="J7">
-        <v>1.035498518206026</v>
+        <v>1.027029586375968</v>
       </c>
       <c r="K7">
-        <v>1.041426577521094</v>
+        <v>1.037524290069828</v>
       </c>
       <c r="L7">
-        <v>1.042830015368595</v>
+        <v>1.032361437045718</v>
       </c>
       <c r="M7">
-        <v>1.053304857140912</v>
+        <v>1.042627749721959</v>
       </c>
       <c r="N7">
-        <v>1.015841417294008</v>
+        <v>1.012970693330197</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029823885385196</v>
+        <v>1.002618818876691</v>
       </c>
       <c r="D8">
-        <v>1.038098600131795</v>
+        <v>1.023851454694143</v>
       </c>
       <c r="E8">
-        <v>1.039370413643726</v>
+        <v>1.018240229714946</v>
       </c>
       <c r="F8">
-        <v>1.049780820156362</v>
+        <v>1.028211117581845</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033834004790019</v>
+        <v>1.04845655963716</v>
       </c>
       <c r="J8">
-        <v>1.034849120312378</v>
+        <v>1.02415132654616</v>
       </c>
       <c r="K8">
-        <v>1.040824266256492</v>
+        <v>1.034717751690956</v>
       </c>
       <c r="L8">
-        <v>1.042092546066169</v>
+        <v>1.029178666350232</v>
       </c>
       <c r="M8">
-        <v>1.052474376070255</v>
+        <v>1.039022043812017</v>
       </c>
       <c r="N8">
-        <v>1.015626081519176</v>
+        <v>1.01201277783995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.02785269052195</v>
+        <v>0.9930399175046486</v>
       </c>
       <c r="D9">
-        <v>1.036597097290524</v>
+        <v>1.016684135185264</v>
       </c>
       <c r="E9">
-        <v>1.037636574275911</v>
+        <v>1.010399780531684</v>
       </c>
       <c r="F9">
-        <v>1.047886838740971</v>
+        <v>1.01960453169167</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033517876047131</v>
+        <v>1.045913035103156</v>
       </c>
       <c r="J9">
-        <v>1.033703490374774</v>
+        <v>1.018840871134756</v>
       </c>
       <c r="K9">
-        <v>1.039757728489602</v>
+        <v>1.029512201644341</v>
       </c>
       <c r="L9">
-        <v>1.040793822564146</v>
+        <v>1.023326352221878</v>
       </c>
       <c r="M9">
-        <v>1.05101112154261</v>
+        <v>1.032387349595505</v>
       </c>
       <c r="N9">
-        <v>1.015246031722789</v>
+        <v>1.010245028187212</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.026541109938047</v>
+        <v>0.9863619027967476</v>
       </c>
       <c r="D10">
-        <v>1.035596260364477</v>
+        <v>1.011693224879481</v>
       </c>
       <c r="E10">
-        <v>1.036484758559639</v>
+        <v>1.004967189229414</v>
       </c>
       <c r="F10">
-        <v>1.046627774527953</v>
+        <v>1.013632672525458</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033298059274993</v>
+        <v>1.044065157051367</v>
       </c>
       <c r="J10">
-        <v>1.032938935212846</v>
+        <v>1.015127266657812</v>
       </c>
       <c r="K10">
-        <v>1.039043302073461</v>
+        <v>1.025854516025144</v>
       </c>
       <c r="L10">
-        <v>1.039928626042457</v>
+        <v>1.01924733498127</v>
       </c>
       <c r="M10">
-        <v>1.050035826165139</v>
+        <v>1.027760071402817</v>
       </c>
       <c r="N10">
-        <v>1.014992288706293</v>
+        <v>1.009008694829737</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025973805318399</v>
+        <v>0.983394774539503</v>
       </c>
       <c r="D11">
-        <v>1.035162949645087</v>
+        <v>1.009477921433574</v>
       </c>
       <c r="E11">
-        <v>1.035986999735316</v>
+        <v>1.002561989241308</v>
       </c>
       <c r="F11">
-        <v>1.046083462219734</v>
+        <v>1.010986692232173</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033200737683691</v>
+        <v>1.043227186447143</v>
       </c>
       <c r="J11">
-        <v>1.032607700421033</v>
+        <v>1.013475046540014</v>
       </c>
       <c r="K11">
-        <v>1.038733159061709</v>
+        <v>1.024223284453623</v>
       </c>
       <c r="L11">
-        <v>1.039554151485471</v>
+        <v>1.017435751391976</v>
       </c>
       <c r="M11">
-        <v>1.049613582852464</v>
+        <v>1.025704347850383</v>
       </c>
       <c r="N11">
-        <v>1.014882331617099</v>
+        <v>1.008458627228889</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025763177590587</v>
+        <v>0.9822807420034003</v>
       </c>
       <c r="D12">
-        <v>1.035002009398828</v>
+        <v>1.008646575517778</v>
       </c>
       <c r="E12">
-        <v>1.035802259786562</v>
+        <v>1.001660281867134</v>
       </c>
       <c r="F12">
-        <v>1.045881413223575</v>
+        <v>1.009994409187914</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033164267567382</v>
+        <v>1.042910086228266</v>
       </c>
       <c r="J12">
-        <v>1.032484639718184</v>
+        <v>1.012854416117282</v>
       </c>
       <c r="K12">
-        <v>1.038617840650389</v>
+        <v>1.023609974700968</v>
       </c>
       <c r="L12">
-        <v>1.039415080648025</v>
+        <v>1.016755742473571</v>
       </c>
       <c r="M12">
-        <v>1.049456754494453</v>
+        <v>1.024932604726318</v>
       </c>
       <c r="N12">
-        <v>1.014841476392688</v>
+        <v>1.008252003498587</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025808353653391</v>
+        <v>0.982520254140314</v>
       </c>
       <c r="D13">
-        <v>1.03503653111581</v>
+        <v>1.008825291614721</v>
       </c>
       <c r="E13">
-        <v>1.035841880322257</v>
+        <v>1.001854083317762</v>
       </c>
       <c r="F13">
-        <v>1.04592474737617</v>
+        <v>1.010207691750689</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033172105022205</v>
+        <v>1.042978372240039</v>
       </c>
       <c r="J13">
-        <v>1.032511037783227</v>
+        <v>1.012987861400042</v>
       </c>
       <c r="K13">
-        <v>1.038642582134412</v>
+        <v>1.023741871035798</v>
       </c>
       <c r="L13">
-        <v>1.039444910628962</v>
+        <v>1.016901933176384</v>
       </c>
       <c r="M13">
-        <v>1.04949039415722</v>
+        <v>1.025098520852708</v>
       </c>
       <c r="N13">
-        <v>1.01485024052472</v>
+        <v>1.008296430788728</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025956392828617</v>
+        <v>0.9833029345965111</v>
       </c>
       <c r="D14">
-        <v>1.035149646045988</v>
+        <v>1.009409377218089</v>
       </c>
       <c r="E14">
-        <v>1.035971726006073</v>
+        <v>1.002487625537261</v>
       </c>
       <c r="F14">
-        <v>1.04606675806542</v>
+        <v>1.010904865030918</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033197729586379</v>
+        <v>1.043201094936544</v>
       </c>
       <c r="J14">
-        <v>1.032597528694671</v>
+        <v>1.013423887933858</v>
       </c>
       <c r="K14">
-        <v>1.038723629194202</v>
+        <v>1.024172740619848</v>
       </c>
       <c r="L14">
-        <v>1.039542655314234</v>
+        <v>1.017379688367059</v>
       </c>
       <c r="M14">
-        <v>1.049600619124901</v>
+        <v>1.025640723684879</v>
       </c>
       <c r="N14">
-        <v>1.014878954759077</v>
+        <v>1.008441595199545</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026047617214717</v>
+        <v>0.9837835742922716</v>
       </c>
       <c r="D15">
-        <v>1.035219341355202</v>
+        <v>1.009768116980858</v>
       </c>
       <c r="E15">
-        <v>1.036051748128263</v>
+        <v>1.002876859394678</v>
       </c>
       <c r="F15">
-        <v>1.046154273199146</v>
+        <v>1.011333151704406</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033213475277388</v>
+        <v>1.043337542924035</v>
       </c>
       <c r="J15">
-        <v>1.032650815278894</v>
+        <v>1.013691612305449</v>
       </c>
       <c r="K15">
-        <v>1.038773549437657</v>
+        <v>1.024437224910071</v>
       </c>
       <c r="L15">
-        <v>1.039602882488152</v>
+        <v>1.017673098389565</v>
       </c>
       <c r="M15">
-        <v>1.04966853395409</v>
+        <v>1.025973701774151</v>
       </c>
       <c r="N15">
-        <v>1.014896644934907</v>
+        <v>1.008530727631739</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.026578773239622</v>
+        <v>0.9865571830857074</v>
       </c>
       <c r="D16">
-        <v>1.035625019159379</v>
+        <v>1.011839076665273</v>
       </c>
       <c r="E16">
-        <v>1.03651781408471</v>
+        <v>1.005125669926353</v>
       </c>
       <c r="F16">
-        <v>1.046663917261075</v>
+        <v>1.013806975875285</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033304473188063</v>
+        <v>1.04411996020158</v>
       </c>
       <c r="J16">
-        <v>1.032960914548785</v>
+        <v>1.01523596411806</v>
       </c>
       <c r="K16">
-        <v>1.039063868688288</v>
+        <v>1.025961753363229</v>
       </c>
       <c r="L16">
-        <v>1.039953482207588</v>
+        <v>1.019366583815627</v>
       </c>
       <c r="M16">
-        <v>1.050063850598528</v>
+        <v>1.027895377881267</v>
       </c>
       <c r="N16">
-        <v>1.014999584450991</v>
+        <v>1.009044883033199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02691212005</v>
+        <v>0.9882763918585526</v>
       </c>
       <c r="D17">
-        <v>1.03587950706847</v>
+        <v>1.013123388770428</v>
       </c>
       <c r="E17">
-        <v>1.036810429967395</v>
+        <v>1.006521885842878</v>
       </c>
       <c r="F17">
-        <v>1.046983838070717</v>
+        <v>1.0153423576508</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033360981602661</v>
+        <v>1.044600514311107</v>
       </c>
       <c r="J17">
-        <v>1.033155385057744</v>
+        <v>1.016192667198881</v>
       </c>
       <c r="K17">
-        <v>1.039245767359994</v>
+        <v>1.026905164633739</v>
       </c>
       <c r="L17">
-        <v>1.040173448351838</v>
+        <v>1.020416521005385</v>
       </c>
       <c r="M17">
-        <v>1.050311841155814</v>
+        <v>1.029086623107676</v>
       </c>
       <c r="N17">
-        <v>1.015064133339927</v>
+        <v>1.009363393363927</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.027106615169807</v>
+        <v>0.9892719322263831</v>
       </c>
       <c r="D18">
-        <v>1.03602795105632</v>
+        <v>1.013867300139458</v>
       </c>
       <c r="E18">
-        <v>1.036981202773168</v>
+        <v>1.00733120150789</v>
       </c>
       <c r="F18">
-        <v>1.047170526352409</v>
+        <v>1.016232147867157</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033393735516866</v>
+        <v>1.044877174765156</v>
       </c>
       <c r="J18">
-        <v>1.033268799216087</v>
+        <v>1.016746450650258</v>
       </c>
       <c r="K18">
-        <v>1.039351789297158</v>
+        <v>1.027450883418008</v>
       </c>
       <c r="L18">
-        <v>1.040301766342431</v>
+        <v>1.021024577498664</v>
       </c>
       <c r="M18">
-        <v>1.050456496109328</v>
+        <v>1.029776454563182</v>
       </c>
       <c r="N18">
-        <v>1.015101775412913</v>
+        <v>1.009547760570495</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.027172943035404</v>
+        <v>0.9896101734796128</v>
       </c>
       <c r="D19">
-        <v>1.036078567494564</v>
+        <v>1.014120081627588</v>
       </c>
       <c r="E19">
-        <v>1.037039447928872</v>
+        <v>1.007606307529526</v>
       </c>
       <c r="F19">
-        <v>1.047234196399547</v>
+        <v>1.016534576508995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033404868704139</v>
+        <v>1.04497089627922</v>
       </c>
       <c r="J19">
-        <v>1.033307467556478</v>
+        <v>1.01693456468109</v>
       </c>
       <c r="K19">
-        <v>1.039387927021246</v>
+        <v>1.027636194457659</v>
       </c>
       <c r="L19">
-        <v>1.040345522038992</v>
+        <v>1.021231179157946</v>
       </c>
       <c r="M19">
-        <v>1.050505820720089</v>
+        <v>1.030010830619187</v>
       </c>
       <c r="N19">
-        <v>1.015114608981917</v>
+        <v>1.009610387792478</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026876348919662</v>
+        <v>0.9880926903887257</v>
       </c>
       <c r="D20">
-        <v>1.035852202342101</v>
+        <v>1.012986135124901</v>
       </c>
       <c r="E20">
-        <v>1.036779025221838</v>
+        <v>1.006372612455643</v>
       </c>
       <c r="F20">
-        <v>1.046949504904342</v>
+        <v>1.015178225663368</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033354940136152</v>
+        <v>1.044549332871006</v>
       </c>
       <c r="J20">
-        <v>1.033134521982237</v>
+        <v>1.016090463097729</v>
       </c>
       <c r="K20">
-        <v>1.039226259254243</v>
+        <v>1.026804418803446</v>
       </c>
       <c r="L20">
-        <v>1.040149846456616</v>
+        <v>1.020304325116024</v>
       </c>
       <c r="M20">
-        <v>1.050285233456556</v>
+        <v>1.028959333452649</v>
       </c>
       <c r="N20">
-        <v>1.015057208700073</v>
+        <v>1.009329367170221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025912796361047</v>
+        <v>0.9830727881754139</v>
       </c>
       <c r="D21">
-        <v>1.03511633620926</v>
+        <v>1.009237615583292</v>
       </c>
       <c r="E21">
-        <v>1.03593348553725</v>
+        <v>1.002301295582804</v>
       </c>
       <c r="F21">
-        <v>1.046024935774131</v>
+        <v>1.010699829147151</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033190192632376</v>
+        <v>1.04313567119803</v>
       </c>
       <c r="J21">
-        <v>1.032572059966474</v>
+        <v>1.013295682419954</v>
       </c>
       <c r="K21">
-        <v>1.038699766086753</v>
+        <v>1.024046066746717</v>
       </c>
       <c r="L21">
-        <v>1.039513871219856</v>
+        <v>1.017239199984254</v>
       </c>
       <c r="M21">
-        <v>1.049568160285203</v>
+        <v>1.025481286366106</v>
       </c>
       <c r="N21">
-        <v>1.014870499467663</v>
+        <v>1.00839891226741</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.025307519951773</v>
+        <v>0.9798473683996487</v>
       </c>
       <c r="D22">
-        <v>1.034653730503314</v>
+        <v>1.006831506131948</v>
       </c>
       <c r="E22">
-        <v>1.035402729030267</v>
+        <v>0.9996932251420969</v>
       </c>
       <c r="F22">
-        <v>1.045444391970027</v>
+        <v>1.007829195839251</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033084755205689</v>
+        <v>1.042212968668965</v>
       </c>
       <c r="J22">
-        <v>1.032218271726618</v>
+        <v>1.011498290714054</v>
       </c>
       <c r="K22">
-        <v>1.03836805990252</v>
+        <v>1.022268833564308</v>
       </c>
       <c r="L22">
-        <v>1.039114157681141</v>
+        <v>1.015270761752937</v>
       </c>
       <c r="M22">
-        <v>1.04911737591888</v>
+        <v>1.023247134151682</v>
       </c>
       <c r="N22">
-        <v>1.014753037223191</v>
+        <v>1.007800517867337</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025628336028939</v>
+        <v>0.9815639827598499</v>
       </c>
       <c r="D23">
-        <v>1.03489895998277</v>
+        <v>1.008111818903873</v>
       </c>
       <c r="E23">
-        <v>1.035684010215139</v>
+        <v>1.001080517066835</v>
       </c>
       <c r="F23">
-        <v>1.045752075617657</v>
+        <v>1.009356320612629</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033140825035274</v>
+        <v>1.04270537711354</v>
       </c>
       <c r="J23">
-        <v>1.03240583497896</v>
+        <v>1.012455031138108</v>
       </c>
       <c r="K23">
-        <v>1.038543967508612</v>
+        <v>1.023215144622592</v>
       </c>
       <c r="L23">
-        <v>1.039326038748887</v>
+        <v>1.016318283078899</v>
       </c>
       <c r="M23">
-        <v>1.049356338232401</v>
+        <v>1.024436106084846</v>
       </c>
       <c r="N23">
-        <v>1.014815312734219</v>
+        <v>1.00811903842657</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026892512169831</v>
+        <v>0.9881757195240058</v>
       </c>
       <c r="D24">
-        <v>1.035864540155871</v>
+        <v>1.013048170203638</v>
       </c>
       <c r="E24">
-        <v>1.036793215381517</v>
+        <v>1.006440078326158</v>
       </c>
       <c r="F24">
-        <v>1.046965018325417</v>
+        <v>1.01525240765107</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03335767065292</v>
+        <v>1.044572470793732</v>
       </c>
       <c r="J24">
-        <v>1.033143949161308</v>
+        <v>1.016136657830675</v>
       </c>
       <c r="K24">
-        <v>1.03923507436399</v>
+        <v>1.026849955570716</v>
       </c>
       <c r="L24">
-        <v>1.040160511089536</v>
+        <v>1.020355035043448</v>
       </c>
       <c r="M24">
-        <v>1.050297256311398</v>
+        <v>1.029016865601769</v>
       </c>
       <c r="N24">
-        <v>1.01506033767215</v>
+        <v>1.009344746507115</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.028361849177327</v>
+        <v>0.9955657865823109</v>
       </c>
       <c r="D25">
-        <v>1.036985250885567</v>
+        <v>1.018573347994133</v>
       </c>
       <c r="E25">
-        <v>1.038084102679324</v>
+        <v>1.012461662981382</v>
       </c>
       <c r="F25">
-        <v>1.04837585421227</v>
+        <v>1.02186934039066</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033601204542138</v>
+        <v>1.046596872041343</v>
       </c>
       <c r="J25">
-        <v>1.033999810167349</v>
+        <v>1.020243306773033</v>
       </c>
       <c r="K25">
-        <v>1.040034059915514</v>
+        <v>1.030890019748756</v>
       </c>
       <c r="L25">
-        <v>1.04112947093697</v>
+        <v>1.024869559405918</v>
       </c>
       <c r="M25">
-        <v>1.051389378658239</v>
+        <v>1.034137390371892</v>
       </c>
       <c r="N25">
-        <v>1.015344352060571</v>
+        <v>1.010711905132589</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001251249557127</v>
+        <v>1.004355903416004</v>
       </c>
       <c r="D2">
-        <v>1.022827806383459</v>
+        <v>1.026925845759642</v>
       </c>
       <c r="E2">
-        <v>1.017117306023375</v>
+        <v>1.020871724515102</v>
       </c>
       <c r="F2">
-        <v>1.026979407488311</v>
+        <v>1.033417484910946</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048102083352344</v>
+        <v>1.045825915873791</v>
       </c>
       <c r="J2">
-        <v>1.023394600264802</v>
+        <v>1.026407106167824</v>
       </c>
       <c r="K2">
-        <v>1.033978016820116</v>
+        <v>1.038022385116615</v>
       </c>
       <c r="L2">
-        <v>1.028343211141661</v>
+        <v>1.032047743877412</v>
       </c>
       <c r="M2">
-        <v>1.038075248911125</v>
+        <v>1.044430094080764</v>
       </c>
       <c r="N2">
-        <v>1.011760902601286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.012658986061145</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.04373582260098</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037955388889507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005266903743049</v>
+        <v>1.007786104209895</v>
       </c>
       <c r="D3">
-        <v>1.025833751268462</v>
+        <v>1.029160378292691</v>
       </c>
       <c r="E3">
-        <v>1.020418047054794</v>
+        <v>1.023492703427317</v>
       </c>
       <c r="F3">
-        <v>1.030598965888596</v>
+        <v>1.035920582144213</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049133911670641</v>
+        <v>1.046316338899028</v>
       </c>
       <c r="J3">
-        <v>1.025615010211316</v>
+        <v>1.028066739399019</v>
       </c>
       <c r="K3">
-        <v>1.036146419609651</v>
+        <v>1.039433261618635</v>
       </c>
       <c r="L3">
-        <v>1.030796174287039</v>
+        <v>1.033833562160494</v>
       </c>
       <c r="M3">
-        <v>1.040854742916796</v>
+        <v>1.046113590702022</v>
       </c>
       <c r="N3">
-        <v>1.012499930979448</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.013224821887489</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.045068190140263</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.038950334869264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,81 +539,105 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007815884493346</v>
+        <v>1.009970896214373</v>
       </c>
       <c r="D4">
-        <v>1.027741917212504</v>
+        <v>1.030586930210876</v>
       </c>
       <c r="E4">
-        <v>1.022518727459476</v>
+        <v>1.025168154833364</v>
       </c>
       <c r="F4">
-        <v>1.032901007830053</v>
+        <v>1.037521368354724</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049774032587375</v>
+        <v>1.046619188766593</v>
       </c>
       <c r="J4">
-        <v>1.027021750420315</v>
+        <v>1.029122939260954</v>
       </c>
       <c r="K4">
-        <v>1.037516665586323</v>
+        <v>1.04032969807104</v>
       </c>
       <c r="L4">
-        <v>1.032352760691991</v>
+        <v>1.034972023142245</v>
       </c>
       <c r="M4">
-        <v>1.042617923243556</v>
+        <v>1.047187089981419</v>
       </c>
       <c r="N4">
-        <v>1.01296808571267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.013584790957907</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.04591778701193</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03958508891787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008876015925515</v>
+        <v>1.010883882306165</v>
       </c>
       <c r="D5">
-        <v>1.028535505673322</v>
+        <v>1.031185642472329</v>
       </c>
       <c r="E5">
-        <v>1.023393691010828</v>
+        <v>1.025870147310362</v>
       </c>
       <c r="F5">
-        <v>1.033859472962598</v>
+        <v>1.038192381183705</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05003664718747</v>
+        <v>1.046744673940776</v>
       </c>
       <c r="J5">
-        <v>1.027606143368666</v>
+        <v>1.029565355986371</v>
       </c>
       <c r="K5">
-        <v>1.038085029679986</v>
+        <v>1.040706166768822</v>
       </c>
       <c r="L5">
-        <v>1.033000007306601</v>
+        <v>1.035449023334276</v>
       </c>
       <c r="M5">
-        <v>1.043350923113142</v>
+        <v>1.04763710670133</v>
       </c>
       <c r="N5">
-        <v>1.013162552983253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01373576074194</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.046273942335959</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.039858455813871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009053355089991</v>
+        <v>1.011039873057283</v>
       </c>
       <c r="D6">
-        <v>1.028668254455265</v>
+        <v>1.031290194827091</v>
       </c>
       <c r="E6">
-        <v>1.023540129526562</v>
+        <v>1.025990683931373</v>
       </c>
       <c r="F6">
-        <v>1.034019865140137</v>
+        <v>1.038307781707592</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050080363473225</v>
+        <v>1.046767497526299</v>
       </c>
       <c r="J6">
-        <v>1.027703860211217</v>
+        <v>1.029642488316562</v>
       </c>
       <c r="K6">
-        <v>1.03818001476081</v>
+        <v>1.040773394778137</v>
       </c>
       <c r="L6">
-        <v>1.03310826951859</v>
+        <v>1.035531795628164</v>
       </c>
       <c r="M6">
-        <v>1.043473519938437</v>
+        <v>1.047715409543739</v>
       </c>
       <c r="N6">
-        <v>1.013195069079176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013762348535054</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.046335913291822</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.039914737565177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007830094572755</v>
+        <v>1.009991640715911</v>
       </c>
       <c r="D7">
-        <v>1.027752554698364</v>
+        <v>1.030606452846406</v>
       </c>
       <c r="E7">
-        <v>1.022530450520216</v>
+        <v>1.025185478687179</v>
       </c>
       <c r="F7">
-        <v>1.032913851125342</v>
+        <v>1.037538379881317</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049777567035454</v>
+        <v>1.046626128615408</v>
       </c>
       <c r="J7">
-        <v>1.027029586375968</v>
+        <v>1.029137168673959</v>
       </c>
       <c r="K7">
-        <v>1.037524290069828</v>
+        <v>1.040346119683007</v>
       </c>
       <c r="L7">
-        <v>1.032361437045718</v>
+        <v>1.034986247674457</v>
       </c>
       <c r="M7">
-        <v>1.042627749721959</v>
+        <v>1.047201057383988</v>
       </c>
       <c r="N7">
-        <v>1.012970693330197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.013590380482518</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.04592884119222</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039616816365542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002618818876691</v>
+        <v>1.00553314448769</v>
       </c>
       <c r="D8">
-        <v>1.023851454694143</v>
+        <v>1.027699328825151</v>
       </c>
       <c r="E8">
-        <v>1.018240229714946</v>
+        <v>1.021771724658228</v>
       </c>
       <c r="F8">
-        <v>1.028211117581845</v>
+        <v>1.034277366841126</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04845655963716</v>
+        <v>1.046001200689826</v>
       </c>
       <c r="J8">
-        <v>1.02415132654616</v>
+        <v>1.026982050505726</v>
       </c>
       <c r="K8">
-        <v>1.034717751690956</v>
+        <v>1.038516724753137</v>
       </c>
       <c r="L8">
-        <v>1.029178666350232</v>
+        <v>1.032664643772523</v>
       </c>
       <c r="M8">
-        <v>1.039022043812017</v>
+        <v>1.045012215256679</v>
       </c>
       <c r="N8">
-        <v>1.01201277783995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012855996504458</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.04419653028009</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.038327848515365</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9930399175046486</v>
+        <v>0.9973860987606185</v>
       </c>
       <c r="D9">
-        <v>1.016684135185264</v>
+        <v>1.022405717281522</v>
       </c>
       <c r="E9">
-        <v>1.010399780531684</v>
+        <v>1.015580938810109</v>
       </c>
       <c r="F9">
-        <v>1.01960453169167</v>
+        <v>1.028368637675976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045913035103156</v>
+        <v>1.044779273130883</v>
       </c>
       <c r="J9">
-        <v>1.018840871134756</v>
+        <v>1.02303149948161</v>
       </c>
       <c r="K9">
-        <v>1.029512201644341</v>
+        <v>1.035145443581594</v>
       </c>
       <c r="L9">
-        <v>1.023326352221878</v>
+        <v>1.02842618473685</v>
       </c>
       <c r="M9">
-        <v>1.032387349595505</v>
+        <v>1.041017630112326</v>
       </c>
       <c r="N9">
-        <v>1.010245028187212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.011507596933674</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041035093205241</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035940950053591</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9863619027967476</v>
+        <v>0.9918036223922005</v>
       </c>
       <c r="D10">
-        <v>1.011693224879481</v>
+        <v>1.018820747860683</v>
       </c>
       <c r="E10">
-        <v>1.004967189229414</v>
+        <v>1.011400613790855</v>
       </c>
       <c r="F10">
-        <v>1.013632672525458</v>
+        <v>1.024422528232482</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044065157051367</v>
+        <v>1.043911014022048</v>
       </c>
       <c r="J10">
-        <v>1.015127266657812</v>
+        <v>1.020346252655061</v>
       </c>
       <c r="K10">
-        <v>1.025854516025144</v>
+        <v>1.032858304034659</v>
       </c>
       <c r="L10">
-        <v>1.01924733498127</v>
+        <v>1.025567033000441</v>
       </c>
       <c r="M10">
-        <v>1.027760071402817</v>
+        <v>1.038364396379609</v>
       </c>
       <c r="N10">
-        <v>1.009008694829737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010594222960141</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03898664177148</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.034340630149352</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.983394774539503</v>
+        <v>0.9897335018133939</v>
       </c>
       <c r="D11">
-        <v>1.009477921433574</v>
+        <v>1.017657270626427</v>
       </c>
       <c r="E11">
-        <v>1.002561989241308</v>
+        <v>1.010067775289034</v>
       </c>
       <c r="F11">
-        <v>1.010986692232173</v>
+        <v>1.023482212736259</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043227186447143</v>
+        <v>1.043703545596924</v>
       </c>
       <c r="J11">
-        <v>1.013475046540014</v>
+        <v>1.019539705130089</v>
       </c>
       <c r="K11">
-        <v>1.024223284453623</v>
+        <v>1.032253705973995</v>
       </c>
       <c r="L11">
-        <v>1.017435751391976</v>
+        <v>1.024802293264555</v>
       </c>
       <c r="M11">
-        <v>1.025704347850383</v>
+        <v>1.037974471910385</v>
       </c>
       <c r="N11">
-        <v>1.008458627228889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010350022166149</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039113949072329</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033946042853216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9822807420034003</v>
+        <v>0.9891027520180637</v>
       </c>
       <c r="D12">
-        <v>1.008646575517778</v>
+        <v>1.01736997381104</v>
       </c>
       <c r="E12">
-        <v>1.001660281867134</v>
+        <v>1.009752727059845</v>
       </c>
       <c r="F12">
-        <v>1.009994409187914</v>
+        <v>1.023418878781353</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042910086228266</v>
+        <v>1.043691133976539</v>
       </c>
       <c r="J12">
-        <v>1.012854416117282</v>
+        <v>1.019375571998964</v>
       </c>
       <c r="K12">
-        <v>1.023609974700968</v>
+        <v>1.032171790842502</v>
       </c>
       <c r="L12">
-        <v>1.016755742473571</v>
+        <v>1.02469543544114</v>
       </c>
       <c r="M12">
-        <v>1.024932604726318</v>
+        <v>1.038110755135318</v>
       </c>
       <c r="N12">
-        <v>1.008252003498587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.010318581630787</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039547876495418</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.033888126059686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.982520254140314</v>
+        <v>0.9895484590792053</v>
       </c>
       <c r="D13">
-        <v>1.008825291614721</v>
+        <v>1.017752360407277</v>
       </c>
       <c r="E13">
-        <v>1.001854083317762</v>
+        <v>1.010210924059148</v>
       </c>
       <c r="F13">
-        <v>1.010207691750689</v>
+        <v>1.02404559704705</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042978372240039</v>
+        <v>1.043839170899585</v>
       </c>
       <c r="J13">
-        <v>1.012987861400042</v>
+        <v>1.01970756342102</v>
       </c>
       <c r="K13">
-        <v>1.023741871035798</v>
+        <v>1.03250425744716</v>
       </c>
       <c r="L13">
-        <v>1.016901933176384</v>
+        <v>1.025101693059873</v>
       </c>
       <c r="M13">
-        <v>1.025098520852708</v>
+        <v>1.038683641105288</v>
       </c>
       <c r="N13">
-        <v>1.008296430788728</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.010454046558217</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040277288277241</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.034120695569796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9833029345965111</v>
+        <v>0.9903492316760188</v>
       </c>
       <c r="D14">
-        <v>1.009409377218089</v>
+        <v>1.018324912409282</v>
       </c>
       <c r="E14">
-        <v>1.002487625537261</v>
+        <v>1.010882388566364</v>
       </c>
       <c r="F14">
-        <v>1.010904865030918</v>
+        <v>1.024797508962626</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043201094936544</v>
+        <v>1.044015820935086</v>
       </c>
       <c r="J14">
-        <v>1.013423887933858</v>
+        <v>1.02016531571451</v>
       </c>
       <c r="K14">
-        <v>1.024172740619848</v>
+        <v>1.032925855716808</v>
       </c>
       <c r="L14">
-        <v>1.017379688367059</v>
+        <v>1.025618659818885</v>
       </c>
       <c r="M14">
-        <v>1.025640723684879</v>
+        <v>1.039282833666861</v>
       </c>
       <c r="N14">
-        <v>1.008441595199545</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010624806101239</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040924113140741</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.034420206351972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9837835742922716</v>
+        <v>0.9907824317450614</v>
       </c>
       <c r="D15">
-        <v>1.009768116980858</v>
+        <v>1.018616720852786</v>
       </c>
       <c r="E15">
-        <v>1.002876859394678</v>
+        <v>1.011221292845048</v>
       </c>
       <c r="F15">
-        <v>1.011333151704406</v>
+        <v>1.025143569311849</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043337542924035</v>
+        <v>1.044096778667904</v>
       </c>
       <c r="J15">
-        <v>1.013691612305449</v>
+        <v>1.020390320501229</v>
       </c>
       <c r="K15">
-        <v>1.024437224910071</v>
+        <v>1.033125863757711</v>
       </c>
       <c r="L15">
-        <v>1.017673098389565</v>
+        <v>1.025863880234035</v>
       </c>
       <c r="M15">
-        <v>1.025973701774151</v>
+        <v>1.039537013580623</v>
       </c>
       <c r="N15">
-        <v>1.008530727631739</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01070482673733</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041162521570474</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.034567496262068</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9865571830857074</v>
+        <v>0.9930562849130491</v>
       </c>
       <c r="D16">
-        <v>1.011839076665273</v>
+        <v>1.020063188566683</v>
       </c>
       <c r="E16">
-        <v>1.005125669926353</v>
+        <v>1.012903578056138</v>
       </c>
       <c r="F16">
-        <v>1.013806975875285</v>
+        <v>1.026718154277067</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04411996020158</v>
+        <v>1.044451064459721</v>
       </c>
       <c r="J16">
-        <v>1.01523596411806</v>
+        <v>1.021470455882339</v>
       </c>
       <c r="K16">
-        <v>1.025961753363229</v>
+        <v>1.034043761810391</v>
       </c>
       <c r="L16">
-        <v>1.019366583815627</v>
+        <v>1.027007693037405</v>
       </c>
       <c r="M16">
-        <v>1.027895377881267</v>
+        <v>1.040585886081029</v>
       </c>
       <c r="N16">
-        <v>1.009044883033199</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.011068047664743</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041952865629459</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.035219655258972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9882763918585526</v>
+        <v>0.9943834449413723</v>
       </c>
       <c r="D17">
-        <v>1.013123388770428</v>
+        <v>1.020874415403412</v>
       </c>
       <c r="E17">
-        <v>1.006521885842878</v>
+        <v>1.013844053397184</v>
       </c>
       <c r="F17">
-        <v>1.0153423576508</v>
+        <v>1.027529049540756</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044600514311107</v>
+        <v>1.044627841192036</v>
       </c>
       <c r="J17">
-        <v>1.016192667198881</v>
+        <v>1.022059183325471</v>
       </c>
       <c r="K17">
-        <v>1.026905164633739</v>
+        <v>1.034526078964837</v>
       </c>
       <c r="L17">
-        <v>1.020416521005385</v>
+        <v>1.027613623602507</v>
       </c>
       <c r="M17">
-        <v>1.029086623107676</v>
+        <v>1.041071018421776</v>
       </c>
       <c r="N17">
-        <v>1.009363393363927</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.011257104101606</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042207412339565</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035563263842371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9892719322263831</v>
+        <v>0.9950113554992024</v>
       </c>
       <c r="D18">
-        <v>1.013867300139458</v>
+        <v>1.021195921147412</v>
       </c>
       <c r="E18">
-        <v>1.00733120150789</v>
+        <v>1.014212140216141</v>
       </c>
       <c r="F18">
-        <v>1.016232147867157</v>
+        <v>1.027718581317328</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044877174765156</v>
+        <v>1.044661678389094</v>
       </c>
       <c r="J18">
-        <v>1.016746450650258</v>
+        <v>1.022264161662049</v>
       </c>
       <c r="K18">
-        <v>1.027450883418008</v>
+        <v>1.034658547497283</v>
       </c>
       <c r="L18">
-        <v>1.021024577498664</v>
+        <v>1.027789981524997</v>
       </c>
       <c r="M18">
-        <v>1.029776454563182</v>
+        <v>1.041075414529742</v>
       </c>
       <c r="N18">
-        <v>1.009547760570495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.011307690794012</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.041973447316975</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035645276883673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9896101734796128</v>
+        <v>0.995017853063942</v>
       </c>
       <c r="D19">
-        <v>1.014120081627588</v>
+        <v>1.021090707181324</v>
       </c>
       <c r="E19">
-        <v>1.007606307529526</v>
+        <v>1.01407007972138</v>
       </c>
       <c r="F19">
-        <v>1.016534576508995</v>
+        <v>1.02735286040383</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04497089627922</v>
+        <v>1.044576258285968</v>
       </c>
       <c r="J19">
-        <v>1.01693456468109</v>
+        <v>1.022134673727948</v>
       </c>
       <c r="K19">
-        <v>1.027636194457659</v>
+        <v>1.034492407852568</v>
       </c>
       <c r="L19">
-        <v>1.021231179157946</v>
+        <v>1.027587020570147</v>
       </c>
       <c r="M19">
-        <v>1.030010830619187</v>
+        <v>1.040653475170947</v>
       </c>
       <c r="N19">
-        <v>1.009610387792478</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.011240516033422</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041314683756823</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.035534212020947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9880926903887257</v>
+        <v>0.9932710856103925</v>
       </c>
       <c r="D20">
-        <v>1.012986135124901</v>
+        <v>1.019776959003933</v>
       </c>
       <c r="E20">
-        <v>1.006372612455643</v>
+        <v>1.012501998338292</v>
       </c>
       <c r="F20">
-        <v>1.015178225663368</v>
+        <v>1.025464859336733</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044549332871006</v>
+        <v>1.04415317051413</v>
       </c>
       <c r="J20">
-        <v>1.016090463097729</v>
+        <v>1.021063882770111</v>
       </c>
       <c r="K20">
-        <v>1.026804418803446</v>
+        <v>1.033480745660087</v>
       </c>
       <c r="L20">
-        <v>1.020304325116024</v>
+        <v>1.026328520567253</v>
       </c>
       <c r="M20">
-        <v>1.028959333452649</v>
+        <v>1.039074246294312</v>
       </c>
       <c r="N20">
-        <v>1.009329367170221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010840702407995</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039537870159751</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034822851451174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9830727881754139</v>
+        <v>0.9890133547030858</v>
       </c>
       <c r="D21">
-        <v>1.009237615583292</v>
+        <v>1.017017780532275</v>
       </c>
       <c r="E21">
-        <v>1.002301295582804</v>
+        <v>1.009285723222742</v>
       </c>
       <c r="F21">
-        <v>1.010699829147151</v>
+        <v>1.022368392590722</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04313567119803</v>
+        <v>1.043449852112405</v>
       </c>
       <c r="J21">
-        <v>1.013295682419954</v>
+        <v>1.018977714772795</v>
       </c>
       <c r="K21">
-        <v>1.024046066746717</v>
+        <v>1.031683762500749</v>
       </c>
       <c r="L21">
-        <v>1.017239199984254</v>
+        <v>1.024093284648196</v>
       </c>
       <c r="M21">
-        <v>1.025481286366106</v>
+        <v>1.036938029175001</v>
       </c>
       <c r="N21">
-        <v>1.00839891226741</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010125337904623</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037806357741535</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033555543464406</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9798473683996487</v>
+        <v>0.9863041732278276</v>
       </c>
       <c r="D22">
-        <v>1.006831506131948</v>
+        <v>1.015271362854981</v>
       </c>
       <c r="E22">
-        <v>0.9996932251420969</v>
+        <v>1.00725882559569</v>
       </c>
       <c r="F22">
-        <v>1.007829195839251</v>
+        <v>1.020437538646415</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042212968668965</v>
+        <v>1.042996633527452</v>
       </c>
       <c r="J22">
-        <v>1.011498290714054</v>
+        <v>1.017657485903823</v>
       </c>
       <c r="K22">
-        <v>1.022268833564308</v>
+        <v>1.030546242485607</v>
       </c>
       <c r="L22">
-        <v>1.015270761752937</v>
+        <v>1.022687842328335</v>
       </c>
       <c r="M22">
-        <v>1.023247134151682</v>
+        <v>1.035614712771369</v>
       </c>
       <c r="N22">
-        <v>1.007800517867337</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009673285604312</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036759036831331</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032737734730517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9815639827598499</v>
+        <v>0.9877369083048597</v>
       </c>
       <c r="D23">
-        <v>1.008111818903873</v>
+        <v>1.016189242472559</v>
       </c>
       <c r="E23">
-        <v>1.001080517066835</v>
+        <v>1.008328509391399</v>
       </c>
       <c r="F23">
-        <v>1.009356320612629</v>
+        <v>1.021456206908836</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04270537711354</v>
+        <v>1.04323370845363</v>
       </c>
       <c r="J23">
-        <v>1.012455031138108</v>
+        <v>1.01835190496066</v>
       </c>
       <c r="K23">
-        <v>1.023215144622592</v>
+        <v>1.03114112028363</v>
       </c>
       <c r="L23">
-        <v>1.016318283078899</v>
+        <v>1.023427730861672</v>
       </c>
       <c r="M23">
-        <v>1.024436106084846</v>
+        <v>1.036311011468072</v>
       </c>
       <c r="N23">
-        <v>1.00811903842657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009910247018196</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.03731011323059</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.033148688086898</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9881757195240058</v>
+        <v>0.9932908358132817</v>
       </c>
       <c r="D24">
-        <v>1.013048170203638</v>
+        <v>1.019766418526263</v>
       </c>
       <c r="E24">
-        <v>1.006440078326158</v>
+        <v>1.012494231490069</v>
       </c>
       <c r="F24">
-        <v>1.01525240765107</v>
+        <v>1.02542570580039</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044572470793732</v>
+        <v>1.044139156320271</v>
       </c>
       <c r="J24">
-        <v>1.016136657830675</v>
+        <v>1.021049618198766</v>
       </c>
       <c r="K24">
-        <v>1.026849955570716</v>
+        <v>1.033455083331659</v>
       </c>
       <c r="L24">
-        <v>1.020355035043448</v>
+        <v>1.026305430465802</v>
       </c>
       <c r="M24">
-        <v>1.029016865601769</v>
+        <v>1.039020560242273</v>
       </c>
       <c r="N24">
-        <v>1.009344746507115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010831984682531</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039454545742102</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034777263189763</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9955657865823109</v>
+        <v>0.9995403294870413</v>
       </c>
       <c r="D25">
-        <v>1.018573347994133</v>
+        <v>1.023811019106717</v>
       </c>
       <c r="E25">
-        <v>1.012461662981382</v>
+        <v>1.017214194964282</v>
       </c>
       <c r="F25">
-        <v>1.02186934039066</v>
+        <v>1.029927313929834</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046596872041343</v>
+        <v>1.045116991489553</v>
       </c>
       <c r="J25">
-        <v>1.020243306773033</v>
+        <v>1.024083173287299</v>
       </c>
       <c r="K25">
-        <v>1.030890019748756</v>
+        <v>1.036050611814051</v>
       </c>
       <c r="L25">
-        <v>1.024869559405918</v>
+        <v>1.029551033301301</v>
       </c>
       <c r="M25">
-        <v>1.034137390371892</v>
+        <v>1.042078154631369</v>
       </c>
       <c r="N25">
-        <v>1.010711905132589</v>
+        <v>1.011867944159325</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041874426146245</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036609574355845</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004355903416004</v>
+        <v>1.004164838846823</v>
       </c>
       <c r="D2">
-        <v>1.026925845759642</v>
+        <v>1.02628526133545</v>
       </c>
       <c r="E2">
-        <v>1.020871724515102</v>
+        <v>1.020652546640102</v>
       </c>
       <c r="F2">
-        <v>1.033417484910946</v>
+        <v>1.033048902264947</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045825915873791</v>
+        <v>1.045571516071496</v>
       </c>
       <c r="J2">
-        <v>1.026407106167824</v>
+        <v>1.026221689905471</v>
       </c>
       <c r="K2">
-        <v>1.038022385116615</v>
+        <v>1.037390154875763</v>
       </c>
       <c r="L2">
-        <v>1.032047743877412</v>
+        <v>1.031831465610022</v>
       </c>
       <c r="M2">
-        <v>1.044430094080764</v>
+        <v>1.044066241511982</v>
       </c>
       <c r="N2">
-        <v>1.012658986061145</v>
+        <v>1.014116674139188</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.04373582260098</v>
+        <v>1.04344785891668</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037955388889507</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037517127959416</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.022006358820317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007786104209895</v>
+        <v>1.00748338264723</v>
       </c>
       <c r="D3">
-        <v>1.029160378292691</v>
+        <v>1.028379558593242</v>
       </c>
       <c r="E3">
-        <v>1.023492703427317</v>
+        <v>1.023174395142278</v>
       </c>
       <c r="F3">
-        <v>1.035920582144213</v>
+        <v>1.035451988344692</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.046316338899028</v>
+        <v>1.04600234528592</v>
       </c>
       <c r="J3">
-        <v>1.028066739399019</v>
+        <v>1.027772101337162</v>
       </c>
       <c r="K3">
-        <v>1.039433261618635</v>
+        <v>1.038661751519425</v>
       </c>
       <c r="L3">
-        <v>1.033833562160494</v>
+        <v>1.033519099244797</v>
       </c>
       <c r="M3">
-        <v>1.046113590702022</v>
+        <v>1.045650491906795</v>
       </c>
       <c r="N3">
-        <v>1.013224821887489</v>
+        <v>1.014536795903724</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.045068190140263</v>
+        <v>1.044701680705652</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038950334869264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038413315388551</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022248531912282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009970896214373</v>
+        <v>1.009597809828715</v>
       </c>
       <c r="D4">
-        <v>1.030586930210876</v>
+        <v>1.02971726454773</v>
       </c>
       <c r="E4">
-        <v>1.025168154833364</v>
+        <v>1.024787268143195</v>
       </c>
       <c r="F4">
-        <v>1.037521368354724</v>
+        <v>1.036989535908996</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046619188766593</v>
+        <v>1.046267398290824</v>
       </c>
       <c r="J4">
-        <v>1.029122939260954</v>
+        <v>1.028759148785293</v>
       </c>
       <c r="K4">
-        <v>1.04032969807104</v>
+        <v>1.039469785141113</v>
       </c>
       <c r="L4">
-        <v>1.034972023142245</v>
+        <v>1.034595461181219</v>
       </c>
       <c r="M4">
-        <v>1.047187089981419</v>
+        <v>1.046661121705309</v>
       </c>
       <c r="N4">
-        <v>1.013584790957907</v>
+        <v>1.014804202390565</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.04591778701193</v>
+        <v>1.04550152136681</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03958508891787</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038985643327371</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022400110537666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.010883882306165</v>
+        <v>1.010481577717365</v>
       </c>
       <c r="D5">
-        <v>1.031185642472329</v>
+        <v>1.030279024337183</v>
       </c>
       <c r="E5">
-        <v>1.025870147310362</v>
+        <v>1.02546325767021</v>
       </c>
       <c r="F5">
-        <v>1.038192381183705</v>
+        <v>1.037634261225603</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046744673940776</v>
+        <v>1.046377148619463</v>
       </c>
       <c r="J5">
-        <v>1.029565355986371</v>
+        <v>1.029172779054843</v>
       </c>
       <c r="K5">
-        <v>1.040706166768822</v>
+        <v>1.0398094488907</v>
       </c>
       <c r="L5">
-        <v>1.035449023334276</v>
+        <v>1.03504663103185</v>
       </c>
       <c r="M5">
-        <v>1.04763710670133</v>
+        <v>1.04708497849119</v>
       </c>
       <c r="N5">
-        <v>1.01373576074194</v>
+        <v>1.014916422044916</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.046273942335959</v>
+        <v>1.045836973210831</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039858455813871</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039233695932367</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022463670335204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011039873057283</v>
+        <v>1.010632601804627</v>
       </c>
       <c r="D6">
-        <v>1.031290194827091</v>
+        <v>1.030377346267955</v>
       </c>
       <c r="E6">
-        <v>1.025990683931373</v>
+        <v>1.02557937894604</v>
       </c>
       <c r="F6">
-        <v>1.038307781707592</v>
+        <v>1.037745214494942</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046767497526299</v>
+        <v>1.046397312180581</v>
       </c>
       <c r="J6">
-        <v>1.029642488316562</v>
+        <v>1.029245014724217</v>
       </c>
       <c r="K6">
-        <v>1.040773394778137</v>
+        <v>1.039870469484391</v>
       </c>
       <c r="L6">
-        <v>1.035531795628164</v>
+        <v>1.035125016031611</v>
       </c>
       <c r="M6">
-        <v>1.047715409543739</v>
+        <v>1.047158854437015</v>
       </c>
       <c r="N6">
-        <v>1.013762348535054</v>
+        <v>1.014936233156705</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.046335913291822</v>
+        <v>1.045895440637653</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039914737565177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039286455866258</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022475547581265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009991640715911</v>
+        <v>1.009624995835178</v>
       </c>
       <c r="D7">
-        <v>1.030606452846406</v>
+        <v>1.029740966339582</v>
       </c>
       <c r="E7">
-        <v>1.025185478687179</v>
+        <v>1.024809834747707</v>
       </c>
       <c r="F7">
-        <v>1.037538379881317</v>
+        <v>1.037010491680842</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046626128615408</v>
+        <v>1.046276209013753</v>
       </c>
       <c r="J7">
-        <v>1.029137168673959</v>
+        <v>1.028779655285298</v>
       </c>
       <c r="K7">
-        <v>1.040346119683007</v>
+        <v>1.039490335305503</v>
       </c>
       <c r="L7">
-        <v>1.034986247674457</v>
+        <v>1.034614867307311</v>
       </c>
       <c r="M7">
-        <v>1.047201057383988</v>
+        <v>1.046678987663708</v>
       </c>
       <c r="N7">
-        <v>1.013590380482518</v>
+        <v>1.014836166687686</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.04592884119222</v>
+        <v>1.045515660977644</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039616816365542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.0390222855212</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022405812061562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00553314448769</v>
+        <v>1.005325389259283</v>
       </c>
       <c r="D8">
-        <v>1.027699328825151</v>
+        <v>1.027025671353575</v>
       </c>
       <c r="E8">
-        <v>1.021771724658228</v>
+        <v>1.021536295108656</v>
       </c>
       <c r="F8">
-        <v>1.034277366841126</v>
+        <v>1.033888216870634</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046001200689826</v>
+        <v>1.045733094870916</v>
       </c>
       <c r="J8">
-        <v>1.026982050505726</v>
+        <v>1.026780233076229</v>
       </c>
       <c r="K8">
-        <v>1.038516724753137</v>
+        <v>1.037851595488016</v>
       </c>
       <c r="L8">
-        <v>1.032664643772523</v>
+        <v>1.032432236438338</v>
       </c>
       <c r="M8">
-        <v>1.045012215256679</v>
+        <v>1.044627912286078</v>
       </c>
       <c r="N8">
-        <v>1.012855996504458</v>
+        <v>1.014347292009443</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.04419653028009</v>
+        <v>1.043892381731636</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038327848515365</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037868588760324</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022097950841542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9973860987606185</v>
+        <v>0.9974514107931798</v>
       </c>
       <c r="D9">
-        <v>1.022405717281522</v>
+        <v>1.02207012073645</v>
       </c>
       <c r="E9">
-        <v>1.015580938810109</v>
+        <v>1.015586993486059</v>
       </c>
       <c r="F9">
-        <v>1.028368637675976</v>
+        <v>1.02822188118604</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.044779273130883</v>
+        <v>1.044654666222644</v>
       </c>
       <c r="J9">
-        <v>1.02303149948161</v>
+        <v>1.023094488426809</v>
       </c>
       <c r="K9">
-        <v>1.035145443581594</v>
+        <v>1.034814993742595</v>
       </c>
       <c r="L9">
-        <v>1.02842618473685</v>
+        <v>1.028432144996466</v>
       </c>
       <c r="M9">
-        <v>1.041017630112326</v>
+        <v>1.040873090630056</v>
       </c>
       <c r="N9">
-        <v>1.011507596933674</v>
+        <v>1.01335711604874</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041035093205241</v>
+        <v>1.040920699971893</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035940950053591</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035718052083085</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021505525421045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9918036223922005</v>
+        <v>0.9920899254167868</v>
       </c>
       <c r="D10">
-        <v>1.018820747860683</v>
+        <v>1.018738848063894</v>
       </c>
       <c r="E10">
-        <v>1.011400613790855</v>
+        <v>1.011599125912825</v>
       </c>
       <c r="F10">
-        <v>1.024422528232482</v>
+        <v>1.024462778886966</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.043911014022048</v>
+        <v>1.043894166191867</v>
       </c>
       <c r="J10">
-        <v>1.020346252655061</v>
+        <v>1.020620933065156</v>
       </c>
       <c r="K10">
-        <v>1.032858304034659</v>
+        <v>1.032777813318302</v>
       </c>
       <c r="L10">
-        <v>1.025567033000441</v>
+        <v>1.025762065741157</v>
       </c>
       <c r="M10">
-        <v>1.038364396379609</v>
+        <v>1.038403964371396</v>
       </c>
       <c r="N10">
-        <v>1.010594222960141</v>
+        <v>1.012805651021112</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03898664177148</v>
+        <v>1.039017955299543</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.034340630149352</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.034296146044994</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021103559783134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9897335018133939</v>
+        <v>0.9901320606144922</v>
       </c>
       <c r="D11">
-        <v>1.017657270626427</v>
+        <v>1.017681893841023</v>
       </c>
       <c r="E11">
-        <v>1.010067775289034</v>
+        <v>1.010359635409039</v>
       </c>
       <c r="F11">
-        <v>1.023482212736259</v>
+        <v>1.023606808200067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.043703545596924</v>
+        <v>1.043730567389864</v>
       </c>
       <c r="J11">
-        <v>1.019539705130089</v>
+        <v>1.019921198547392</v>
       </c>
       <c r="K11">
-        <v>1.032253705973995</v>
+        <v>1.032277885552429</v>
       </c>
       <c r="L11">
-        <v>1.024802293264555</v>
+        <v>1.025088793348292</v>
       </c>
       <c r="M11">
-        <v>1.037974471910385</v>
+        <v>1.038096855851713</v>
       </c>
       <c r="N11">
-        <v>1.010350022166149</v>
+        <v>1.012866700421044</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039113949072329</v>
+        <v>1.039210753296149</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033946042853216</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.03397877566117</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021043362959253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9891027520180637</v>
+        <v>0.9895332929688005</v>
       </c>
       <c r="D12">
-        <v>1.01736997381104</v>
+        <v>1.017421299021133</v>
       </c>
       <c r="E12">
-        <v>1.009752727059845</v>
+        <v>1.010069699273284</v>
       </c>
       <c r="F12">
-        <v>1.023418878781353</v>
+        <v>1.023565611712184</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.043691133976539</v>
+        <v>1.043727952226051</v>
       </c>
       <c r="J12">
-        <v>1.019375571998964</v>
+        <v>1.019787324623417</v>
       </c>
       <c r="K12">
-        <v>1.032171790842502</v>
+        <v>1.032222176040502</v>
       </c>
       <c r="L12">
-        <v>1.02469543544114</v>
+        <v>1.025006489522921</v>
       </c>
       <c r="M12">
-        <v>1.038110755135318</v>
+        <v>1.038254842134025</v>
       </c>
       <c r="N12">
-        <v>1.010318581630787</v>
+        <v>1.012949584837564</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039547876495418</v>
+        <v>1.039661809062925</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033888126059686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033939387964578</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02106004189886</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9895484590792053</v>
+        <v>0.9899406588475893</v>
       </c>
       <c r="D13">
-        <v>1.017752360407277</v>
+        <v>1.017763061745894</v>
       </c>
       <c r="E13">
-        <v>1.010210924059148</v>
+        <v>1.010493516545785</v>
       </c>
       <c r="F13">
-        <v>1.02404559704705</v>
+        <v>1.024161209928347</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.043839170899585</v>
+        <v>1.043856942651071</v>
       </c>
       <c r="J13">
-        <v>1.01970756342102</v>
+        <v>1.020082731804881</v>
       </c>
       <c r="K13">
-        <v>1.03250425744716</v>
+        <v>1.032514763628915</v>
       </c>
       <c r="L13">
-        <v>1.025101693059873</v>
+        <v>1.025379032981348</v>
       </c>
       <c r="M13">
-        <v>1.038683641105288</v>
+        <v>1.038797179400111</v>
       </c>
       <c r="N13">
-        <v>1.010454046558217</v>
+        <v>1.013022702159994</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040277288277241</v>
+        <v>1.040367042824919</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.034120695569796</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.034143515186917</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021141104575226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9903492316760188</v>
+        <v>0.990683297164317</v>
       </c>
       <c r="D14">
-        <v>1.018324912409282</v>
+        <v>1.01827720744304</v>
       </c>
       <c r="E14">
-        <v>1.010882388566364</v>
+        <v>1.011114543159234</v>
       </c>
       <c r="F14">
-        <v>1.024797508962626</v>
+        <v>1.024867703962412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044015820935086</v>
+        <v>1.0440075453086</v>
       </c>
       <c r="J14">
-        <v>1.02016531571451</v>
+        <v>1.020485080835361</v>
       </c>
       <c r="K14">
-        <v>1.032925855716808</v>
+        <v>1.032879009986094</v>
       </c>
       <c r="L14">
-        <v>1.025618659818885</v>
+        <v>1.025846553920562</v>
       </c>
       <c r="M14">
-        <v>1.039282833666861</v>
+        <v>1.039351785172468</v>
       </c>
       <c r="N14">
-        <v>1.010624806101239</v>
+        <v>1.013070919218991</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040924113140741</v>
+        <v>1.040978613489872</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.034420206351972</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034402609212184</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021227525200331</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9907824317450614</v>
+        <v>0.9910875673792912</v>
       </c>
       <c r="D15">
-        <v>1.018616720852786</v>
+        <v>1.01854043344545</v>
       </c>
       <c r="E15">
-        <v>1.011221292845048</v>
+        <v>1.011428673718488</v>
       </c>
       <c r="F15">
-        <v>1.025143569311849</v>
+        <v>1.025191437088525</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.044096778667904</v>
+        <v>1.044076060978913</v>
       </c>
       <c r="J15">
-        <v>1.020390320501229</v>
+        <v>1.020682507626236</v>
       </c>
       <c r="K15">
-        <v>1.033125863757711</v>
+        <v>1.033050940049256</v>
       </c>
       <c r="L15">
-        <v>1.025863880234035</v>
+        <v>1.026067484481041</v>
       </c>
       <c r="M15">
-        <v>1.039537013580623</v>
+        <v>1.03958403987884</v>
       </c>
       <c r="N15">
-        <v>1.01070482673733</v>
+        <v>1.013085049274195</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041162521570474</v>
+        <v>1.041199690914821</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034567496262068</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034530614838862</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021264829413797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9930562849130491</v>
+        <v>0.9932277300097309</v>
       </c>
       <c r="D16">
-        <v>1.020063188566683</v>
+        <v>1.019854275328348</v>
       </c>
       <c r="E16">
-        <v>1.012903578056138</v>
+        <v>1.012997546363038</v>
       </c>
       <c r="F16">
-        <v>1.026718154277067</v>
+        <v>1.026662794773395</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.044451064459721</v>
+        <v>1.04437408789321</v>
       </c>
       <c r="J16">
-        <v>1.021470455882339</v>
+        <v>1.021634987073418</v>
       </c>
       <c r="K16">
-        <v>1.034043761810391</v>
+        <v>1.033838421703203</v>
       </c>
       <c r="L16">
-        <v>1.027007693037405</v>
+        <v>1.027100025244365</v>
       </c>
       <c r="M16">
-        <v>1.040585886081029</v>
+        <v>1.040531457470773</v>
       </c>
       <c r="N16">
-        <v>1.011068047664743</v>
+        <v>1.013132876560493</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041952865629459</v>
+        <v>1.041909844313464</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.035219655258972</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035090862601758</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021416743191381</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9943834449413723</v>
+        <v>0.9944908474147695</v>
       </c>
       <c r="D17">
-        <v>1.020874415403412</v>
+        <v>1.020599919595372</v>
       </c>
       <c r="E17">
-        <v>1.013844053397184</v>
+        <v>1.013883907556553</v>
       </c>
       <c r="F17">
-        <v>1.027529049540756</v>
+        <v>1.0274233390836</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.044627841192036</v>
+        <v>1.044523659650852</v>
       </c>
       <c r="J17">
-        <v>1.022059183325471</v>
+        <v>1.022162392921541</v>
       </c>
       <c r="K17">
-        <v>1.034526078964837</v>
+        <v>1.034256147496116</v>
       </c>
       <c r="L17">
-        <v>1.027613623602507</v>
+        <v>1.027652803418545</v>
       </c>
       <c r="M17">
-        <v>1.041071018421776</v>
+        <v>1.040967036214048</v>
       </c>
       <c r="N17">
-        <v>1.011257104101606</v>
+        <v>1.013173276653004</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042207412339565</v>
+        <v>1.042125214829985</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035563263842371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035389049484886</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021488589903737</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9950113554992024</v>
+        <v>0.9950991725683448</v>
       </c>
       <c r="D18">
-        <v>1.021195921147412</v>
+        <v>1.020901195396769</v>
       </c>
       <c r="E18">
-        <v>1.014212140216141</v>
+        <v>1.014236183698256</v>
       </c>
       <c r="F18">
-        <v>1.027718581317328</v>
+        <v>1.027597441100817</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.044661678389094</v>
+        <v>1.044550040530554</v>
       </c>
       <c r="J18">
-        <v>1.022264161662049</v>
+        <v>1.022348614405542</v>
       </c>
       <c r="K18">
-        <v>1.034658547497283</v>
+        <v>1.034368643032605</v>
       </c>
       <c r="L18">
-        <v>1.027789981524997</v>
+        <v>1.027813624844013</v>
       </c>
       <c r="M18">
-        <v>1.041075414529742</v>
+        <v>1.040956223421346</v>
       </c>
       <c r="N18">
-        <v>1.011307690794012</v>
+        <v>1.013168818187226</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.041973447316975</v>
+        <v>1.041879207629291</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035645276883673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.035455807565283</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021490790716366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.995017853063942</v>
+        <v>0.995119920656189</v>
       </c>
       <c r="D19">
-        <v>1.021090707181324</v>
+        <v>1.020812355912013</v>
       </c>
       <c r="E19">
-        <v>1.01407007972138</v>
+        <v>1.014107747513328</v>
       </c>
       <c r="F19">
-        <v>1.02735286040383</v>
+        <v>1.027243858037022</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.044576258285968</v>
+        <v>1.044473006994687</v>
       </c>
       <c r="J19">
-        <v>1.022134673727948</v>
+        <v>1.02223285409829</v>
       </c>
       <c r="K19">
-        <v>1.034492407852568</v>
+        <v>1.034218586813273</v>
       </c>
       <c r="L19">
-        <v>1.027587020570147</v>
+        <v>1.027624064583413</v>
       </c>
       <c r="M19">
-        <v>1.040653475170947</v>
+        <v>1.040546218843319</v>
       </c>
       <c r="N19">
-        <v>1.011240516033422</v>
+        <v>1.013109287658726</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041314683756823</v>
+        <v>1.041229852769604</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035534212020947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.035356738809859</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021434974703169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9932710856103925</v>
+        <v>0.9934791185704817</v>
       </c>
       <c r="D20">
-        <v>1.019776959003933</v>
+        <v>1.019614674240828</v>
       </c>
       <c r="E20">
-        <v>1.012501998338292</v>
+        <v>1.012633350968758</v>
       </c>
       <c r="F20">
-        <v>1.025464859336733</v>
+        <v>1.025443170565651</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.04415317051413</v>
+        <v>1.044101714352561</v>
       </c>
       <c r="J20">
-        <v>1.021063882770111</v>
+        <v>1.021263744328954</v>
       </c>
       <c r="K20">
-        <v>1.033480745660087</v>
+        <v>1.033321174183658</v>
       </c>
       <c r="L20">
-        <v>1.026328520567253</v>
+        <v>1.02645763696588</v>
       </c>
       <c r="M20">
-        <v>1.039074246294312</v>
+        <v>1.039052914923768</v>
       </c>
       <c r="N20">
-        <v>1.010840702407995</v>
+        <v>1.012882926053544</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039537870159751</v>
+        <v>1.039520988622666</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034822851451174</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.03472654868501</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021213543404613</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9890133547030858</v>
+        <v>0.9894917305539123</v>
       </c>
       <c r="D21">
-        <v>1.017017780532275</v>
+        <v>1.017121902392689</v>
       </c>
       <c r="E21">
-        <v>1.009285723222742</v>
+        <v>1.009648201208834</v>
       </c>
       <c r="F21">
-        <v>1.022368392590722</v>
+        <v>1.02255560865545</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.043449852112405</v>
+        <v>1.04351382011939</v>
       </c>
       <c r="J21">
-        <v>1.018977714772795</v>
+        <v>1.019435464323427</v>
       </c>
       <c r="K21">
-        <v>1.031683762500749</v>
+        <v>1.031785996920465</v>
       </c>
       <c r="L21">
-        <v>1.024093284648196</v>
+        <v>1.024449062254211</v>
       </c>
       <c r="M21">
-        <v>1.036938029175001</v>
+        <v>1.037121897855926</v>
       </c>
       <c r="N21">
-        <v>1.010125337904623</v>
+        <v>1.012801885445807</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037806357741535</v>
+        <v>1.037951878006109</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033555543464406</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033644677632129</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020906334973317</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9863041732278276</v>
+        <v>0.9869533435273433</v>
       </c>
       <c r="D22">
-        <v>1.015271362854981</v>
+        <v>1.015544235915416</v>
       </c>
       <c r="E22">
-        <v>1.00725882559569</v>
+        <v>1.007767403019414</v>
       </c>
       <c r="F22">
-        <v>1.020437538646415</v>
+        <v>1.020757164959638</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.042996633527452</v>
+        <v>1.043133825221219</v>
       </c>
       <c r="J22">
-        <v>1.017657485903823</v>
+        <v>1.018277043324668</v>
       </c>
       <c r="K22">
-        <v>1.030546242485607</v>
+        <v>1.030813922300453</v>
       </c>
       <c r="L22">
-        <v>1.022687842328335</v>
+        <v>1.023186540752665</v>
       </c>
       <c r="M22">
-        <v>1.035614712771369</v>
+        <v>1.035928336563015</v>
       </c>
       <c r="N22">
-        <v>1.009673285604312</v>
+        <v>1.012744518615242</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036759036831331</v>
+        <v>1.037007250288305</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032737734730517</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032942549163368</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020710626623714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9877369083048597</v>
+        <v>0.9882840687141707</v>
       </c>
       <c r="D23">
-        <v>1.016189242472559</v>
+        <v>1.016364361316305</v>
       </c>
       <c r="E23">
-        <v>1.008328509391399</v>
+        <v>1.008750106872467</v>
       </c>
       <c r="F23">
-        <v>1.021456206908836</v>
+        <v>1.021698116153003</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04323370845363</v>
+        <v>1.043328326259791</v>
       </c>
       <c r="J23">
-        <v>1.01835190496066</v>
+        <v>1.018874834444857</v>
       </c>
       <c r="K23">
-        <v>1.03114112028363</v>
+        <v>1.031312990497498</v>
       </c>
       <c r="L23">
-        <v>1.023427730861672</v>
+        <v>1.023841349636299</v>
       </c>
       <c r="M23">
-        <v>1.036311011468072</v>
+        <v>1.036548493483398</v>
       </c>
       <c r="N23">
-        <v>1.009910247018196</v>
+        <v>1.012730345516403</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.03731011323059</v>
+        <v>1.037498065134863</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.033148688086898</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033284818856559</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020809320768453</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9932908358132817</v>
+        <v>0.9934994260975694</v>
       </c>
       <c r="D24">
-        <v>1.019766418526263</v>
+        <v>1.019604805657423</v>
       </c>
       <c r="E24">
-        <v>1.012494231490069</v>
+        <v>1.012626251059376</v>
       </c>
       <c r="F24">
-        <v>1.02542570580039</v>
+        <v>1.025404552651397</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044139156320271</v>
+        <v>1.044088213838031</v>
       </c>
       <c r="J24">
-        <v>1.021049618198766</v>
+        <v>1.021250027186102</v>
       </c>
       <c r="K24">
-        <v>1.033455083331659</v>
+        <v>1.033296169121377</v>
       </c>
       <c r="L24">
-        <v>1.026305430465802</v>
+        <v>1.026435205293786</v>
       </c>
       <c r="M24">
-        <v>1.039020560242273</v>
+        <v>1.038999755255343</v>
       </c>
       <c r="N24">
-        <v>1.010831984682531</v>
+        <v>1.012872381704674</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039454545742102</v>
+        <v>1.039438079965764</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034777263189763</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034678756225253</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021203351379324</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9995403294870413</v>
+        <v>0.9995239973949624</v>
       </c>
       <c r="D25">
-        <v>1.023811019106717</v>
+        <v>1.023379837883871</v>
       </c>
       <c r="E25">
-        <v>1.017214194964282</v>
+        <v>1.017148742357058</v>
       </c>
       <c r="F25">
-        <v>1.029927313929834</v>
+        <v>1.029710593881455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045116991489553</v>
+        <v>1.044951647373761</v>
       </c>
       <c r="J25">
-        <v>1.024083173287299</v>
+        <v>1.024067391552135</v>
       </c>
       <c r="K25">
-        <v>1.036050611814051</v>
+        <v>1.035625738152529</v>
       </c>
       <c r="L25">
-        <v>1.029551033301301</v>
+        <v>1.029486553583614</v>
       </c>
       <c r="M25">
-        <v>1.042078154631369</v>
+        <v>1.041864556526675</v>
       </c>
       <c r="N25">
-        <v>1.011867944159325</v>
+        <v>1.013589174510769</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041874426146245</v>
+        <v>1.041705377869526</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036609574355845</v>
+        <v>1.036322712322902</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021667136924542</v>
       </c>
     </row>
   </sheetData>
